--- a/docs/protocols-suite.xlsx
+++ b/docs/protocols-suite.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25606"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418EE04C-C8B5-4F17-ACE3-09D7EB9E7B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D27799-5153-4549-BB06-8A45D13B6DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E0AB265B-67EF-4891-B055-6CD83D7BA6A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{E0AB265B-67EF-4891-B055-6CD83D7BA6A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelos" sheetId="1" r:id="rId1"/>
+    <sheet name="Fisica" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -98,9 +99,6 @@
     <t>Aplicación</t>
   </si>
   <si>
-    <t>http - https - pop - imap - smtp - ftp - sftp - dns - dhcp</t>
-  </si>
-  <si>
     <t>tcp - udp</t>
   </si>
   <si>
@@ -117,6 +115,234 @@
   </si>
   <si>
     <t xml:space="preserve">Protocolos y Normas </t>
+  </si>
+  <si>
+    <t>http - https - pop - imap - smtp - ftp - sftp - dns - dhcp - ssh - telnet</t>
+  </si>
+  <si>
+    <t>568-A</t>
+  </si>
+  <si>
+    <t>568-B</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Simplex</t>
+  </si>
+  <si>
+    <t>Half Duplex</t>
+  </si>
+  <si>
+    <t>Full Duplex</t>
+  </si>
+  <si>
+    <t>Full Full Duplex</t>
+  </si>
+  <si>
+    <t>se envia o se recibe</t>
+  </si>
+  <si>
+    <t>se envia y se recibe</t>
+  </si>
+  <si>
+    <t>varios envian y reciben</t>
+  </si>
+  <si>
+    <t>MDIX</t>
+  </si>
+  <si>
+    <t>Comunicación</t>
+  </si>
+  <si>
+    <t>Funcionamiento</t>
+  </si>
+  <si>
+    <t>Configuracion</t>
+  </si>
+  <si>
+    <t>Definicion</t>
+  </si>
+  <si>
+    <t>Detecta la funcion de los pines en el otro extremo</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>DUPLEX</t>
+  </si>
+  <si>
+    <t>Establece el ancho de banda de la interfaz</t>
+  </si>
+  <si>
+    <t>Define el tipo de comunicación a estabecer</t>
+  </si>
+  <si>
+    <t>Telecomunications International Association</t>
+  </si>
+  <si>
+    <t>Caracteristica</t>
+  </si>
+  <si>
+    <t>Monomodo</t>
+  </si>
+  <si>
+    <t>Multimodo</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>Nucleo</t>
+  </si>
+  <si>
+    <t>9 micrones</t>
+  </si>
+  <si>
+    <t>60 micrones</t>
+  </si>
+  <si>
+    <t>Distancia</t>
+  </si>
+  <si>
+    <t>100km</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>Ancho de Banda</t>
+  </si>
+  <si>
+    <t>100Gb</t>
+  </si>
+  <si>
+    <t>10Gb</t>
+  </si>
+  <si>
+    <t>Problematicas</t>
+  </si>
+  <si>
+    <t>Colision</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>RFI</t>
+  </si>
+  <si>
+    <t>Crosstalk</t>
+  </si>
+  <si>
+    <t>Cruce no intencional de señales</t>
+  </si>
+  <si>
+    <t>Interferencia electromagnetica</t>
+  </si>
+  <si>
+    <t>Interferencia por Radiofrecuencia</t>
+  </si>
+  <si>
+    <t>Conectores</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>UPC</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>Physical Contact</t>
+  </si>
+  <si>
+    <t>Ultra Physical Contact</t>
+  </si>
+  <si>
+    <t>Angled Physical Contact</t>
+  </si>
+  <si>
+    <t>Ventajas</t>
+  </si>
+  <si>
+    <t>Contras</t>
+  </si>
+  <si>
+    <t>Electronica</t>
+  </si>
+  <si>
+    <t>Economica</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Amplitud Modulada</t>
+  </si>
+  <si>
+    <t>Frecuencia Modulada</t>
+  </si>
+  <si>
+    <t>Fase Modulada</t>
+  </si>
+  <si>
+    <t>Suscriber Connector</t>
+  </si>
+  <si>
+    <t>Ferrule Connector</t>
+  </si>
+  <si>
+    <t>Local Connector</t>
+  </si>
+  <si>
+    <t>Straight Connector</t>
+  </si>
+  <si>
+    <t>Terminaciones</t>
+  </si>
+  <si>
+    <t>se envia solamente</t>
+  </si>
+  <si>
+    <t>Cruce de datos producto del EMI</t>
+  </si>
+  <si>
+    <t>Cableado Fibra Optica</t>
   </si>
 </sst>
 </file>
@@ -160,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +445,36 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -302,48 +558,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -355,14 +602,92 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,6 +710,253 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>939362</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>52551</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E7423D-A49E-7556-00F4-AD88DE41A219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939362" y="472966"/>
+          <a:ext cx="1070741" cy="394137"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>945931</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>98534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65689</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137948</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7AC93D-35D1-4BBA-9B50-F1CD8B1ABDF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="945931" y="670034"/>
+          <a:ext cx="1077310" cy="801414"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>932793</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>78827</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC4AA42-723A-47E8-A3DD-75F6A8F85F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="932793" y="472966"/>
+          <a:ext cx="702879" cy="413844"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85396</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6162FE-F7FA-4F58-B80B-008D3D6C01E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="952500" y="637190"/>
+          <a:ext cx="1090448" cy="814551"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAFF2964-027C-4398-A44A-4A9E4E9AEDEF}" name="Tabla1" displayName="Tabla1" ref="E2:G9" totalsRowShown="0">
+  <autoFilter ref="E2:G9" xr:uid="{BAFF2964-027C-4398-A44A-4A9E4E9AEDEF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3A7DCE0D-EF52-4588-B163-6C4BF07E6249}" name="Caracteristica"/>
+    <tableColumn id="2" xr3:uid="{81C1281A-38B7-43DD-8CDE-3BB20BB3B6CA}" name="Monomodo"/>
+    <tableColumn id="3" xr3:uid="{CC9C562E-53E0-4249-8CC1-353564417D8D}" name="Multimodo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,43 +1258,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62595485-DE46-4100-986D-58CCEA45619E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -733,86 +1305,86 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -823,4 +1395,371 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57A04EF-2F25-478E-A3F9-35880850DB56}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="36"/>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="37"/>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="39"/>
+      <c r="I9" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="40"/>
+      <c r="F10" s="22"/>
+      <c r="I10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="E12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="E13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="E14" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="48"/>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="E15" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="E16" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/protocols-suite.xlsx
+++ b/docs/protocols-suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D27799-5153-4549-BB06-8A45D13B6DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C010C17F-66EF-4C88-91D5-387BFA9A6796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{E0AB265B-67EF-4891-B055-6CD83D7BA6A6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -343,6 +343,18 @@
   </si>
   <si>
     <t>Cableado Fibra Optica</t>
+  </si>
+  <si>
+    <t>Implementacion</t>
+  </si>
+  <si>
+    <t>Empresas</t>
+  </si>
+  <si>
+    <t>Hogares</t>
+  </si>
+  <si>
+    <t>Señal Portadora</t>
   </si>
 </sst>
 </file>
@@ -611,6 +623,46 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -620,75 +672,35 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,10 +1317,10 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="36" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1319,8 +1331,8 @@
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1329,8 +1341,8 @@
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1370,7 +1382,7 @@
       <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="37" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1384,7 +1396,7 @@
       <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1401,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57A04EF-2F25-478E-A3F9-35880850DB56}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,21 +1430,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="E1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
@@ -1444,17 +1456,17 @@
       <c r="G2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="31"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="s">
@@ -1466,19 +1478,19 @@
       <c r="G3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="s">
@@ -1490,19 +1502,19 @@
       <c r="G4" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E5" t="s">
@@ -1514,17 +1526,17 @@
       <c r="G5" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="36"/>
+      <c r="C6" s="31"/>
       <c r="E6" t="s">
         <v>62</v>
       </c>
@@ -1534,17 +1546,17 @@
       <c r="G6" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="26" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="37"/>
+      <c r="C7" s="32"/>
       <c r="E7" t="s">
         <v>84</v>
       </c>
@@ -1554,17 +1566,17 @@
       <c r="G7" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="31"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="33" t="s">
         <v>31</v>
       </c>
       <c r="E8" t="s">
@@ -1576,86 +1588,98 @@
       <c r="G8" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="26" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="39"/>
-      <c r="I9" s="26" t="s">
+      <c r="C9" s="34"/>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="40"/>
-      <c r="F10" s="22"/>
-      <c r="I10" s="23" t="s">
+      <c r="C10" s="35"/>
+      <c r="F10" s="19"/>
+      <c r="I10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="21" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="48"/>
+      <c r="E12" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="31"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="E13" s="26" t="s">
+      <c r="C13" s="49"/>
+      <c r="E13" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="47"/>
+      <c r="G13" s="43"/>
       <c r="I13" t="s">
         <v>88</v>
       </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="E14" s="28" t="s">
+      <c r="C14" s="39"/>
+      <c r="E14" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="45"/>
       <c r="I14" t="s">
         <v>89</v>
       </c>
@@ -1664,20 +1688,20 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="E15" s="26" t="s">
+      <c r="C15" s="49"/>
+      <c r="E15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="47"/>
+      <c r="G15" s="43"/>
       <c r="I15" t="s">
         <v>90</v>
       </c>
@@ -1686,20 +1710,20 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="E16" s="23" t="s">
+      <c r="C16" s="39"/>
+      <c r="E16" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="45"/>
       <c r="I16" t="s">
         <v>91</v>
       </c>
@@ -1707,51 +1731,51 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="s">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" t="s">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="F20" t="s">
+      <c r="B20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="F21" t="s">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
   </mergeCells>

--- a/docs/protocols-suite.xlsx
+++ b/docs/protocols-suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED3937D-2A96-43D0-900D-E2994DA97AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FDC47A79-F3A1-479D-9427-57DC0FF89604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="388" firstSheet="3" activeTab="8"/>
   </bookViews>

--- a/docs/protocols-suite.xlsx
+++ b/docs/protocols-suite.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F206BA-143C-4A75-B0A4-07B68D454023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE3FFCF-5BB8-45A0-8702-C194A7BEAE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
+    <sheet name="unidades" sheetId="2" r:id="rId2"/>
+    <sheet name="fisica" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="183">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -109,6 +111,480 @@
   </si>
   <si>
     <t>HTTP - HTTPS - FTP - SFTP - TFTP - POP - IMAP - SMTP - SSH - TELNET - DNS - DHCP</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>binary digit</t>
+  </si>
+  <si>
+    <t>Almacenamiento</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>8 bits</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>equivalencia</t>
+  </si>
+  <si>
+    <t>exponente</t>
+  </si>
+  <si>
+    <t>10^0</t>
+  </si>
+  <si>
+    <t>1000b</t>
+  </si>
+  <si>
+    <t>10^3</t>
+  </si>
+  <si>
+    <t>Megabyte</t>
+  </si>
+  <si>
+    <t>1000Kb</t>
+  </si>
+  <si>
+    <t>10^6</t>
+  </si>
+  <si>
+    <t>10^9</t>
+  </si>
+  <si>
+    <t>10^12</t>
+  </si>
+  <si>
+    <t>10^15</t>
+  </si>
+  <si>
+    <t>10^18</t>
+  </si>
+  <si>
+    <t>10^21</t>
+  </si>
+  <si>
+    <t>10^24</t>
+  </si>
+  <si>
+    <t>10^27</t>
+  </si>
+  <si>
+    <t>10^30</t>
+  </si>
+  <si>
+    <t>10^33</t>
+  </si>
+  <si>
+    <t>Gigabyte</t>
+  </si>
+  <si>
+    <t>1000Mb</t>
+  </si>
+  <si>
+    <t>Terabyte</t>
+  </si>
+  <si>
+    <t>1000Gb</t>
+  </si>
+  <si>
+    <t>Petabyte</t>
+  </si>
+  <si>
+    <t>1000Tb</t>
+  </si>
+  <si>
+    <t>Exabyte</t>
+  </si>
+  <si>
+    <t>1000Pb</t>
+  </si>
+  <si>
+    <t>Zettabyte</t>
+  </si>
+  <si>
+    <t>1000Xb</t>
+  </si>
+  <si>
+    <t>Yotabyte</t>
+  </si>
+  <si>
+    <t>1000Zb</t>
+  </si>
+  <si>
+    <t>Brontobyte</t>
+  </si>
+  <si>
+    <t>1000Yb</t>
+  </si>
+  <si>
+    <t>Geopbyte</t>
+  </si>
+  <si>
+    <t>Sangan</t>
+  </si>
+  <si>
+    <t>1000Bb</t>
+  </si>
+  <si>
+    <t>1000Geb</t>
+  </si>
+  <si>
+    <t>Ancho de Banda</t>
+  </si>
+  <si>
+    <t>exponencia</t>
+  </si>
+  <si>
+    <t>bit/s</t>
+  </si>
+  <si>
+    <t>transmision</t>
+  </si>
+  <si>
+    <t>Kilobyte</t>
+  </si>
+  <si>
+    <t>1000bps</t>
+  </si>
+  <si>
+    <t>1000kbps</t>
+  </si>
+  <si>
+    <t>1000mbps</t>
+  </si>
+  <si>
+    <t>1000gbps</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>hertz</t>
+  </si>
+  <si>
+    <t>1 ciclo/s</t>
+  </si>
+  <si>
+    <t>1000Hz</t>
+  </si>
+  <si>
+    <t>1000KHz</t>
+  </si>
+  <si>
+    <t>1000MHz</t>
+  </si>
+  <si>
+    <t>1000GHz</t>
+  </si>
+  <si>
+    <t>Kilobit/s</t>
+  </si>
+  <si>
+    <t>Megabit/s</t>
+  </si>
+  <si>
+    <t>Gigabit/s</t>
+  </si>
+  <si>
+    <t>Terabit/s</t>
+  </si>
+  <si>
+    <t>Kilohertz</t>
+  </si>
+  <si>
+    <t>Megahertz</t>
+  </si>
+  <si>
+    <t>Gigahertz</t>
+  </si>
+  <si>
+    <t>Terahertz</t>
+  </si>
+  <si>
+    <t>TIA</t>
+  </si>
+  <si>
+    <t>TIA-568A</t>
+  </si>
+  <si>
+    <t>TIA-568B</t>
+  </si>
+  <si>
+    <t>b.verde</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>b.naranja</t>
+  </si>
+  <si>
+    <t>naranja</t>
+  </si>
+  <si>
+    <t>azul</t>
+  </si>
+  <si>
+    <t>b.azul</t>
+  </si>
+  <si>
+    <t>marron</t>
+  </si>
+  <si>
+    <t>b.marron</t>
+  </si>
+  <si>
+    <t>tx</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>HalfDuplex</t>
+  </si>
+  <si>
+    <t>FullDuplex</t>
+  </si>
+  <si>
+    <t>Simplex</t>
+  </si>
+  <si>
+    <t>envia y recibe</t>
+  </si>
+  <si>
+    <t>envia o recibe</t>
+  </si>
+  <si>
+    <t>solo envia</t>
+  </si>
+  <si>
+    <t>Full/FullDuplex</t>
+  </si>
+  <si>
+    <t>envian y reciben</t>
+  </si>
+  <si>
+    <t>radiodifusion</t>
+  </si>
+  <si>
+    <t>telefonia</t>
+  </si>
+  <si>
+    <t>comunicador</t>
+  </si>
+  <si>
+    <t>llamada grupal</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>CARRIER</t>
+  </si>
+  <si>
+    <t>Amplitud Modulada</t>
+  </si>
+  <si>
+    <t>Frecuencia Modulada</t>
+  </si>
+  <si>
+    <t>Modulacion de Fase</t>
+  </si>
+  <si>
+    <t>Señal Portadora</t>
+  </si>
+  <si>
+    <t>Monomodo</t>
+  </si>
+  <si>
+    <t>Multimodo</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>L.E.D.</t>
+  </si>
+  <si>
+    <t>Tecnologia</t>
+  </si>
+  <si>
+    <t>Usos</t>
+  </si>
+  <si>
+    <t>Empresarial</t>
+  </si>
+  <si>
+    <t>FTTH (Hogareño)</t>
+  </si>
+  <si>
+    <t>Distancia</t>
+  </si>
+  <si>
+    <t>200km</t>
+  </si>
+  <si>
+    <t>2km</t>
+  </si>
+  <si>
+    <t>Ventajas</t>
+  </si>
+  <si>
+    <t>Contras</t>
+  </si>
+  <si>
+    <t>Electronica</t>
+  </si>
+  <si>
+    <t>Economica</t>
+  </si>
+  <si>
+    <t>Nucleo</t>
+  </si>
+  <si>
+    <t>60 nanometros</t>
+  </si>
+  <si>
+    <t>9 nanometros</t>
+  </si>
+  <si>
+    <t>Capacidad</t>
+  </si>
+  <si>
+    <t>10Gbps</t>
+  </si>
+  <si>
+    <t>100Gbps</t>
+  </si>
+  <si>
+    <t>Significado</t>
+  </si>
+  <si>
+    <t>SMF(Single Mode)</t>
+  </si>
+  <si>
+    <t>MMF (MultiMode)</t>
+  </si>
+  <si>
+    <t>Fibra</t>
+  </si>
+  <si>
+    <t>conectores</t>
+  </si>
+  <si>
+    <t>terminaciones</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>UPC</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>Suscriber Connector</t>
+  </si>
+  <si>
+    <t>Ferrule Conector</t>
+  </si>
+  <si>
+    <t>Lucent Conector</t>
+  </si>
+  <si>
+    <t>Straight Tip</t>
+  </si>
+  <si>
+    <t>Physical Contact</t>
+  </si>
+  <si>
+    <t>Angled Physical Contact</t>
+  </si>
+  <si>
+    <t>Ultra Physical Contact</t>
+  </si>
+  <si>
+    <t>Largo de la Onda</t>
+  </si>
+  <si>
+    <t>Cantidad de Ciclos</t>
+  </si>
+  <si>
+    <t>Combinacion</t>
+  </si>
+  <si>
+    <t>Señal de datos</t>
+  </si>
+  <si>
+    <t>Comunicación</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Caracteristica</t>
+  </si>
+  <si>
+    <t>Problematicas</t>
+  </si>
+  <si>
+    <t>Colision</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>RFI</t>
+  </si>
+  <si>
+    <t>Crosstalk</t>
+  </si>
+  <si>
+    <t>concepto</t>
+  </si>
+  <si>
+    <t>Interf. Electromagnetica</t>
+  </si>
+  <si>
+    <t>Interf. Radiofrecuencia</t>
+  </si>
+  <si>
+    <t>Choque de señales</t>
+  </si>
+  <si>
+    <t>Diafonia (Cruce de Señales)</t>
   </si>
 </sst>
 </file>
@@ -145,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +674,54 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -293,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -301,60 +825,108 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -364,24 +936,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,6 +961,301 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676603</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>52552</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32727137-50B5-482B-A31C-6728143F0830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676603" y="446690"/>
+          <a:ext cx="1090449" cy="420413"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>893379</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19707</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B141DB6-4C97-437F-ABC0-0E5A43E2371F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="893379" y="656897"/>
+          <a:ext cx="1083880" cy="755431"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>873672</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF7F045-6944-4575-9402-C2BED59B525F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="873672" y="637191"/>
+          <a:ext cx="1123294" cy="801412"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>702879</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>111673</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2634D3-8758-4FC9-856B-B2763CB6575B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="702879" y="472966"/>
+          <a:ext cx="1051035" cy="400707"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9CCDC61-9019-4C6D-A06B-84D29AFEF12E}" name="Tabla1" displayName="Tabla1" ref="A4:C16" totalsRowShown="0">
+  <autoFilter ref="A4:C16" xr:uid="{A9CCDC61-9019-4C6D-A06B-84D29AFEF12E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CB3D0213-9198-4683-B7C1-367F28FAF5B8}" name="unidad"/>
+    <tableColumn id="2" xr3:uid="{2FB2436F-D1D1-443E-9C8C-2F1976A69FE5}" name="equivalencia"/>
+    <tableColumn id="3" xr3:uid="{64D03617-DCEB-4482-9AE5-836C2721FA61}" name="exponente"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6C6D8F50-DDEA-4CB6-AECB-C91F008AE46E}" name="Tabla2" displayName="Tabla2" ref="E4:G9" totalsRowShown="0">
+  <autoFilter ref="E4:G9" xr:uid="{6C6D8F50-DDEA-4CB6-AECB-C91F008AE46E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B51E7C21-FDAF-477B-846F-996E4C3C7EB7}" name="unidad"/>
+    <tableColumn id="2" xr3:uid="{51796D62-F59D-489C-AD02-690905E2A781}" name="equivalencia"/>
+    <tableColumn id="3" xr3:uid="{F77F5CAD-ED39-4836-B01B-748E6CE3B421}" name="exponencia"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09807BD8-AA50-4C29-ACE1-024E25517512}" name="Tabla3" displayName="Tabla3" ref="E12:G16" totalsRowShown="0">
+  <autoFilter ref="E12:G16" xr:uid="{09807BD8-AA50-4C29-ACE1-024E25517512}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A648E674-05A7-4EF3-A1D7-2B08FF6E0945}" name="hertz"/>
+    <tableColumn id="2" xr3:uid="{62AB139A-7590-4730-8946-70A55EE1B689}" name="1 ciclo/s"/>
+    <tableColumn id="3" xr3:uid="{2D13D491-A241-4CCA-85FF-0D819173C5CD}" name="10^0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF72E9EB-D48A-408F-A2C6-1CBD103DC7EE}" name="Tabla4" displayName="Tabla4" ref="A12:C16" totalsRowShown="0">
+  <autoFilter ref="A12:C16" xr:uid="{BF72E9EB-D48A-408F-A2C6-1CBD103DC7EE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EC007214-F660-4460-99F1-62FBA952AD8E}" name="Comunicación"/>
+    <tableColumn id="2" xr3:uid="{9F87449E-8FF0-48CA-9753-A93E75D939A2}" name="Concepto"/>
+    <tableColumn id="3" xr3:uid="{2F049624-BAE5-4D36-9C6E-C2805CABFE09}" name="Ejemplo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D1FAACFE-2D97-4741-9C70-4BE5DBBE88C8}" name="Tabla5" displayName="Tabla5" ref="E12:G16" totalsRowShown="0">
+  <autoFilter ref="E12:G16" xr:uid="{D1FAACFE-2D97-4741-9C70-4BE5DBBE88C8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{215CBA66-5A27-49CE-AC03-00432E7F3317}" name="Tipo"/>
+    <tableColumn id="2" xr3:uid="{92E3B12E-C627-473A-9C3C-D59CEF165866}" name="Concepto"/>
+    <tableColumn id="3" xr3:uid="{06CDA896-BA05-4A85-82AA-E3466E50A7ED}" name="Caracteristica"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,7 +1557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE91CD09-8D46-4150-91A3-935B67F81363}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -716,102 +1570,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="37" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -824,4 +1678,691 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D646EF-9814-4598-80CC-989625FE9413}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="E3" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E11:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140058D3-1D45-406D-8302-57E7EE53FED0}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/protocols-suite.xlsx
+++ b/docs/protocols-suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE3FFCF-5BB8-45A0-8702-C194A7BEAE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED159B3-6E9D-455C-9467-9D1EA6723CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="182">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -482,12 +482,6 @@
     <t>Fibra</t>
   </si>
   <si>
-    <t>conectores</t>
-  </si>
-  <si>
-    <t>terminaciones</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -509,27 +503,6 @@
     <t>APC</t>
   </si>
   <si>
-    <t>Suscriber Connector</t>
-  </si>
-  <si>
-    <t>Ferrule Conector</t>
-  </si>
-  <si>
-    <t>Lucent Conector</t>
-  </si>
-  <si>
-    <t>Straight Tip</t>
-  </si>
-  <si>
-    <t>Physical Contact</t>
-  </si>
-  <si>
-    <t>Angled Physical Contact</t>
-  </si>
-  <si>
-    <t>Ultra Physical Contact</t>
-  </si>
-  <si>
     <t>Largo de la Onda</t>
   </si>
   <si>
@@ -572,9 +545,6 @@
     <t>Crosstalk</t>
   </si>
   <si>
-    <t>concepto</t>
-  </si>
-  <si>
     <t>Interf. Electromagnetica</t>
   </si>
   <si>
@@ -585,6 +555,33 @@
   </si>
   <si>
     <t>Diafonia (Cruce de Señales)</t>
+  </si>
+  <si>
+    <t>Terminaciones</t>
+  </si>
+  <si>
+    <t>Conectores</t>
+  </si>
+  <si>
+    <t>SC (Suscriptor Connector)</t>
+  </si>
+  <si>
+    <t>LC (Lucent Connector)</t>
+  </si>
+  <si>
+    <t>FC (Ferrule Connector)</t>
+  </si>
+  <si>
+    <t>ST (Straight Connector)</t>
+  </si>
+  <si>
+    <t>PC  (Physical Contact)</t>
+  </si>
+  <si>
+    <t>UPC (Ultra Physical Contact)</t>
+  </si>
+  <si>
+    <t>APC (Angled Physical Contact)</t>
   </si>
 </sst>
 </file>
@@ -621,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,8 +721,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -813,11 +840,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -941,6 +1045,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1253,6 +1390,18 @@
     <tableColumn id="1" xr3:uid="{215CBA66-5A27-49CE-AC03-00432E7F3317}" name="Tipo"/>
     <tableColumn id="2" xr3:uid="{92E3B12E-C627-473A-9C3C-D59CEF165866}" name="Concepto"/>
     <tableColumn id="3" xr3:uid="{06CDA896-BA05-4A85-82AA-E3466E50A7ED}" name="Caracteristica"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{820F069F-2F93-4970-ACF5-ED4D020D55E9}" name="Tabla7" displayName="Tabla7" ref="E2:G10" totalsRowShown="0">
+  <autoFilter ref="E2:G10" xr:uid="{820F069F-2F93-4970-ACF5-ED4D020D55E9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5011CCA9-4806-432C-A340-C02034BE57B9}" name="Fibra"/>
+    <tableColumn id="2" xr3:uid="{00A4589F-A8D1-4DA8-B127-91B1BD13348F}" name="SMF(Single Mode)"/>
+    <tableColumn id="3" xr3:uid="{19772779-4611-439E-A990-B7A6B47AAF85}" name="MMF (MultiMode)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1985,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140058D3-1D45-406D-8302-57E7EE53FED0}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,10 +2144,10 @@
     <col min="2" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="2.85546875" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2025,9 +2174,10 @@
       <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="43" t="s">
-        <v>148</v>
-      </c>
+      <c r="I2" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -2048,11 +2198,11 @@
       <c r="G3" t="s">
         <v>124</v>
       </c>
-      <c r="I3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J3" t="s">
-        <v>157</v>
+      <c r="I3" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2074,11 +2224,11 @@
       <c r="G4" t="s">
         <v>126</v>
       </c>
-      <c r="I4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4" t="s">
-        <v>158</v>
+      <c r="I4" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2100,11 +2250,11 @@
       <c r="G5" t="s">
         <v>130</v>
       </c>
-      <c r="I5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" t="s">
-        <v>159</v>
+      <c r="I5" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2124,11 +2274,11 @@
       <c r="G6" t="s">
         <v>139</v>
       </c>
-      <c r="I6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J6" t="s">
-        <v>160</v>
+      <c r="I6" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2148,9 +2298,10 @@
       <c r="G7" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="43" t="s">
-        <v>149</v>
-      </c>
+      <c r="I7" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -2171,11 +2322,11 @@
       <c r="G8" t="s">
         <v>137</v>
       </c>
-      <c r="I8" t="s">
-        <v>154</v>
-      </c>
-      <c r="J8" t="s">
-        <v>161</v>
+      <c r="I8" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2195,14 +2346,14 @@
       <c r="G9" t="s">
         <v>136</v>
       </c>
-      <c r="I9" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>99</v>
       </c>
@@ -2219,38 +2370,36 @@
       <c r="G10" t="s">
         <v>143</v>
       </c>
-      <c r="I10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J10" t="s">
-        <v>162</v>
+      <c r="I10" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" t="s">
-        <v>178</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2269,13 +2418,13 @@
         <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
-      </c>
-      <c r="I13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J13" t="s">
-        <v>181</v>
+        <v>158</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2295,13 +2444,13 @@
         <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I14" t="s">
-        <v>175</v>
-      </c>
-      <c r="J14" t="s">
-        <v>179</v>
+        <v>155</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2321,13 +2470,13 @@
         <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
-      </c>
-      <c r="I15" t="s">
-        <v>176</v>
-      </c>
-      <c r="J15" t="s">
-        <v>180</v>
+        <v>156</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2347,22 +2496,28 @@
         <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" t="s">
-        <v>177</v>
-      </c>
-      <c r="J16" t="s">
-        <v>182</v>
+        <v>157</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/protocols-suite.xlsx
+++ b/docs/protocols-suite.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED159B3-6E9D-455C-9467-9D1EA6723CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4859FF9-FB30-468B-AF19-BCB0605C6599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
     <sheet name="unidades" sheetId="2" r:id="rId2"/>
     <sheet name="fisica" sheetId="3" r:id="rId3"/>
+    <sheet name="sistemas" sheetId="4" r:id="rId4"/>
+    <sheet name="IPv4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="258">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -582,6 +584,234 @@
   </si>
   <si>
     <t>APC (Angled Physical Contact)</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>0x0B</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>0x0D</t>
+  </si>
+  <si>
+    <t>0x0E</t>
+  </si>
+  <si>
+    <t>0x0F</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>01100100</t>
+  </si>
+  <si>
+    <t>01100011</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>0x63</t>
+  </si>
+  <si>
+    <t>0x64</t>
+  </si>
+  <si>
+    <t>0xFF</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>VAL</t>
+  </si>
+  <si>
+    <t>10^1</t>
+  </si>
+  <si>
+    <t>10^2</t>
+  </si>
+  <si>
+    <t>E.G.</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>2^7</t>
+  </si>
+  <si>
+    <t>2^6</t>
+  </si>
+  <si>
+    <t>2^5</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>2^3</t>
+  </si>
+  <si>
+    <t>2^2</t>
+  </si>
+  <si>
+    <t>2^1</t>
+  </si>
+  <si>
+    <t>2^0</t>
+  </si>
+  <si>
+    <t>BINARIO</t>
+  </si>
+  <si>
+    <t>HEXADECIMAL</t>
+  </si>
+  <si>
+    <t>16^3</t>
+  </si>
+  <si>
+    <t>16^2</t>
+  </si>
+  <si>
+    <t>16^1</t>
+  </si>
+  <si>
+    <t>16^0</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>7D</t>
   </si>
 </sst>
 </file>
@@ -618,7 +848,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,8 +981,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -917,11 +1159,273 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1006,39 +1510,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1051,38 +1522,163 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1407,6 +2003,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{26A30948-BD52-4E89-81B3-16946E7E6B18}" name="Tabla6" displayName="Tabla6" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21" xr:uid="{26A30948-BD52-4E89-81B3-16946E7E6B18}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B59AE15D-8E37-4AB6-A9CB-56778E6D145C}" name="DEC"/>
+    <tableColumn id="2" xr3:uid="{B064AA0A-3474-47C5-87AE-2719C1956CCC}" name="BIN" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{6716CE7A-6043-4E5D-8BE3-5B52A8E20ACD}" name="HEX"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1736,13 +2344,13 @@
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="50" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1750,17 +2358,17 @@
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -1800,7 +2408,7 @@
       <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1814,7 +2422,7 @@
       <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="38"/>
+      <c r="D8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1833,7 +2441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D646EF-9814-4598-80CC-989625FE9413}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:G11"/>
     </sheetView>
   </sheetViews>
@@ -1856,16 +2464,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="E3" s="42" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="E3" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2008,11 +2616,11 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2134,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140058D3-1D45-406D-8302-57E7EE53FED0}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,12 +2759,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2174,10 +2782,10 @@
       <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="52"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -2198,10 +2806,10 @@
       <c r="G3" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="40" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2224,10 +2832,10 @@
       <c r="G4" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="41" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2250,10 +2858,10 @@
       <c r="G5" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="42" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2265,7 +2873,7 @@
       <c r="C6" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="33" t="s">
         <v>138</v>
       </c>
       <c r="F6" t="s">
@@ -2274,10 +2882,10 @@
       <c r="G6" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="43" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2298,10 +2906,10 @@
       <c r="G7" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="52"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -2322,10 +2930,10 @@
       <c r="G8" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="44" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2346,10 +2954,10 @@
       <c r="G9" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="45" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2370,10 +2978,10 @@
       <c r="G10" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="46" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2396,10 +3004,10 @@
       <c r="G12" t="s">
         <v>163</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="52"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2420,10 +3028,10 @@
       <c r="G13" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="37" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2446,10 +3054,10 @@
       <c r="G14" t="s">
         <v>155</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="39" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2472,10 +3080,10 @@
       <c r="G15" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="37" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2498,10 +3106,10 @@
       <c r="G16" t="s">
         <v>157</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="35" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2520,4 +3128,1177 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45C9210-1E69-4B0C-B081-7C5FAE29CDE8}">
+  <dimension ref="A1:AE21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7:S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="5.7109375" customWidth="1"/>
+    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.7109375" style="76"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="31"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="T2" s="31"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="31">
+        <v>100</v>
+      </c>
+      <c r="H3" s="31">
+        <v>10</v>
+      </c>
+      <c r="I3" s="31">
+        <v>1</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="L3" s="31">
+        <v>128</v>
+      </c>
+      <c r="M3" s="31">
+        <v>64</v>
+      </c>
+      <c r="N3" s="31">
+        <v>32</v>
+      </c>
+      <c r="O3" s="31">
+        <v>16</v>
+      </c>
+      <c r="P3" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="31">
+        <v>4</v>
+      </c>
+      <c r="R3" s="31">
+        <v>2</v>
+      </c>
+      <c r="S3" s="31">
+        <v>1</v>
+      </c>
+      <c r="T3" s="31"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>2</v>
+      </c>
+      <c r="H4" s="31">
+        <v>3</v>
+      </c>
+      <c r="I4" s="31">
+        <v>6</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="31">
+        <v>1</v>
+      </c>
+      <c r="M4" s="31">
+        <v>1</v>
+      </c>
+      <c r="N4" s="31">
+        <v>1</v>
+      </c>
+      <c r="O4" s="31">
+        <v>0</v>
+      </c>
+      <c r="P4" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>1</v>
+      </c>
+      <c r="R4" s="31">
+        <v>0</v>
+      </c>
+      <c r="S4" s="31">
+        <v>0</v>
+      </c>
+      <c r="T4" s="31"/>
+      <c r="V4" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="W4" s="31">
+        <v>0</v>
+      </c>
+      <c r="X4" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="V6" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="76" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="K7" s="65">
+        <v>128</v>
+      </c>
+      <c r="L7" s="89">
+        <v>1</v>
+      </c>
+      <c r="M7" s="90">
+        <v>0</v>
+      </c>
+      <c r="N7" s="91">
+        <v>0</v>
+      </c>
+      <c r="O7" s="92">
+        <v>0</v>
+      </c>
+      <c r="P7" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="90">
+        <v>0</v>
+      </c>
+      <c r="R7" s="91">
+        <v>0</v>
+      </c>
+      <c r="S7" s="92">
+        <v>0</v>
+      </c>
+      <c r="T7" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="U7" s="84">
+        <v>80</v>
+      </c>
+      <c r="V7" s="72">
+        <v>128</v>
+      </c>
+      <c r="W7" s="73">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="76">
+        <v>128</v>
+      </c>
+      <c r="AE7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="K8" s="66">
+        <v>32</v>
+      </c>
+      <c r="L8" s="93">
+        <v>0</v>
+      </c>
+      <c r="M8" s="63">
+        <v>0</v>
+      </c>
+      <c r="N8" s="68">
+        <v>1</v>
+      </c>
+      <c r="O8" s="94">
+        <v>0</v>
+      </c>
+      <c r="P8" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="63">
+        <v>0</v>
+      </c>
+      <c r="R8" s="68">
+        <v>0</v>
+      </c>
+      <c r="S8" s="94">
+        <v>0</v>
+      </c>
+      <c r="T8" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="U8" s="85">
+        <v>20</v>
+      </c>
+      <c r="V8" s="77">
+        <v>0</v>
+      </c>
+      <c r="W8" s="74">
+        <v>64</v>
+      </c>
+      <c r="X8" s="107">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="76">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="80">
+        <v>4096</v>
+      </c>
+      <c r="G9" s="80">
+        <v>256</v>
+      </c>
+      <c r="H9" s="80">
+        <v>16</v>
+      </c>
+      <c r="I9" s="80">
+        <v>1</v>
+      </c>
+      <c r="K9" s="67">
+        <v>127</v>
+      </c>
+      <c r="L9" s="95">
+        <v>0</v>
+      </c>
+      <c r="M9" s="68">
+        <v>1</v>
+      </c>
+      <c r="N9" s="63">
+        <v>1</v>
+      </c>
+      <c r="O9" s="96">
+        <v>1</v>
+      </c>
+      <c r="P9" s="95">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="68">
+        <v>1</v>
+      </c>
+      <c r="R9" s="63">
+        <v>1</v>
+      </c>
+      <c r="S9" s="96">
+        <v>1</v>
+      </c>
+      <c r="T9" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="U9" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="V9" s="102"/>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="75">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="66">
+        <v>255</v>
+      </c>
+      <c r="L10" s="93">
+        <v>1</v>
+      </c>
+      <c r="M10" s="63">
+        <v>1</v>
+      </c>
+      <c r="N10" s="68">
+        <v>1</v>
+      </c>
+      <c r="O10" s="94">
+        <v>1</v>
+      </c>
+      <c r="P10" s="93">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="63">
+        <v>1</v>
+      </c>
+      <c r="R10" s="68">
+        <v>1</v>
+      </c>
+      <c r="S10" s="94">
+        <v>1</v>
+      </c>
+      <c r="T10" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="U10" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="V10" s="105"/>
+      <c r="W10" s="108"/>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="75">
+        <v>16</v>
+      </c>
+      <c r="Z10" s="106">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="105"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="67">
+        <v>132</v>
+      </c>
+      <c r="L11" s="95">
+        <v>1</v>
+      </c>
+      <c r="M11" s="68">
+        <v>0</v>
+      </c>
+      <c r="N11" s="63">
+        <v>0</v>
+      </c>
+      <c r="O11" s="96">
+        <v>0</v>
+      </c>
+      <c r="P11" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="68">
+        <v>1</v>
+      </c>
+      <c r="R11" s="63">
+        <v>0</v>
+      </c>
+      <c r="S11" s="96">
+        <v>0</v>
+      </c>
+      <c r="T11" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="U11" s="84">
+        <v>84</v>
+      </c>
+      <c r="V11" s="70">
+        <v>132</v>
+      </c>
+      <c r="W11" s="104">
+        <v>2</v>
+      </c>
+      <c r="X11" s="108"/>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="75">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="104">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="K12" s="66">
+        <v>192</v>
+      </c>
+      <c r="L12" s="93">
+        <v>1</v>
+      </c>
+      <c r="M12" s="63">
+        <v>1</v>
+      </c>
+      <c r="N12" s="68">
+        <v>0</v>
+      </c>
+      <c r="O12" s="94">
+        <v>0</v>
+      </c>
+      <c r="P12" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="63">
+        <v>0</v>
+      </c>
+      <c r="R12" s="68">
+        <v>0</v>
+      </c>
+      <c r="S12" s="94">
+        <v>0</v>
+      </c>
+      <c r="T12" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="U12" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="V12" s="77">
+        <v>0</v>
+      </c>
+      <c r="W12" s="81">
+        <v>66</v>
+      </c>
+      <c r="X12" s="104">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="108"/>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="106">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="105"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="67">
+        <v>176</v>
+      </c>
+      <c r="L13" s="95">
+        <v>1</v>
+      </c>
+      <c r="M13" s="68">
+        <v>0</v>
+      </c>
+      <c r="N13" s="63">
+        <v>1</v>
+      </c>
+      <c r="O13" s="96">
+        <v>1</v>
+      </c>
+      <c r="P13" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="68">
+        <v>0</v>
+      </c>
+      <c r="R13" s="63">
+        <v>0</v>
+      </c>
+      <c r="S13" s="96">
+        <v>0</v>
+      </c>
+      <c r="T13" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="U13" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="V13" s="102"/>
+      <c r="W13" s="81">
+        <v>0</v>
+      </c>
+      <c r="X13" s="81">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="104">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="108"/>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="75">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="66">
+        <v>172</v>
+      </c>
+      <c r="L14" s="93">
+        <v>1</v>
+      </c>
+      <c r="M14" s="63">
+        <v>0</v>
+      </c>
+      <c r="N14" s="68">
+        <v>1</v>
+      </c>
+      <c r="O14" s="94">
+        <v>0</v>
+      </c>
+      <c r="P14" s="93">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="63">
+        <v>1</v>
+      </c>
+      <c r="R14" s="68">
+        <v>0</v>
+      </c>
+      <c r="S14" s="94">
+        <v>0</v>
+      </c>
+      <c r="T14" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="U14" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="W14" s="103"/>
+      <c r="X14" s="81">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="81">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="104">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="108"/>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="75">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="76">
+        <v>172</v>
+      </c>
+      <c r="AE14" s="81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="K15" s="67">
+        <v>20</v>
+      </c>
+      <c r="L15" s="95">
+        <v>0</v>
+      </c>
+      <c r="M15" s="68">
+        <v>0</v>
+      </c>
+      <c r="N15" s="63">
+        <v>0</v>
+      </c>
+      <c r="O15" s="96">
+        <v>1</v>
+      </c>
+      <c r="P15" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="68">
+        <v>1</v>
+      </c>
+      <c r="R15" s="63">
+        <v>0</v>
+      </c>
+      <c r="S15" s="96">
+        <v>0</v>
+      </c>
+      <c r="T15" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="U15" s="84">
+        <v>14</v>
+      </c>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="81">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="81">
+        <v>8</v>
+      </c>
+      <c r="AA15" s="104">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="108"/>
+      <c r="AC15" s="109"/>
+      <c r="AD15" s="76">
+        <v>12</v>
+      </c>
+      <c r="AE15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" s="66">
+        <v>56</v>
+      </c>
+      <c r="L16" s="93">
+        <v>0</v>
+      </c>
+      <c r="M16" s="63">
+        <v>0</v>
+      </c>
+      <c r="N16" s="68">
+        <v>1</v>
+      </c>
+      <c r="O16" s="94">
+        <v>1</v>
+      </c>
+      <c r="P16" s="93">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="63">
+        <v>0</v>
+      </c>
+      <c r="R16" s="68">
+        <v>0</v>
+      </c>
+      <c r="S16" s="94">
+        <v>0</v>
+      </c>
+      <c r="T16" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="U16" s="85">
+        <v>38</v>
+      </c>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="81">
+        <v>4</v>
+      </c>
+      <c r="AB16" s="104">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE16" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="67">
+        <v>64</v>
+      </c>
+      <c r="L17" s="95">
+        <v>0</v>
+      </c>
+      <c r="M17" s="68">
+        <v>1</v>
+      </c>
+      <c r="N17" s="63">
+        <v>0</v>
+      </c>
+      <c r="O17" s="96">
+        <v>0</v>
+      </c>
+      <c r="P17" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="68">
+        <v>0</v>
+      </c>
+      <c r="R17" s="63">
+        <v>0</v>
+      </c>
+      <c r="S17" s="96">
+        <v>0</v>
+      </c>
+      <c r="T17" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="U17" s="84">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="81">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" s="66">
+        <v>248</v>
+      </c>
+      <c r="L18" s="93">
+        <v>1</v>
+      </c>
+      <c r="M18" s="63">
+        <v>1</v>
+      </c>
+      <c r="N18" s="68">
+        <v>1</v>
+      </c>
+      <c r="O18" s="94">
+        <v>1</v>
+      </c>
+      <c r="P18" s="93">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="63">
+        <v>0</v>
+      </c>
+      <c r="R18" s="68">
+        <v>0</v>
+      </c>
+      <c r="S18" s="94">
+        <v>0</v>
+      </c>
+      <c r="T18" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="U18" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA18" s="103"/>
+      <c r="AB18" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>99</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="67">
+        <v>236</v>
+      </c>
+      <c r="L19" s="95">
+        <v>1</v>
+      </c>
+      <c r="M19" s="68">
+        <v>1</v>
+      </c>
+      <c r="N19" s="63">
+        <v>1</v>
+      </c>
+      <c r="O19" s="96">
+        <v>0</v>
+      </c>
+      <c r="P19" s="95">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="68">
+        <v>1</v>
+      </c>
+      <c r="R19" s="63">
+        <v>0</v>
+      </c>
+      <c r="S19" s="96">
+        <v>0</v>
+      </c>
+      <c r="T19" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="U19" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="110"/>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" t="s">
+        <v>223</v>
+      </c>
+      <c r="K20" s="66">
+        <v>125</v>
+      </c>
+      <c r="L20" s="97">
+        <v>0</v>
+      </c>
+      <c r="M20" s="98">
+        <v>1</v>
+      </c>
+      <c r="N20" s="99">
+        <v>1</v>
+      </c>
+      <c r="O20" s="100">
+        <v>1</v>
+      </c>
+      <c r="P20" s="97">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="98">
+        <v>1</v>
+      </c>
+      <c r="R20" s="99">
+        <v>0</v>
+      </c>
+      <c r="S20" s="100">
+        <v>1</v>
+      </c>
+      <c r="T20" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="U20" s="30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>255</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="V6:AC6"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2E4EBA-F545-46F4-A4E2-4B686F5E50D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/protocols-suite.xlsx
+++ b/docs/protocols-suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4859FF9-FB30-468B-AF19-BCB0605C6599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4CD8F3-40DE-43D7-8272-899086C0F6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="344">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -812,13 +812,471 @@
   </si>
   <si>
     <t>7D</t>
+  </si>
+  <si>
+    <t>IPv4</t>
+  </si>
+  <si>
+    <t>Publicas</t>
+  </si>
+  <si>
+    <t>Privadas</t>
+  </si>
+  <si>
+    <t>CLASE</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>INICIO</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>RANGO</t>
+  </si>
+  <si>
+    <t>BYTE 1</t>
+  </si>
+  <si>
+    <t>OCTETOS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>128.0.0.0</t>
+  </si>
+  <si>
+    <t>192.0.0.0</t>
+  </si>
+  <si>
+    <t>224.0.0.0</t>
+  </si>
+  <si>
+    <t>240.0.0.0</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+  </si>
+  <si>
+    <t>11000000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <t>10.0.0.0</t>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>172.31.255.255</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>Multicast</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>00001010</t>
+  </si>
+  <si>
+    <t>10101100</t>
+  </si>
+  <si>
+    <t>10101100
+00010000</t>
+  </si>
+  <si>
+    <t>11000000
+10101000
+00000000</t>
+  </si>
+  <si>
+    <t>10101100
+00011111</t>
+  </si>
+  <si>
+    <t>11000000
+10101000
+11111111</t>
+  </si>
+  <si>
+    <t>Mascara</t>
+  </si>
+  <si>
+    <t>CIDR</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t>255.255.0.0</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>subredes</t>
+  </si>
+  <si>
+    <t>porcion</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>MASK</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Byte 1</t>
+  </si>
+  <si>
+    <t>Byte 2</t>
+  </si>
+  <si>
+    <t>Byte 3</t>
+  </si>
+  <si>
+    <t>Byte 4</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>10.54.150.200</t>
+  </si>
+  <si>
+    <t>00110110</t>
+  </si>
+  <si>
+    <t>10010110</t>
+  </si>
+  <si>
+    <t>11001000</t>
+  </si>
+  <si>
+    <t>172.20.54.0</t>
+  </si>
+  <si>
+    <t>00010100</t>
+  </si>
+  <si>
+    <t>172.20.0.0</t>
+  </si>
+  <si>
+    <t>172.20.255.255</t>
+  </si>
+  <si>
+    <t>192.168.255.30</t>
+  </si>
+  <si>
+    <t>10101000</t>
+  </si>
+  <si>
+    <t>00011110</t>
+  </si>
+  <si>
+    <t>192.168.255.0</t>
+  </si>
+  <si>
+    <t>11001010</t>
+  </si>
+  <si>
+    <t>10.202.0.255</t>
+  </si>
+  <si>
+    <t>10.255.255.255</t>
+  </si>
+  <si>
+    <t>00010010</t>
+  </si>
+  <si>
+    <t>11100111</t>
+  </si>
+  <si>
+    <t>10101001</t>
+  </si>
+  <si>
+    <t>172.18.231.169</t>
+  </si>
+  <si>
+    <t>172.18.0.0</t>
+  </si>
+  <si>
+    <t>172.18.255.255</t>
+  </si>
+  <si>
+    <t>192.168.32.33</t>
+  </si>
+  <si>
+    <t>00100000</t>
+  </si>
+  <si>
+    <t>00100001</t>
+  </si>
+  <si>
+    <t>192.168.32.0</t>
+  </si>
+  <si>
+    <t>192.168.32.255</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,6 +1301,35 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -994,7 +1481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1199,17 +1686,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1261,45 +1737,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal style="thin">
         <color indexed="64"/>
@@ -1421,11 +1858,150 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1543,54 +2119,6 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1599,86 +2127,360 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2003,18 +2805,6 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{26A30948-BD52-4E89-81B3-16946E7E6B18}" name="Tabla6" displayName="Tabla6" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21" xr:uid="{26A30948-BD52-4E89-81B3-16946E7E6B18}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B59AE15D-8E37-4AB6-A9CB-56778E6D145C}" name="DEC"/>
-    <tableColumn id="2" xr3:uid="{B064AA0A-3474-47C5-87AE-2719C1956CCC}" name="BIN" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{6716CE7A-6043-4E5D-8BE3-5B52A8E20ACD}" name="HEX"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2344,13 +3134,13 @@
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="86" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2358,17 +3148,17 @@
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="87"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -2408,7 +3198,7 @@
       <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="89" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2422,7 +3212,7 @@
       <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2464,16 +3254,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="E3" s="58" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="E3" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2616,11 +3406,11 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2782,10 +3572,10 @@
       <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -2906,10 +3696,10 @@
       <c r="G7" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="60"/>
+      <c r="J7" s="96"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -3004,10 +3794,10 @@
       <c r="G12" t="s">
         <v>163</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="60"/>
+      <c r="J12" s="96"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3132,1173 +3922,2079 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45C9210-1E69-4B0C-B081-7C5FAE29CDE8}">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7:S20"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="5.7109375" customWidth="1"/>
-    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.7109375" style="76"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="15" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="58" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" style="119" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="X1" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="36">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="38">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="36">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="38">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="36">
+        <v>6</v>
+      </c>
+      <c r="AE1" s="38">
+        <v>7</v>
+      </c>
+      <c r="AF1" s="36">
+        <v>8</v>
+      </c>
+      <c r="AG1" s="38">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="36">
+        <v>10</v>
+      </c>
+      <c r="AI1" s="38">
+        <v>11</v>
+      </c>
+      <c r="AJ1" s="36">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="38">
+        <v>13</v>
+      </c>
+      <c r="AL1" s="36">
+        <v>14</v>
+      </c>
+      <c r="AM1" s="38">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="36">
+        <v>16</v>
+      </c>
+      <c r="AO1" s="38">
+        <v>99</v>
+      </c>
+      <c r="AP1" s="36">
+        <v>100</v>
+      </c>
+      <c r="AQ1" s="34">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="100" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="100" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>233</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>234</v>
+      </c>
+      <c r="L2" s="101" t="s">
+        <v>235</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>236</v>
+      </c>
+      <c r="N2" s="101" t="s">
+        <v>237</v>
+      </c>
+      <c r="O2" s="101" t="s">
+        <v>238</v>
+      </c>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="R2" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="S2" s="101" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="U2" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="V2" s="31"/>
+      <c r="W2" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="C1" t="s">
+      <c r="X2" s="122" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y2" s="123" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z2" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA2" s="123" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB2" s="122" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC2" s="123" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD2" s="122" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE2" s="123" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF2" s="122" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG2" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH2" s="122" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI2" s="123" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ2" s="122" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK2" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL2" s="122" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM2" s="123" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN2" s="122" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO2" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP2" s="122" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ2" s="124" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="104">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="104">
+        <v>100</v>
+      </c>
+      <c r="D3" s="104">
+        <v>10</v>
+      </c>
+      <c r="E3" s="105">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="103" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="104">
+        <v>128</v>
+      </c>
+      <c r="I3" s="104">
+        <v>64</v>
+      </c>
+      <c r="J3" s="104">
+        <v>32</v>
+      </c>
+      <c r="K3" s="104">
+        <v>16</v>
+      </c>
+      <c r="L3" s="104">
+        <v>8</v>
+      </c>
+      <c r="M3" s="104">
+        <v>4</v>
+      </c>
+      <c r="N3" s="104">
+        <v>2</v>
+      </c>
+      <c r="O3" s="104">
+        <v>1</v>
+      </c>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="104" t="s">
+        <v>226</v>
+      </c>
+      <c r="R3" s="104">
+        <v>4096</v>
+      </c>
+      <c r="S3" s="104">
+        <v>256</v>
+      </c>
+      <c r="T3" s="104">
+        <v>16</v>
+      </c>
+      <c r="U3" s="105">
+        <v>1</v>
+      </c>
+      <c r="V3" s="31"/>
+      <c r="W3" s="121" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="58" t="s">
+      <c r="X3" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y3" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA3" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC3" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD3" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE3" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF3" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG3" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH3" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI3" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ3" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK3" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL3" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM3" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN3" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO3" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP3" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ3" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="109">
+        <v>0</v>
+      </c>
+      <c r="C4" s="109">
+        <v>2</v>
+      </c>
+      <c r="D4" s="109">
+        <v>3</v>
+      </c>
+      <c r="E4" s="110">
+        <v>6</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="109">
+        <v>1</v>
+      </c>
+      <c r="I4" s="109">
+        <v>1</v>
+      </c>
+      <c r="J4" s="109">
+        <v>1</v>
+      </c>
+      <c r="K4" s="109">
+        <v>0</v>
+      </c>
+      <c r="L4" s="109">
+        <v>1</v>
+      </c>
+      <c r="M4" s="109">
+        <v>1</v>
+      </c>
+      <c r="N4" s="109">
+        <v>0</v>
+      </c>
+      <c r="O4" s="109">
+        <v>0</v>
+      </c>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="106" t="s">
+        <v>229</v>
+      </c>
+      <c r="R4" s="106">
+        <v>0</v>
+      </c>
+      <c r="S4" s="106">
+        <v>0</v>
+      </c>
+      <c r="T4" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="U4" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="V4" s="31"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="119"/>
+      <c r="AB4"/>
+      <c r="AG4" s="57"/>
+    </row>
+    <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="31"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="R6" s="98"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="49">
+        <v>128</v>
+      </c>
+      <c r="H7" s="63">
+        <v>1</v>
+      </c>
+      <c r="I7" s="64">
+        <v>0</v>
+      </c>
+      <c r="J7" s="65">
+        <v>0</v>
+      </c>
+      <c r="K7" s="66">
+        <v>0</v>
+      </c>
+      <c r="L7" s="63">
+        <v>0</v>
+      </c>
+      <c r="M7" s="64">
+        <v>0</v>
+      </c>
+      <c r="N7" s="65">
+        <v>0</v>
+      </c>
+      <c r="O7" s="64">
+        <v>0</v>
+      </c>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="R7" s="60">
+        <v>80</v>
+      </c>
+      <c r="S7" s="114"/>
+      <c r="T7" s="116">
+        <v>128</v>
+      </c>
+      <c r="U7" s="54">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="57">
+        <v>128</v>
+      </c>
+      <c r="AC7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="E8" s="50">
+        <v>32</v>
+      </c>
+      <c r="H8" s="67">
+        <v>0</v>
+      </c>
+      <c r="I8" s="47">
+        <v>0</v>
+      </c>
+      <c r="J8" s="52">
+        <v>1</v>
+      </c>
+      <c r="K8" s="68">
+        <v>0</v>
+      </c>
+      <c r="L8" s="67">
+        <v>0</v>
+      </c>
+      <c r="M8" s="47">
+        <v>0</v>
+      </c>
+      <c r="N8" s="52">
+        <v>0</v>
+      </c>
+      <c r="O8" s="47">
+        <v>0</v>
+      </c>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="R8" s="61">
+        <v>20</v>
+      </c>
+      <c r="S8" s="114"/>
+      <c r="T8" s="117">
+        <v>0</v>
+      </c>
+      <c r="U8" s="55">
+        <v>64</v>
+      </c>
+      <c r="V8" s="79">
+        <v>2</v>
+      </c>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="E9" s="51">
+        <v>127</v>
+      </c>
+      <c r="H9" s="69">
+        <v>0</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1</v>
+      </c>
+      <c r="J9" s="47">
+        <v>1</v>
+      </c>
+      <c r="K9" s="70">
+        <v>1</v>
+      </c>
+      <c r="L9" s="69">
+        <v>1</v>
+      </c>
+      <c r="M9" s="52">
+        <v>1</v>
+      </c>
+      <c r="N9" s="47">
+        <v>1</v>
+      </c>
+      <c r="O9" s="52">
+        <v>1</v>
+      </c>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="R9" s="115" t="s">
+        <v>250</v>
+      </c>
+      <c r="S9" s="114"/>
+      <c r="T9" s="118"/>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="56">
+        <v>32</v>
+      </c>
+      <c r="W9" s="78">
+        <v>2</v>
+      </c>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="E10" s="50">
+        <v>255</v>
+      </c>
+      <c r="H10" s="67">
+        <v>1</v>
+      </c>
+      <c r="I10" s="47">
+        <v>1</v>
+      </c>
+      <c r="J10" s="52">
+        <v>1</v>
+      </c>
+      <c r="K10" s="68">
+        <v>1</v>
+      </c>
+      <c r="L10" s="67">
+        <v>1</v>
+      </c>
+      <c r="M10" s="47">
+        <v>1</v>
+      </c>
+      <c r="N10" s="52">
+        <v>1</v>
+      </c>
+      <c r="O10" s="47">
+        <v>1</v>
+      </c>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="R10" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="S10" s="114"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="80"/>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="56">
+        <v>16</v>
+      </c>
+      <c r="X10" s="78">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="E11" s="51">
+        <v>132</v>
+      </c>
+      <c r="H11" s="69">
+        <v>1</v>
+      </c>
+      <c r="I11" s="52">
+        <v>0</v>
+      </c>
+      <c r="J11" s="47">
+        <v>0</v>
+      </c>
+      <c r="K11" s="70">
+        <v>0</v>
+      </c>
+      <c r="L11" s="69">
+        <v>0</v>
+      </c>
+      <c r="M11" s="52">
+        <v>1</v>
+      </c>
+      <c r="N11" s="47">
+        <v>0</v>
+      </c>
+      <c r="O11" s="52">
+        <v>0</v>
+      </c>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="R11" s="60">
+        <v>84</v>
+      </c>
+      <c r="S11" s="114"/>
+      <c r="T11" s="62">
+        <v>132</v>
+      </c>
+      <c r="U11" s="76">
+        <v>2</v>
+      </c>
+      <c r="V11" s="80"/>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="56">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="76">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="E12" s="50">
+        <v>192</v>
+      </c>
+      <c r="H12" s="67">
+        <v>1</v>
+      </c>
+      <c r="I12" s="47">
+        <v>1</v>
+      </c>
+      <c r="J12" s="52">
+        <v>0</v>
+      </c>
+      <c r="K12" s="68">
+        <v>0</v>
+      </c>
+      <c r="L12" s="67">
+        <v>0</v>
+      </c>
+      <c r="M12" s="47">
+        <v>0</v>
+      </c>
+      <c r="N12" s="52">
+        <v>0</v>
+      </c>
+      <c r="O12" s="47">
+        <v>0</v>
+      </c>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="R12" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="S12" s="114"/>
+      <c r="T12" s="117">
+        <v>0</v>
+      </c>
+      <c r="U12" s="58">
+        <v>66</v>
+      </c>
+      <c r="V12" s="76">
+        <v>2</v>
+      </c>
+      <c r="W12" s="80"/>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="78">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="77"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="E13" s="51">
+        <v>176</v>
+      </c>
+      <c r="H13" s="69">
+        <v>1</v>
+      </c>
+      <c r="I13" s="52">
+        <v>0</v>
+      </c>
+      <c r="J13" s="47">
+        <v>1</v>
+      </c>
+      <c r="K13" s="70">
+        <v>1</v>
+      </c>
+      <c r="L13" s="69">
+        <v>0</v>
+      </c>
+      <c r="M13" s="52">
+        <v>0</v>
+      </c>
+      <c r="N13" s="47">
+        <v>0</v>
+      </c>
+      <c r="O13" s="52">
+        <v>0</v>
+      </c>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="R13" s="115" t="s">
+        <v>253</v>
+      </c>
+      <c r="S13" s="114"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="58">
+        <v>0</v>
+      </c>
+      <c r="V13" s="58">
         <v>33</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q2" s="31" t="s">
+      <c r="W13" s="76">
+        <v>2</v>
+      </c>
+      <c r="X13" s="80"/>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="56">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="E14" s="50">
+        <v>172</v>
+      </c>
+      <c r="H14" s="67">
+        <v>1</v>
+      </c>
+      <c r="I14" s="47">
+        <v>0</v>
+      </c>
+      <c r="J14" s="52">
+        <v>1</v>
+      </c>
+      <c r="K14" s="68">
+        <v>0</v>
+      </c>
+      <c r="L14" s="67">
+        <v>1</v>
+      </c>
+      <c r="M14" s="47">
+        <v>1</v>
+      </c>
+      <c r="N14" s="52">
+        <v>0</v>
+      </c>
+      <c r="O14" s="47">
+        <v>0</v>
+      </c>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="R14" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="S14" s="114"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="58">
+        <v>1</v>
+      </c>
+      <c r="W14" s="58">
+        <v>16</v>
+      </c>
+      <c r="X14" s="76">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="80"/>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="57">
+        <v>172</v>
+      </c>
+      <c r="AC14" s="58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="E15" s="51">
+        <v>20</v>
+      </c>
+      <c r="H15" s="69">
+        <v>0</v>
+      </c>
+      <c r="I15" s="52">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47">
+        <v>0</v>
+      </c>
+      <c r="K15" s="70">
+        <v>1</v>
+      </c>
+      <c r="L15" s="69">
+        <v>0</v>
+      </c>
+      <c r="M15" s="52">
+        <v>1</v>
+      </c>
+      <c r="N15" s="47">
+        <v>0</v>
+      </c>
+      <c r="O15" s="52">
+        <v>0</v>
+      </c>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="R15" s="60">
+        <v>14</v>
+      </c>
+      <c r="S15" s="114"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="58">
+        <v>0</v>
+      </c>
+      <c r="X15" s="58">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="76">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="57">
+        <v>12</v>
+      </c>
+      <c r="AC15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="E16" s="50">
+        <v>56</v>
+      </c>
+      <c r="H16" s="67">
+        <v>0</v>
+      </c>
+      <c r="I16" s="47">
+        <v>0</v>
+      </c>
+      <c r="J16" s="52">
+        <v>1</v>
+      </c>
+      <c r="K16" s="68">
+        <v>1</v>
+      </c>
+      <c r="L16" s="67">
+        <v>1</v>
+      </c>
+      <c r="M16" s="47">
+        <v>0</v>
+      </c>
+      <c r="N16" s="52">
+        <v>0</v>
+      </c>
+      <c r="O16" s="47">
+        <v>0</v>
+      </c>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="R16" s="61">
+        <v>38</v>
+      </c>
+      <c r="S16" s="114"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="58">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="76">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC16" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E17" s="51">
+        <v>64</v>
+      </c>
+      <c r="H17" s="69">
+        <v>0</v>
+      </c>
+      <c r="I17" s="52">
+        <v>1</v>
+      </c>
+      <c r="J17" s="47">
+        <v>0</v>
+      </c>
+      <c r="K17" s="70">
+        <v>0</v>
+      </c>
+      <c r="L17" s="69">
+        <v>0</v>
+      </c>
+      <c r="M17" s="52">
+        <v>0</v>
+      </c>
+      <c r="N17" s="47">
+        <v>0</v>
+      </c>
+      <c r="O17" s="52">
+        <v>0</v>
+      </c>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="R17" s="60">
+        <v>40</v>
+      </c>
+      <c r="S17" s="114"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="58">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="58">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E18" s="50">
+        <v>248</v>
+      </c>
+      <c r="H18" s="67">
+        <v>1</v>
+      </c>
+      <c r="I18" s="47">
+        <v>1</v>
+      </c>
+      <c r="J18" s="52">
+        <v>1</v>
+      </c>
+      <c r="K18" s="68">
+        <v>1</v>
+      </c>
+      <c r="L18" s="67">
+        <v>1</v>
+      </c>
+      <c r="M18" s="47">
+        <v>0</v>
+      </c>
+      <c r="N18" s="52">
+        <v>0</v>
+      </c>
+      <c r="O18" s="47">
+        <v>0</v>
+      </c>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="R18" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="S18" s="114"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="58">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E19" s="51">
         <v>236</v>
       </c>
-      <c r="R2" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="T2" s="31"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="31">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="31">
-        <v>100</v>
-      </c>
-      <c r="H3" s="31">
-        <v>10</v>
-      </c>
-      <c r="I3" s="31">
-        <v>1</v>
-      </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="L3" s="31">
-        <v>128</v>
-      </c>
-      <c r="M3" s="31">
-        <v>64</v>
-      </c>
-      <c r="N3" s="31">
-        <v>32</v>
-      </c>
-      <c r="O3" s="31">
-        <v>16</v>
-      </c>
-      <c r="P3" s="31">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="31">
-        <v>4</v>
-      </c>
-      <c r="R3" s="31">
-        <v>2</v>
-      </c>
-      <c r="S3" s="31">
-        <v>1</v>
-      </c>
-      <c r="T3" s="31"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="31">
-        <v>0</v>
-      </c>
-      <c r="G4" s="31">
-        <v>2</v>
-      </c>
-      <c r="H4" s="31">
-        <v>3</v>
-      </c>
-      <c r="I4" s="31">
-        <v>6</v>
-      </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="L4" s="31">
-        <v>1</v>
-      </c>
-      <c r="M4" s="31">
-        <v>1</v>
-      </c>
-      <c r="N4" s="31">
-        <v>1</v>
-      </c>
-      <c r="O4" s="31">
-        <v>0</v>
-      </c>
-      <c r="P4" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="31">
-        <v>1</v>
-      </c>
-      <c r="R4" s="31">
-        <v>0</v>
-      </c>
-      <c r="S4" s="31">
-        <v>0</v>
-      </c>
-      <c r="T4" s="31"/>
-      <c r="V4" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="W4" s="31">
-        <v>0</v>
-      </c>
-      <c r="X4" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z4" s="31" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="L6" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="83" t="s">
-        <v>184</v>
-      </c>
-      <c r="V6" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="76" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="K7" s="65">
-        <v>128</v>
-      </c>
-      <c r="L7" s="89">
-        <v>1</v>
-      </c>
-      <c r="M7" s="90">
-        <v>0</v>
-      </c>
-      <c r="N7" s="91">
-        <v>0</v>
-      </c>
-      <c r="O7" s="92">
-        <v>0</v>
-      </c>
-      <c r="P7" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="90">
-        <v>0</v>
-      </c>
-      <c r="R7" s="91">
-        <v>0</v>
-      </c>
-      <c r="S7" s="92">
-        <v>0</v>
-      </c>
-      <c r="T7" s="87" t="s">
+      <c r="H19" s="69">
+        <v>1</v>
+      </c>
+      <c r="I19" s="52">
+        <v>1</v>
+      </c>
+      <c r="J19" s="47">
+        <v>1</v>
+      </c>
+      <c r="K19" s="70">
+        <v>0</v>
+      </c>
+      <c r="L19" s="69">
+        <v>1</v>
+      </c>
+      <c r="M19" s="52">
+        <v>1</v>
+      </c>
+      <c r="N19" s="47">
+        <v>0</v>
+      </c>
+      <c r="O19" s="52">
+        <v>0</v>
+      </c>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="U7" s="84">
-        <v>80</v>
-      </c>
-      <c r="V7" s="72">
-        <v>128</v>
-      </c>
-      <c r="W7" s="73">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="76">
-        <v>128</v>
-      </c>
-      <c r="AE7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>241</v>
-      </c>
-      <c r="G8" s="79" t="s">
-        <v>242</v>
-      </c>
-      <c r="H8" s="79" t="s">
-        <v>243</v>
-      </c>
-      <c r="I8" s="79" t="s">
-        <v>244</v>
-      </c>
-      <c r="K8" s="66">
-        <v>32</v>
-      </c>
-      <c r="L8" s="93">
-        <v>0</v>
-      </c>
-      <c r="M8" s="63">
-        <v>0</v>
-      </c>
-      <c r="N8" s="68">
-        <v>1</v>
-      </c>
-      <c r="O8" s="94">
-        <v>0</v>
-      </c>
-      <c r="P8" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="63">
-        <v>0</v>
-      </c>
-      <c r="R8" s="68">
-        <v>0</v>
-      </c>
-      <c r="S8" s="94">
-        <v>0</v>
-      </c>
-      <c r="T8" s="66" t="s">
+      <c r="R19" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="S19" s="114"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="82"/>
+    </row>
+    <row r="20" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="50">
+        <v>125</v>
+      </c>
+      <c r="H20" s="71">
+        <v>0</v>
+      </c>
+      <c r="I20" s="72">
+        <v>1</v>
+      </c>
+      <c r="J20" s="73">
+        <v>1</v>
+      </c>
+      <c r="K20" s="74">
+        <v>1</v>
+      </c>
+      <c r="L20" s="71">
+        <v>1</v>
+      </c>
+      <c r="M20" s="72">
+        <v>1</v>
+      </c>
+      <c r="N20" s="73">
+        <v>0</v>
+      </c>
+      <c r="O20" s="72">
+        <v>1</v>
+      </c>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="U8" s="85">
-        <v>20</v>
-      </c>
-      <c r="V8" s="77">
-        <v>0</v>
-      </c>
-      <c r="W8" s="74">
-        <v>64</v>
-      </c>
-      <c r="X8" s="107">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="76">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="80">
-        <v>4096</v>
-      </c>
-      <c r="G9" s="80">
-        <v>256</v>
-      </c>
-      <c r="H9" s="80">
-        <v>16</v>
-      </c>
-      <c r="I9" s="80">
-        <v>1</v>
-      </c>
-      <c r="K9" s="67">
-        <v>127</v>
-      </c>
-      <c r="L9" s="95">
-        <v>0</v>
-      </c>
-      <c r="M9" s="68">
-        <v>1</v>
-      </c>
-      <c r="N9" s="63">
-        <v>1</v>
-      </c>
-      <c r="O9" s="96">
-        <v>1</v>
-      </c>
-      <c r="P9" s="95">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="68">
-        <v>1</v>
-      </c>
-      <c r="R9" s="63">
-        <v>1</v>
-      </c>
-      <c r="S9" s="96">
-        <v>1</v>
-      </c>
-      <c r="T9" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="U9" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="V9" s="102"/>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" s="75">
-        <v>32</v>
-      </c>
-      <c r="Y9" s="106">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="105"/>
-      <c r="AB9" s="105"/>
-      <c r="AC9" s="105"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K10" s="66">
-        <v>255</v>
-      </c>
-      <c r="L10" s="93">
-        <v>1</v>
-      </c>
-      <c r="M10" s="63">
-        <v>1</v>
-      </c>
-      <c r="N10" s="68">
-        <v>1</v>
-      </c>
-      <c r="O10" s="94">
-        <v>1</v>
-      </c>
-      <c r="P10" s="93">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="63">
-        <v>1</v>
-      </c>
-      <c r="R10" s="68">
-        <v>1</v>
-      </c>
-      <c r="S10" s="94">
-        <v>1</v>
-      </c>
-      <c r="T10" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="U10" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="V10" s="105"/>
-      <c r="W10" s="108"/>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="75">
-        <v>16</v>
-      </c>
-      <c r="Z10" s="106">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K11" s="67">
-        <v>132</v>
-      </c>
-      <c r="L11" s="95">
-        <v>1</v>
-      </c>
-      <c r="M11" s="68">
-        <v>0</v>
-      </c>
-      <c r="N11" s="63">
-        <v>0</v>
-      </c>
-      <c r="O11" s="96">
-        <v>0</v>
-      </c>
-      <c r="P11" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="68">
-        <v>1</v>
-      </c>
-      <c r="R11" s="63">
-        <v>0</v>
-      </c>
-      <c r="S11" s="96">
-        <v>0</v>
-      </c>
-      <c r="T11" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="U11" s="84">
-        <v>84</v>
-      </c>
-      <c r="V11" s="70">
-        <v>132</v>
-      </c>
-      <c r="W11" s="104">
-        <v>2</v>
-      </c>
-      <c r="X11" s="108"/>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="75">
-        <v>8</v>
-      </c>
-      <c r="AA11" s="104">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="105"/>
-      <c r="AC11" s="105"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" t="s">
-        <v>207</v>
-      </c>
-      <c r="K12" s="66">
-        <v>192</v>
-      </c>
-      <c r="L12" s="93">
-        <v>1</v>
-      </c>
-      <c r="M12" s="63">
-        <v>1</v>
-      </c>
-      <c r="N12" s="68">
-        <v>0</v>
-      </c>
-      <c r="O12" s="94">
-        <v>0</v>
-      </c>
-      <c r="P12" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="63">
-        <v>0</v>
-      </c>
-      <c r="R12" s="68">
-        <v>0</v>
-      </c>
-      <c r="S12" s="94">
-        <v>0</v>
-      </c>
-      <c r="T12" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="U12" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="V12" s="77">
-        <v>0</v>
-      </c>
-      <c r="W12" s="81">
-        <v>66</v>
-      </c>
-      <c r="X12" s="104">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="108"/>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>4</v>
-      </c>
-      <c r="AB12" s="106">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="105"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" t="s">
-        <v>208</v>
-      </c>
-      <c r="K13" s="67">
-        <v>176</v>
-      </c>
-      <c r="L13" s="95">
-        <v>1</v>
-      </c>
-      <c r="M13" s="68">
-        <v>0</v>
-      </c>
-      <c r="N13" s="63">
-        <v>1</v>
-      </c>
-      <c r="O13" s="96">
-        <v>1</v>
-      </c>
-      <c r="P13" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="68">
-        <v>0</v>
-      </c>
-      <c r="R13" s="63">
-        <v>0</v>
-      </c>
-      <c r="S13" s="96">
-        <v>0</v>
-      </c>
-      <c r="T13" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="U13" s="86" t="s">
-        <v>253</v>
-      </c>
-      <c r="V13" s="102"/>
-      <c r="W13" s="81">
-        <v>0</v>
-      </c>
-      <c r="X13" s="81">
-        <v>33</v>
-      </c>
-      <c r="Y13" s="104">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="108"/>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="75">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" t="s">
-        <v>209</v>
-      </c>
-      <c r="K14" s="66">
-        <v>172</v>
-      </c>
-      <c r="L14" s="93">
-        <v>1</v>
-      </c>
-      <c r="M14" s="63">
-        <v>0</v>
-      </c>
-      <c r="N14" s="68">
-        <v>1</v>
-      </c>
-      <c r="O14" s="94">
-        <v>0</v>
-      </c>
-      <c r="P14" s="93">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="63">
-        <v>1</v>
-      </c>
-      <c r="R14" s="68">
-        <v>0</v>
-      </c>
-      <c r="S14" s="94">
-        <v>0</v>
-      </c>
-      <c r="T14" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="U14" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="W14" s="103"/>
-      <c r="X14" s="81">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="81">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="104">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="108"/>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="75">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="76">
-        <v>172</v>
-      </c>
-      <c r="AE14" s="81">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" t="s">
-        <v>210</v>
-      </c>
-      <c r="K15" s="67">
-        <v>20</v>
-      </c>
-      <c r="L15" s="95">
-        <v>0</v>
-      </c>
-      <c r="M15" s="68">
-        <v>0</v>
-      </c>
-      <c r="N15" s="63">
-        <v>0</v>
-      </c>
-      <c r="O15" s="96">
-        <v>1</v>
-      </c>
-      <c r="P15" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="68">
-        <v>1</v>
-      </c>
-      <c r="R15" s="63">
-        <v>0</v>
-      </c>
-      <c r="S15" s="96">
-        <v>0</v>
-      </c>
-      <c r="T15" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="U15" s="84">
-        <v>14</v>
-      </c>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="81">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="81">
-        <v>8</v>
-      </c>
-      <c r="AA15" s="104">
-        <v>2</v>
-      </c>
-      <c r="AB15" s="108"/>
-      <c r="AC15" s="109"/>
-      <c r="AD15" s="76">
-        <v>12</v>
-      </c>
-      <c r="AE15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" t="s">
-        <v>211</v>
-      </c>
-      <c r="K16" s="66">
-        <v>56</v>
-      </c>
-      <c r="L16" s="93">
-        <v>0</v>
-      </c>
-      <c r="M16" s="63">
-        <v>0</v>
-      </c>
-      <c r="N16" s="68">
-        <v>1</v>
-      </c>
-      <c r="O16" s="94">
-        <v>1</v>
-      </c>
-      <c r="P16" s="93">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="63">
-        <v>0</v>
-      </c>
-      <c r="R16" s="68">
-        <v>0</v>
-      </c>
-      <c r="S16" s="94">
-        <v>0</v>
-      </c>
-      <c r="T16" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="U16" s="85">
-        <v>38</v>
-      </c>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="81">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="104">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="105"/>
-      <c r="AD16" s="82" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE16" s="31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" t="s">
-        <v>212</v>
-      </c>
-      <c r="K17" s="67">
-        <v>64</v>
-      </c>
-      <c r="L17" s="95">
-        <v>0</v>
-      </c>
-      <c r="M17" s="68">
-        <v>1</v>
-      </c>
-      <c r="N17" s="63">
-        <v>0</v>
-      </c>
-      <c r="O17" s="96">
-        <v>0</v>
-      </c>
-      <c r="P17" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="68">
-        <v>0</v>
-      </c>
-      <c r="R17" s="63">
-        <v>0</v>
-      </c>
-      <c r="S17" s="96">
-        <v>0</v>
-      </c>
-      <c r="T17" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="U17" s="84">
-        <v>40</v>
-      </c>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="81">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="81">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" t="s">
-        <v>213</v>
-      </c>
-      <c r="K18" s="66">
-        <v>248</v>
-      </c>
-      <c r="L18" s="93">
-        <v>1</v>
-      </c>
-      <c r="M18" s="63">
-        <v>1</v>
-      </c>
-      <c r="N18" s="68">
-        <v>1</v>
-      </c>
-      <c r="O18" s="94">
-        <v>1</v>
-      </c>
-      <c r="P18" s="93">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="63">
-        <v>0</v>
-      </c>
-      <c r="R18" s="68">
-        <v>0</v>
-      </c>
-      <c r="S18" s="94">
-        <v>0</v>
-      </c>
-      <c r="T18" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="U18" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="81">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>99</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" t="s">
-        <v>222</v>
-      </c>
-      <c r="K19" s="67">
-        <v>236</v>
-      </c>
-      <c r="L19" s="95">
-        <v>1</v>
-      </c>
-      <c r="M19" s="68">
-        <v>1</v>
-      </c>
-      <c r="N19" s="63">
-        <v>1</v>
-      </c>
-      <c r="O19" s="96">
-        <v>0</v>
-      </c>
-      <c r="P19" s="95">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="68">
-        <v>1</v>
-      </c>
-      <c r="R19" s="63">
-        <v>0</v>
-      </c>
-      <c r="S19" s="96">
-        <v>0</v>
-      </c>
-      <c r="T19" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="U19" s="84" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="110"/>
-    </row>
-    <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>100</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="66">
-        <v>125</v>
-      </c>
-      <c r="L20" s="97">
-        <v>0</v>
-      </c>
-      <c r="M20" s="98">
-        <v>1</v>
-      </c>
-      <c r="N20" s="99">
-        <v>1</v>
-      </c>
-      <c r="O20" s="100">
-        <v>1</v>
-      </c>
-      <c r="P20" s="97">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="98">
-        <v>1</v>
-      </c>
-      <c r="R20" s="99">
-        <v>0</v>
-      </c>
-      <c r="S20" s="100">
-        <v>1</v>
-      </c>
-      <c r="T20" s="71" t="s">
-        <v>249</v>
-      </c>
-      <c r="U20" s="30" t="s">
+      <c r="R20" s="30" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>255</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" t="s">
-        <v>224</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="V6:AC6"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2E4EBA-F545-46F4-A4E2-4B686F5E50D1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="142" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" style="142" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="142" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="142" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="142" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="142" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="142" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.140625" style="142" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="174" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="142" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="142" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="142"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="142" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="143" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143" t="s">
+        <v>304</v>
+      </c>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="143" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143" t="s">
+        <v>299</v>
+      </c>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143" t="s">
+        <v>305</v>
+      </c>
+      <c r="M2" s="143"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="144" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="145" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="145" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="145" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="145" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="145" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="145" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" s="145" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="146" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" s="145" t="s">
+        <v>300</v>
+      </c>
+      <c r="K3" s="145" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" s="145" t="s">
+        <v>306</v>
+      </c>
+      <c r="M3" s="146" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="128" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="169" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="130" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="156">
+        <v>127255255255</v>
+      </c>
+      <c r="E4" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="169" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="130" t="s">
+        <v>293</v>
+      </c>
+      <c r="H4" s="156">
+        <v>10255255255</v>
+      </c>
+      <c r="I4" s="133" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4" s="129">
+        <v>8</v>
+      </c>
+      <c r="K4" s="179" t="s">
+        <v>301</v>
+      </c>
+      <c r="L4" s="131">
+        <v>1</v>
+      </c>
+      <c r="M4" s="161">
+        <f>2^24-2</f>
+        <v>16777214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="134" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="168" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="136" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="157">
+        <v>191255255255</v>
+      </c>
+      <c r="E5" s="137" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="168" t="s">
+        <v>288</v>
+      </c>
+      <c r="G5" s="138" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="168" t="s">
+        <v>289</v>
+      </c>
+      <c r="I5" s="139" t="s">
+        <v>297</v>
+      </c>
+      <c r="J5" s="135">
+        <v>16</v>
+      </c>
+      <c r="K5" s="180" t="s">
+        <v>302</v>
+      </c>
+      <c r="L5" s="135">
+        <v>16</v>
+      </c>
+      <c r="M5" s="162">
+        <f>2^16-2</f>
+        <v>65534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="128" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="169" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="130" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="156">
+        <v>223255255255</v>
+      </c>
+      <c r="E6" s="132" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="169" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="140" t="s">
+        <v>296</v>
+      </c>
+      <c r="H6" s="156">
+        <v>192168255255</v>
+      </c>
+      <c r="I6" s="141" t="s">
+        <v>298</v>
+      </c>
+      <c r="J6" s="129">
+        <v>24</v>
+      </c>
+      <c r="K6" s="181" t="s">
+        <v>303</v>
+      </c>
+      <c r="L6" s="131">
+        <v>256</v>
+      </c>
+      <c r="M6" s="163">
+        <f>2^8-2</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="134" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="168" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="157">
+        <v>239255255255</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="147" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="147" t="s">
+        <v>291</v>
+      </c>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="154"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="148" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="170" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="149" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="158">
+        <v>255255255255</v>
+      </c>
+      <c r="E8" s="150" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="151" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="151" t="s">
+        <v>292</v>
+      </c>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="155"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="152" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="153">
+        <f>2^32</f>
+        <v>4294967296</v>
+      </c>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153">
+        <f>2^32</f>
+        <v>4294967296</v>
+      </c>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153">
+        <f>2^32</f>
+        <v>4294967296</v>
+      </c>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="144" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="145" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="164" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="145" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" s="145" t="s">
+        <v>314</v>
+      </c>
+      <c r="I11" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="J11" s="145" t="s">
+        <v>316</v>
+      </c>
+      <c r="K11" s="175" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="128" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" s="130" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="130" t="s">
+        <v>320</v>
+      </c>
+      <c r="E12" s="165" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" s="171" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="130" t="s">
+        <v>293</v>
+      </c>
+      <c r="H12" s="130" t="s">
+        <v>330</v>
+      </c>
+      <c r="I12" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="182" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="134" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="166" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="172" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="I13" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="J13" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="K13" s="183" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="128" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="165" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="171" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="130" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="I14" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="J14" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="182" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="159" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="160" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="167" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="173">
+        <v>10255255255</v>
+      </c>
+      <c r="G15" s="160" t="s">
+        <v>293</v>
+      </c>
+      <c r="H15" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="I15" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="K15" s="184" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="174"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="144" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="145" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="164" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="146" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="H17" s="145" t="s">
+        <v>314</v>
+      </c>
+      <c r="I17" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="J17" s="145" t="s">
+        <v>316</v>
+      </c>
+      <c r="K17" s="175" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="128" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="130" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" s="165" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" s="130" t="s">
+        <v>294</v>
+      </c>
+      <c r="H18" s="130" t="s">
+        <v>333</v>
+      </c>
+      <c r="I18" s="130" t="s">
+        <v>334</v>
+      </c>
+      <c r="J18" s="130" t="s">
+        <v>335</v>
+      </c>
+      <c r="K18" s="182" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="134" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="E19" s="166" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="177" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="I19" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="J19" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="K19" s="183" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="128" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="130" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="165" t="s">
+        <v>275</v>
+      </c>
+      <c r="F20" s="176" t="s">
+        <v>324</v>
+      </c>
+      <c r="G20" s="130" t="s">
+        <v>294</v>
+      </c>
+      <c r="H20" s="130" t="s">
+        <v>333</v>
+      </c>
+      <c r="I20" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="J20" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="K20" s="182" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="159" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="160" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="160" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="167" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="178" t="s">
+        <v>325</v>
+      </c>
+      <c r="G21" s="160" t="s">
+        <v>294</v>
+      </c>
+      <c r="H21" s="160" t="s">
+        <v>333</v>
+      </c>
+      <c r="I21" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="184" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="174"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="144" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="145" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="145" t="s">
+        <v>316</v>
+      </c>
+      <c r="F23" s="188" t="s">
+        <v>317</v>
+      </c>
+      <c r="G23" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="H23" s="145" t="s">
+        <v>314</v>
+      </c>
+      <c r="I23" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="J23" s="145" t="s">
+        <v>316</v>
+      </c>
+      <c r="K23" s="175" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="128" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" s="130" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="130" t="s">
+        <v>328</v>
+      </c>
+      <c r="F24" s="185" t="s">
+        <v>326</v>
+      </c>
+      <c r="G24" s="130" t="s">
+        <v>280</v>
+      </c>
+      <c r="H24" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="I24" s="130" t="s">
+        <v>340</v>
+      </c>
+      <c r="J24" s="130" t="s">
+        <v>341</v>
+      </c>
+      <c r="K24" s="182" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="134" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="186" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="I25" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="183" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="128" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="130" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="D26" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="185" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" s="130" t="s">
+        <v>280</v>
+      </c>
+      <c r="H26" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="I26" s="130" t="s">
+        <v>340</v>
+      </c>
+      <c r="J26" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="K26" s="182" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="159" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="160" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" s="160" t="s">
+        <v>327</v>
+      </c>
+      <c r="D27" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="187">
+        <v>192168255255</v>
+      </c>
+      <c r="G27" s="160" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" s="160" t="s">
+        <v>327</v>
+      </c>
+      <c r="I27" s="160" t="s">
+        <v>340</v>
+      </c>
+      <c r="J27" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" s="184" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/protocols-suite.xlsx
+++ b/docs/protocols-suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4CD8F3-40DE-43D7-8272-899086C0F6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B5FAFE-3F7F-4CE8-BE6D-2785B15B798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="fisica" sheetId="3" r:id="rId3"/>
     <sheet name="sistemas" sheetId="4" r:id="rId4"/>
     <sheet name="IPv4" sheetId="5" r:id="rId5"/>
+    <sheet name="Classic" sheetId="6" r:id="rId6"/>
+    <sheet name="VLSM" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="509">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -1266,6 +1268,1987 @@
   </si>
   <si>
     <t>192.168.32.255</t>
+  </si>
+  <si>
+    <t>Subnetting</t>
+  </si>
+  <si>
+    <t>solicitado</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>2^n &gt;= N</t>
+  </si>
+  <si>
+    <t>s = subredes</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>next hop</t>
+  </si>
+  <si>
+    <t>256 / s</t>
+  </si>
+  <si>
+    <t>bits + n</t>
+  </si>
+  <si>
+    <t>hosts</t>
+  </si>
+  <si>
+    <t>2^H -2</t>
+  </si>
+  <si>
+    <t>H = bits 0</t>
+  </si>
+  <si>
+    <t>32 - cidr</t>
+  </si>
+  <si>
+    <t>cidr = bits 1</t>
+  </si>
+  <si>
+    <t>primer ip</t>
+  </si>
+  <si>
+    <t>ultima ip</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>mascara</t>
+  </si>
+  <si>
+    <t>binario</t>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.255</t>
+    </r>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>255.224.0.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>224</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>224</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>255</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>159</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>191</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>223</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>159</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>191</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>223</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>255</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>/11</t>
+  </si>
+  <si>
+    <t>/18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>255.255.192.0</t>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>191</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>255</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>191</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>255</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>/27</t>
+  </si>
+  <si>
+    <t>192.168.0.32</t>
+  </si>
+  <si>
+    <t>192.168.0.31</t>
+  </si>
+  <si>
+    <t>192.168.0.30</t>
+  </si>
+  <si>
+    <t>192.168.0.64</t>
+  </si>
+  <si>
+    <t>192.168.0.96</t>
+  </si>
+  <si>
+    <t>192.168.0.128</t>
+  </si>
+  <si>
+    <t>192.168.0.160</t>
+  </si>
+  <si>
+    <t>192.168.0.192</t>
+  </si>
+  <si>
+    <t>192.168.0.224</t>
+  </si>
+  <si>
+    <t>192.168.0.63</t>
+  </si>
+  <si>
+    <t>192.168.0.62</t>
+  </si>
+  <si>
+    <t>192.168.0.95</t>
+  </si>
+  <si>
+    <t>192.168.0.127</t>
+  </si>
+  <si>
+    <t>192.168.0.159</t>
+  </si>
+  <si>
+    <t>192.168.0.191</t>
+  </si>
+  <si>
+    <t>192.168.0.223</t>
+  </si>
+  <si>
+    <t>192.168.0.255</t>
+  </si>
+  <si>
+    <t>/28</t>
+  </si>
+  <si>
+    <t>192.168.0.33</t>
+  </si>
+  <si>
+    <t>192.168.0.65</t>
+  </si>
+  <si>
+    <t>192.168.0.97</t>
+  </si>
+  <si>
+    <t>192.168.0.129</t>
+  </si>
+  <si>
+    <t>192.168.0.161</t>
+  </si>
+  <si>
+    <t>192.168.0.193</t>
+  </si>
+  <si>
+    <t>192.168.0.225</t>
+  </si>
+  <si>
+    <t>192.168.0.94</t>
+  </si>
+  <si>
+    <t>192.168.0.126</t>
+  </si>
+  <si>
+    <t>192.168.0.158</t>
+  </si>
+  <si>
+    <t>192.168.0.190</t>
+  </si>
+  <si>
+    <t>192.168.0.222</t>
+  </si>
+  <si>
+    <t>192.168.0.254</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>impar</t>
+  </si>
+  <si>
+    <t>Practica que consiste en la creacion de subredes, aumentado la cantiadad bits de la mascara que corresponden a la porcion de SUBRED, a partir de la disminucion de los bits de la porcion de HOST.</t>
+  </si>
+  <si>
+    <t>VLSM</t>
+  </si>
+  <si>
+    <t>Hosts</t>
+  </si>
+  <si>
+    <t>hosts2</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>2^h - 2 &gt;= H</t>
+  </si>
+  <si>
+    <t>Depto</t>
+  </si>
+  <si>
+    <t>32 - h</t>
+  </si>
+  <si>
+    <t>Metodo de Mascara de Subred de ancho Variable  que se aplica priorizando la cantidad de HOST por SUBRED en lugar de las subredes, ordenando previamente las redes.</t>
+  </si>
+  <si>
+    <t>ultimo bit 1</t>
+  </si>
+  <si>
+    <t>equipos</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10.0.0.1</t>
+  </si>
+  <si>
+    <t>h = bits 0</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>10.0.0.128</t>
+  </si>
+  <si>
+    <t>10.0.0.129</t>
+  </si>
+  <si>
+    <t>10.0.0.127</t>
+  </si>
+  <si>
+    <t>10.0.0.126</t>
+  </si>
+  <si>
+    <t>/25</t>
+  </si>
+  <si>
+    <t>/26</t>
+  </si>
+  <si>
+    <t>10.0.1.0</t>
+  </si>
+  <si>
+    <t>10.0.1.1</t>
+  </si>
+  <si>
+    <t>10.0.0.255</t>
+  </si>
+  <si>
+    <t>10.0.0.254</t>
+  </si>
+  <si>
+    <t>10.0.1.64</t>
+  </si>
+  <si>
+    <t>10.0.1.63</t>
+  </si>
+  <si>
+    <t>10.0.1.62</t>
+  </si>
+  <si>
+    <t>10.0.1.96</t>
+  </si>
+  <si>
+    <t>10.0.1.65</t>
+  </si>
+  <si>
+    <t>10.0.1.95</t>
+  </si>
+  <si>
+    <t>10.0.1.94</t>
+  </si>
+  <si>
+    <t>10.0.1.97</t>
+  </si>
+  <si>
+    <t>10.0.1.111</t>
+  </si>
+  <si>
+    <t>10.0.1.112</t>
+  </si>
+  <si>
+    <t>10.0.1.110</t>
+  </si>
+  <si>
+    <t>10.0.1.32</t>
+  </si>
+  <si>
+    <t>10.0.1.31</t>
+  </si>
+  <si>
+    <t>10.0.1.30</t>
+  </si>
+  <si>
+    <t>10.0.1.33</t>
   </si>
 </sst>
 </file>
@@ -1274,9 +3257,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1335,7 +3325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,6 +3467,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,62 +3995,62 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2098,29 +4094,29 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2156,70 +4152,22 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2253,13 +4201,10 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2274,8 +4219,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2285,7 +4230,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2340,147 +4285,411 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="51">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2745,6 +4954,83 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A180DBF7-1A51-407C-907F-CB4B9F7CC57D}" name="Tabla81011" displayName="Tabla81011" ref="A27:H35">
+  <autoFilter ref="A27:H35" xr:uid="{A180DBF7-1A51-407C-907F-CB4B9F7CC57D}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FD3F88FE-3DDD-49D3-A8E6-0647D7808F39}" name="binario" totalsRowLabel="Total" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{1D84AD03-B902-4F40-B0BB-14E78A096F6A}" name="red" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{93B91B8A-BC7A-44C7-82E6-B453283364C7}" name="primer ip" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{797A6BCB-ACD2-47F6-AB4A-DA0C9A40518C}" name="ultima ip" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{C4E8FEE1-BE9D-4AD1-821F-E0FE9DA4B930}" name="broadcast" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{64E2742C-8A21-4F78-ABCF-D34821058B8B}" name="mascara" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{E9A842C3-C29F-4CC3-A5C7-1FD8B63221C1}" name="cidr" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{B43EB0D2-71A7-4C05-A613-A6A9A146738E}" name="hosts" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="27" dataCellStyle="Millares"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F26274E0-7FCB-4616-A4C8-A88D6B226AE2}" name="Tabla612" displayName="Tabla612" ref="A3:E5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:E5" xr:uid="{F26274E0-7FCB-4616-A4C8-A88D6B226AE2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F245494E-4713-4193-9857-3C0E5291EC02}" name="Hosts" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{3DFD68BF-2FD2-4CB5-A1E7-B87A9E477A8A}" name="hosts2" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{D10518A4-0679-4CFE-AAFE-6B6EC0C744CC}" name="h = bits 0" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{926CD250-6D8D-4EFB-A42A-63F334062D15}" name="cidr" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{1B822227-BA10-40FF-A35D-65D64FFB3E60}" name="next hop" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6B4708E9-F272-4AA8-BF32-D364105DAA6A}" name="Tabla813" displayName="Tabla813" ref="A7:I13">
+  <autoFilter ref="A7:I13" xr:uid="{6B4708E9-F272-4AA8-BF32-D364105DAA6A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:I12">
+    <sortCondition descending="1" ref="B7:B12"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{66F39FF4-0BC4-40D5-A7ED-20CCDB02E1CD}" name="Depto" totalsRowLabel="Total" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{C260C953-42CF-407C-B191-71673B9F445B}" name="equipos" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{83526A93-3346-4C83-B9EF-56CE6C214CD0}" name="red" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{32544E57-1436-44A5-81FC-2879A8450F71}" name="primer ip" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{9D5A8020-A48A-46D9-A5EE-51899C46D6BE}" name="ultima ip" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{7FCD8AF0-A033-4EA1-B347-1815A49CFC7C}" name="broadcast" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{8012672C-2FF8-4F65-8013-B4754EE06DE7}" name="mascara" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{3C2FE2BC-5B8F-4D06-A7D4-F9094ADC3610}" name="cidr" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C4C302F4-BBA8-4A35-A15A-9EEDE0ACE52C}" name="hosts" totalsRowFunction="sum" dataDxfId="17" dataCellStyle="Millares">
+      <calculatedColumnFormula>2^21-2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0951AAE9-7375-4FBD-9A21-769A4B8FD059}" name="Tabla81314" displayName="Tabla81314" ref="A15:I21">
+  <autoFilter ref="A15:I21" xr:uid="{0951AAE9-7375-4FBD-9A21-769A4B8FD059}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:I21">
+    <sortCondition ref="A15:A21"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3E3E5B6F-1D02-442B-A1F9-CDCE3CFAB250}" name="Depto" totalsRowLabel="Total" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{7A2D4DDA-2486-4E07-B7ED-34F359F9E5EA}" name="equipos" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4F967433-DCDD-46AA-B94C-11EC1ED85421}" name="red" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C50F6649-EC1C-4FA0-983A-0763DB054875}" name="primer ip" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{81BAA048-E9C3-44C6-9961-BBBC4F722D02}" name="ultima ip" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{9259CB53-06A1-42B9-AA37-E9DF24F314FF}" name="broadcast" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{478B8208-98B7-4AAB-BFEE-144884CBF91E}" name="mascara" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{194918A2-3363-4CB5-9404-1FAF2D91E2DF}" name="cidr" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{92BA09CC-DCDF-4C16-9208-0A1251B9B862}" name="hosts" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Millares">
+      <calculatedColumnFormula>2^21-2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6C6D8F50-DDEA-4CB6-AECB-C91F008AE46E}" name="Tabla2" displayName="Tabla2" ref="E4:G9" totalsRowShown="0">
   <autoFilter ref="E4:G9" xr:uid="{6C6D8F50-DDEA-4CB6-AECB-C91F008AE46E}"/>
@@ -2800,6 +5086,61 @@
     <tableColumn id="1" xr3:uid="{5011CCA9-4806-432C-A340-C02034BE57B9}" name="Fibra"/>
     <tableColumn id="2" xr3:uid="{00A4589F-A8D1-4DA8-B127-91B1BD13348F}" name="SMF(Single Mode)"/>
     <tableColumn id="3" xr3:uid="{19772779-4611-439E-A990-B7A6B47AAF85}" name="MMF (MultiMode)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{737E6615-78A7-4112-820B-85F818F68D77}" name="Tabla6" displayName="Tabla6" ref="A3:H5" totalsRowShown="0">
+  <autoFilter ref="A3:H5" xr:uid="{737E6615-78A7-4112-820B-85F818F68D77}"/>
+  <tableColumns count="8">
+    <tableColumn id="7" xr3:uid="{AD7A5566-742F-4E2E-8265-64946F574BD8}" name="CLASE"/>
+    <tableColumn id="1" xr3:uid="{3EB60E67-EA52-4F81-AFFB-74BE9FE35862}" name="solicitado"/>
+    <tableColumn id="2" xr3:uid="{11D9ED3A-4889-44D5-B7F8-389DF68A868A}" name="s = subredes"/>
+    <tableColumn id="8" xr3:uid="{BB2ABAA3-7421-4F0F-A172-344E06D54E4B}" name="bits"/>
+    <tableColumn id="3" xr3:uid="{29EB870F-04F4-43AB-91C0-A3E91D89D4C0}" name="cidr = bits 1"/>
+    <tableColumn id="4" xr3:uid="{1FF93835-C17E-44DD-8A92-70F560101CAA}" name="next hop"/>
+    <tableColumn id="5" xr3:uid="{8C8BC271-CD1A-45F9-846B-DE8E7DFD7077}" name="H = bits 0"/>
+    <tableColumn id="6" xr3:uid="{66DA5163-F8C6-4AE7-B75E-BD94955CE1B8}" name="hosts"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{73257F07-4ABA-4F5B-9C87-723BAAEDB7D4}" name="Tabla8" displayName="Tabla8" ref="A7:H15">
+  <autoFilter ref="A7:H15" xr:uid="{73257F07-4ABA-4F5B-9C87-723BAAEDB7D4}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FE44EF54-97E0-4BFA-8660-4CB2761305B0}" name="binario" totalsRowLabel="Total" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{C78E8F0E-6453-4852-A80F-C42105C34351}" name="red" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{550EC1FB-DA26-47EE-958E-08B135CD65E4}" name="primer ip" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{9C91AB55-BD0A-46C4-8B63-04B244F02EFC}" name="ultima ip" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{CE91EFF6-7A63-470A-A452-71F6AC70138D}" name="broadcast" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{67A6B74A-BA1B-4150-9AAA-AA003D4C4292}" name="mascara" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{E35FC235-F6A5-42C2-89A2-E480A24DE894}" name="cidr" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{B640069A-A80A-4C80-A629-2DE6F444924F}" name="hosts" totalsRowFunction="sum" dataDxfId="44" dataCellStyle="Millares">
+      <calculatedColumnFormula>2^21-2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EE17664E-FCD6-42E2-8C1B-041504FEDD0B}" name="Tabla810" displayName="Tabla810" ref="A19:H23">
+  <autoFilter ref="A19:H23" xr:uid="{EE17664E-FCD6-42E2-8C1B-041504FEDD0B}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{03C33E2E-494E-4B97-9BC8-DE93FAC921D2}" name="binario" totalsRowLabel="Total" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{822F987C-2FE7-4A01-AB81-0291CFF47D19}" name="red" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{F0FA4D4E-2736-4748-A30C-9DBA3DC77B3C}" name="primer ip" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{322533DE-A708-462F-A636-EB64E237628F}" name="ultima ip" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{B22E293B-AF7B-4D8A-B2A9-FBF9AC413BD5}" name="broadcast" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{5727992B-0264-494C-BFA0-AA68170523EE}" name="mascara" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{83196FCA-9747-4E3B-9D66-A19683EED906}" name="cidr" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{61DB8854-04EB-4C4B-B113-0A95C3A47654}" name="hosts" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Millares">
+      <calculatedColumnFormula>2^14-2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3134,13 +5475,13 @@
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="161" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3148,17 +5489,17 @@
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="162"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="88"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="163"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -3198,7 +5539,7 @@
       <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="164" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3212,7 +5553,7 @@
       <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="90"/>
+      <c r="D8" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3221,7 +5562,7 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3254,16 +5595,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="E3" s="94" t="s">
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="E3" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3406,11 +5747,11 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3518,7 +5859,7 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E11:G11"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
@@ -3572,10 +5913,10 @@
       <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="170" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="96"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -3696,10 +6037,10 @@
       <c r="G7" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="170" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="96"/>
+      <c r="J7" s="171"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -3794,10 +6135,10 @@
       <c r="G12" t="s">
         <v>163</v>
       </c>
-      <c r="I12" s="95" t="s">
+      <c r="I12" s="170" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="96"/>
+      <c r="J12" s="171"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3924,10 +6265,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45C9210-1E69-4B0C-B081-7C5FAE29CDE8}">
   <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6:R6"/>
+      <selection pane="bottomLeft" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3939,41 +6280,41 @@
     <col min="7" max="15" width="5.7109375" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" style="58" customWidth="1"/>
     <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" style="119" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" style="102" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5.7109375" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="170" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="171"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="170" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="112" t="s">
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="172" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="96"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="171"/>
       <c r="V1" s="31"/>
-      <c r="W1" s="120" t="s">
+      <c r="W1" s="103" t="s">
         <v>182</v>
       </c>
       <c r="X1" s="36">
@@ -4038,192 +6379,192 @@
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="86" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="31"/>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="85" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="85" t="s">
         <v>233</v>
       </c>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="M2" s="101" t="s">
+      <c r="M2" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="N2" s="101" t="s">
+      <c r="N2" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="O2" s="101" t="s">
+      <c r="O2" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="101" t="s">
+      <c r="P2" s="109"/>
+      <c r="Q2" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="R2" s="101" t="s">
+      <c r="R2" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="S2" s="101" t="s">
+      <c r="S2" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="T2" s="101" t="s">
+      <c r="T2" s="85" t="s">
         <v>243</v>
       </c>
-      <c r="U2" s="102" t="s">
+      <c r="U2" s="86" t="s">
         <v>244</v>
       </c>
       <c r="V2" s="31"/>
-      <c r="W2" s="111" t="s">
+      <c r="W2" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="X2" s="122" t="s">
+      <c r="X2" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="Y2" s="123" t="s">
+      <c r="Y2" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="Z2" s="122" t="s">
+      <c r="Z2" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="AA2" s="123" t="s">
+      <c r="AA2" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="AB2" s="122" t="s">
+      <c r="AB2" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="AC2" s="123" t="s">
+      <c r="AC2" s="106" t="s">
         <v>190</v>
       </c>
-      <c r="AD2" s="122" t="s">
+      <c r="AD2" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="AE2" s="123" t="s">
+      <c r="AE2" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="AF2" s="122" t="s">
+      <c r="AF2" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="AG2" s="123" t="s">
+      <c r="AG2" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="AH2" s="122" t="s">
+      <c r="AH2" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="AI2" s="123" t="s">
+      <c r="AI2" s="106" t="s">
         <v>214</v>
       </c>
-      <c r="AJ2" s="122" t="s">
+      <c r="AJ2" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="AK2" s="123" t="s">
+      <c r="AK2" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="AL2" s="122" t="s">
+      <c r="AL2" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="AM2" s="123" t="s">
+      <c r="AM2" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="AN2" s="122" t="s">
+      <c r="AN2" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" s="123" t="s">
+      <c r="AO2" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="AP2" s="122" t="s">
+      <c r="AP2" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="AQ2" s="124" t="s">
+      <c r="AQ2" s="107" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="88">
         <v>1000</v>
       </c>
-      <c r="C3" s="104">
+      <c r="C3" s="88">
         <v>100</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="88">
         <v>10</v>
       </c>
-      <c r="E3" s="105">
+      <c r="E3" s="89">
         <v>1</v>
       </c>
       <c r="F3" s="31"/>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="104">
+      <c r="H3" s="88">
         <v>128</v>
       </c>
-      <c r="I3" s="104">
+      <c r="I3" s="88">
         <v>64</v>
       </c>
-      <c r="J3" s="104">
+      <c r="J3" s="88">
         <v>32</v>
       </c>
-      <c r="K3" s="104">
+      <c r="K3" s="88">
         <v>16</v>
       </c>
-      <c r="L3" s="104">
+      <c r="L3" s="88">
         <v>8</v>
       </c>
-      <c r="M3" s="104">
+      <c r="M3" s="88">
         <v>4</v>
       </c>
-      <c r="N3" s="104">
+      <c r="N3" s="88">
         <v>2</v>
       </c>
-      <c r="O3" s="104">
+      <c r="O3" s="88">
         <v>1</v>
       </c>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="104" t="s">
+      <c r="P3" s="109"/>
+      <c r="Q3" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="R3" s="104">
+      <c r="R3" s="88">
         <v>4096</v>
       </c>
-      <c r="S3" s="104">
+      <c r="S3" s="88">
         <v>256</v>
       </c>
-      <c r="T3" s="104">
+      <c r="T3" s="88">
         <v>16</v>
       </c>
-      <c r="U3" s="105">
+      <c r="U3" s="89">
         <v>1</v>
       </c>
       <c r="V3" s="31"/>
-      <c r="W3" s="121" t="s">
+      <c r="W3" s="104" t="s">
         <v>184</v>
       </c>
       <c r="X3" s="37" t="s">
@@ -4288,68 +6629,68 @@
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="109">
+      <c r="B4" s="93">
         <v>0</v>
       </c>
-      <c r="C4" s="109">
+      <c r="C4" s="93">
         <v>2</v>
       </c>
-      <c r="D4" s="109">
+      <c r="D4" s="93">
         <v>3</v>
       </c>
-      <c r="E4" s="110">
+      <c r="E4" s="94">
         <v>6</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="109">
+      <c r="H4" s="93">
         <v>1</v>
       </c>
-      <c r="I4" s="109">
+      <c r="I4" s="93">
         <v>1</v>
       </c>
-      <c r="J4" s="109">
+      <c r="J4" s="93">
         <v>1</v>
       </c>
-      <c r="K4" s="109">
+      <c r="K4" s="93">
         <v>0</v>
       </c>
-      <c r="L4" s="109">
+      <c r="L4" s="93">
         <v>1</v>
       </c>
-      <c r="M4" s="109">
+      <c r="M4" s="93">
         <v>1</v>
       </c>
-      <c r="N4" s="109">
+      <c r="N4" s="93">
         <v>0</v>
       </c>
-      <c r="O4" s="109">
+      <c r="O4" s="93">
         <v>0</v>
       </c>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="106" t="s">
+      <c r="P4" s="109"/>
+      <c r="Q4" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="R4" s="106">
+      <c r="R4" s="90">
         <v>0</v>
       </c>
-      <c r="S4" s="106">
+      <c r="S4" s="90">
         <v>0</v>
       </c>
-      <c r="T4" s="106" t="s">
+      <c r="T4" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="U4" s="107" t="s">
+      <c r="U4" s="91" t="s">
         <v>245</v>
       </c>
       <c r="V4" s="31"/>
       <c r="W4" s="30"/>
-      <c r="X4" s="119"/>
+      <c r="X4" s="102"/>
       <c r="AB4"/>
       <c r="AG4" s="57"/>
     </row>
@@ -4357,32 +6698,32 @@
       <c r="E6" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="173" t="s">
         <v>239</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="98" t="s">
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="174" t="s">
         <v>184</v>
       </c>
-      <c r="R6" s="98"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="94" t="s">
+      <c r="R6" s="174"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="169" t="s">
         <v>247</v>
       </c>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
+      <c r="U6" s="169"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="169"/>
+      <c r="Y6" s="169"/>
+      <c r="Z6" s="169"/>
+      <c r="AA6" s="169"/>
       <c r="AB6" s="57" t="s">
         <v>184</v>
       </c>
@@ -4415,15 +6756,15 @@
       <c r="O7" s="64">
         <v>0</v>
       </c>
-      <c r="P7" s="127"/>
+      <c r="P7" s="110"/>
       <c r="Q7" s="62" t="s">
         <v>249</v>
       </c>
       <c r="R7" s="60">
         <v>80</v>
       </c>
-      <c r="S7" s="114"/>
-      <c r="T7" s="116">
+      <c r="S7" s="97"/>
+      <c r="T7" s="99">
         <v>128</v>
       </c>
       <c r="U7" s="54">
@@ -4432,7 +6773,7 @@
       <c r="AB7" s="57">
         <v>128</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="195">
         <v>16</v>
       </c>
     </row>
@@ -4464,15 +6805,15 @@
       <c r="O8" s="47">
         <v>0</v>
       </c>
-      <c r="P8" s="127"/>
+      <c r="P8" s="110"/>
       <c r="Q8" s="50" t="s">
         <v>249</v>
       </c>
       <c r="R8" s="61">
         <v>20</v>
       </c>
-      <c r="S8" s="114"/>
-      <c r="T8" s="117">
+      <c r="S8" s="97"/>
+      <c r="T8" s="100">
         <v>0</v>
       </c>
       <c r="U8" s="55">
@@ -4486,10 +6827,10 @@
       <c r="Y8" s="77"/>
       <c r="Z8" s="77"/>
       <c r="AA8" s="77"/>
-      <c r="AB8" s="57">
+      <c r="AB8" s="190">
         <v>0</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="191">
         <v>8</v>
       </c>
     </row>
@@ -4521,15 +6862,15 @@
       <c r="O9" s="52">
         <v>1</v>
       </c>
-      <c r="P9" s="127"/>
+      <c r="P9" s="110"/>
       <c r="Q9" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="R9" s="115" t="s">
+      <c r="R9" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="S9" s="114"/>
-      <c r="T9" s="118"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="101"/>
       <c r="U9">
         <v>0</v>
       </c>
@@ -4572,14 +6913,14 @@
       <c r="O10" s="47">
         <v>1</v>
       </c>
-      <c r="P10" s="127"/>
+      <c r="P10" s="110"/>
       <c r="Q10" s="50" t="s">
         <v>249</v>
       </c>
       <c r="R10" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="S10" s="114"/>
+      <c r="S10" s="97"/>
       <c r="T10" s="77"/>
       <c r="U10" s="80"/>
       <c r="V10">
@@ -4623,14 +6964,14 @@
       <c r="O11" s="52">
         <v>0</v>
       </c>
-      <c r="P11" s="127"/>
+      <c r="P11" s="110"/>
       <c r="Q11" s="51" t="s">
         <v>249</v>
       </c>
       <c r="R11" s="60">
         <v>84</v>
       </c>
-      <c r="S11" s="114"/>
+      <c r="S11" s="97"/>
       <c r="T11" s="62">
         <v>132</v>
       </c>
@@ -4678,15 +7019,15 @@
       <c r="O12" s="47">
         <v>0</v>
       </c>
-      <c r="P12" s="127"/>
+      <c r="P12" s="110"/>
       <c r="Q12" s="50" t="s">
         <v>249</v>
       </c>
       <c r="R12" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="S12" s="114"/>
-      <c r="T12" s="117">
+      <c r="S12" s="97"/>
+      <c r="T12" s="100">
         <v>0</v>
       </c>
       <c r="U12" s="58">
@@ -4735,15 +7076,15 @@
       <c r="O13" s="52">
         <v>0</v>
       </c>
-      <c r="P13" s="127"/>
+      <c r="P13" s="110"/>
       <c r="Q13" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="R13" s="115" t="s">
+      <c r="R13" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="S13" s="114"/>
-      <c r="T13" s="118"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="101"/>
       <c r="U13" s="58">
         <v>0</v>
       </c>
@@ -4792,14 +7133,14 @@
       <c r="O14" s="47">
         <v>0</v>
       </c>
-      <c r="P14" s="127"/>
+      <c r="P14" s="110"/>
       <c r="Q14" s="50" t="s">
         <v>249</v>
       </c>
       <c r="R14" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="S14" s="114"/>
+      <c r="S14" s="97"/>
       <c r="U14" s="75"/>
       <c r="V14" s="58">
         <v>1</v>
@@ -4817,10 +7158,10 @@
       <c r="AA14" s="56">
         <v>1</v>
       </c>
-      <c r="AB14" s="57">
+      <c r="AB14" s="59">
         <v>172</v>
       </c>
-      <c r="AC14" s="58">
+      <c r="AC14" s="194">
         <v>16</v>
       </c>
     </row>
@@ -4852,14 +7193,14 @@
       <c r="O15" s="52">
         <v>0</v>
       </c>
-      <c r="P15" s="127"/>
+      <c r="P15" s="110"/>
       <c r="Q15" s="51" t="s">
         <v>249</v>
       </c>
       <c r="R15" s="60">
         <v>14</v>
       </c>
-      <c r="S15" s="114"/>
+      <c r="S15" s="97"/>
       <c r="V15" s="75"/>
       <c r="W15" s="58">
         <v>0</v>
@@ -4872,10 +7213,10 @@
       </c>
       <c r="Z15" s="80"/>
       <c r="AA15" s="81"/>
-      <c r="AB15" s="57">
+      <c r="AB15" s="59">
         <v>12</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="83">
         <v>10</v>
       </c>
     </row>
@@ -4907,14 +7248,14 @@
       <c r="O16" s="47">
         <v>0</v>
       </c>
-      <c r="P16" s="127"/>
+      <c r="P16" s="110"/>
       <c r="Q16" s="50" t="s">
         <v>249</v>
       </c>
       <c r="R16" s="61">
         <v>38</v>
       </c>
-      <c r="S16" s="114"/>
+      <c r="S16" s="97"/>
       <c r="W16" s="75"/>
       <c r="X16" s="58">
         <v>0</v>
@@ -4926,10 +7267,10 @@
         <v>2</v>
       </c>
       <c r="AA16" s="77"/>
-      <c r="AB16" s="59" t="s">
+      <c r="AB16" s="192" t="s">
         <v>245</v>
       </c>
-      <c r="AC16" s="31" t="s">
+      <c r="AC16" s="193" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4961,14 +7302,14 @@
       <c r="O17" s="52">
         <v>0</v>
       </c>
-      <c r="P17" s="127"/>
+      <c r="P17" s="110"/>
       <c r="Q17" s="51" t="s">
         <v>249</v>
       </c>
       <c r="R17" s="60">
         <v>40</v>
       </c>
-      <c r="S17" s="114"/>
+      <c r="S17" s="97"/>
       <c r="X17" s="75"/>
       <c r="Y17" s="58">
         <v>0</v>
@@ -5008,14 +7349,14 @@
       <c r="O18" s="47">
         <v>0</v>
       </c>
-      <c r="P18" s="127"/>
+      <c r="P18" s="110"/>
       <c r="Q18" s="50" t="s">
         <v>249</v>
       </c>
       <c r="R18" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="S18" s="114"/>
+      <c r="S18" s="97"/>
       <c r="Y18" s="75"/>
       <c r="Z18" s="58">
         <v>0</v>
@@ -5052,14 +7393,14 @@
       <c r="O19" s="52">
         <v>0</v>
       </c>
-      <c r="P19" s="127"/>
+      <c r="P19" s="110"/>
       <c r="Q19" s="51" t="s">
         <v>249</v>
       </c>
       <c r="R19" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="S19" s="114"/>
+      <c r="S19" s="97"/>
       <c r="Z19" s="75"/>
       <c r="AA19" s="82"/>
     </row>
@@ -5091,7 +7432,7 @@
       <c r="O20" s="72">
         <v>1</v>
       </c>
-      <c r="P20" s="127"/>
+      <c r="P20" s="110"/>
       <c r="Q20" s="53" t="s">
         <v>249</v>
       </c>
@@ -5108,7 +7449,7 @@
     <mergeCell ref="T6:AA6"/>
     <mergeCell ref="Q6:R6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5117,871 +7458,865 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2E4EBA-F545-46F4-A4E2-4B686F5E50D1}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="142" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" style="142" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="142" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="142" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="142" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="142" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="142" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.140625" style="142" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="174" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="142" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="142" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="142"/>
+    <col min="1" max="1" width="7.5703125" style="125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="126" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="149" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="125" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="176" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143" t="s">
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143" t="s">
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176" t="s">
         <v>304</v>
       </c>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="176" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143" t="s">
+      <c r="C2" s="176"/>
+      <c r="D2" s="176" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143" t="s">
+      <c r="E2" s="176"/>
+      <c r="F2" s="176" t="s">
         <v>264</v>
       </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143" t="s">
+      <c r="G2" s="176"/>
+      <c r="H2" s="176" t="s">
         <v>265</v>
       </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143" t="s">
+      <c r="I2" s="176"/>
+      <c r="J2" s="176" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143" t="s">
+      <c r="K2" s="176"/>
+      <c r="L2" s="176" t="s">
         <v>305</v>
       </c>
-      <c r="M2" s="143"/>
+      <c r="M2" s="176"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="127" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="128" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="145" t="s">
+      <c r="E3" s="128" t="s">
         <v>267</v>
       </c>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="145" t="s">
+      <c r="G3" s="128" t="s">
         <v>268</v>
       </c>
-      <c r="H3" s="145" t="s">
+      <c r="H3" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="I3" s="146" t="s">
+      <c r="I3" s="129" t="s">
         <v>268</v>
       </c>
-      <c r="J3" s="145" t="s">
+      <c r="J3" s="128" t="s">
         <v>300</v>
       </c>
-      <c r="K3" s="145" t="s">
+      <c r="K3" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="L3" s="145" t="s">
+      <c r="L3" s="128" t="s">
         <v>306</v>
       </c>
-      <c r="M3" s="146" t="s">
+      <c r="M3" s="129" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="147" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="113" t="s">
         <v>276</v>
       </c>
-      <c r="D4" s="156">
+      <c r="D4" s="134">
         <v>127255255255</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="115" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="169" t="s">
+      <c r="F4" s="147" t="s">
         <v>287</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="H4" s="156">
+      <c r="H4" s="134">
         <v>10255255255</v>
       </c>
-      <c r="I4" s="133" t="s">
+      <c r="I4" s="116" t="s">
         <v>293</v>
       </c>
-      <c r="J4" s="129">
+      <c r="J4" s="112">
         <v>8</v>
       </c>
-      <c r="K4" s="179" t="s">
+      <c r="K4" s="151" t="s">
         <v>301</v>
       </c>
-      <c r="L4" s="131">
+      <c r="L4" s="114">
         <v>1</v>
       </c>
-      <c r="M4" s="161">
+      <c r="M4" s="139">
         <f>2^24-2</f>
         <v>16777214</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="117" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="168" t="s">
+      <c r="B5" s="146" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="157">
+      <c r="D5" s="135">
         <v>191255255255</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="120" t="s">
         <v>279</v>
       </c>
-      <c r="F5" s="168" t="s">
+      <c r="F5" s="146" t="s">
         <v>288</v>
       </c>
-      <c r="G5" s="138" t="s">
+      <c r="G5" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="H5" s="168" t="s">
+      <c r="H5" s="146" t="s">
         <v>289</v>
       </c>
-      <c r="I5" s="139" t="s">
+      <c r="I5" s="122" t="s">
         <v>297</v>
       </c>
-      <c r="J5" s="135">
+      <c r="J5" s="118">
         <v>16</v>
       </c>
-      <c r="K5" s="180" t="s">
+      <c r="K5" s="152" t="s">
         <v>302</v>
       </c>
-      <c r="L5" s="135">
+      <c r="L5" s="118">
         <v>16</v>
       </c>
-      <c r="M5" s="162">
+      <c r="M5" s="140">
         <f>2^16-2</f>
         <v>65534</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="147" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="113" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="156">
+      <c r="D6" s="134">
         <v>223255255255</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="F6" s="169" t="s">
+      <c r="F6" s="147" t="s">
         <v>290</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="123" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="156">
+      <c r="H6" s="134">
         <v>192168255255</v>
       </c>
-      <c r="I6" s="141" t="s">
+      <c r="I6" s="124" t="s">
         <v>298</v>
       </c>
-      <c r="J6" s="129">
+      <c r="J6" s="112">
         <v>24</v>
       </c>
-      <c r="K6" s="181" t="s">
+      <c r="K6" s="153" t="s">
         <v>303</v>
       </c>
-      <c r="L6" s="131">
+      <c r="L6" s="114">
         <v>256</v>
       </c>
-      <c r="M6" s="163">
+      <c r="M6" s="141">
         <f>2^8-2</f>
         <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="117" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="146" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="157">
+      <c r="D7" s="135">
         <v>239255255255</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="120" t="s">
         <v>284</v>
       </c>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="178" t="s">
         <v>291</v>
       </c>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="147" t="s">
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="178" t="s">
         <v>291</v>
       </c>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="154"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="179"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="130" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="148" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="149" t="s">
+      <c r="C8" s="131" t="s">
         <v>285</v>
       </c>
-      <c r="D8" s="158">
+      <c r="D8" s="136">
         <v>255255255255</v>
       </c>
-      <c r="E8" s="150" t="s">
+      <c r="E8" s="132" t="s">
         <v>286</v>
       </c>
-      <c r="F8" s="151" t="s">
+      <c r="F8" s="180" t="s">
         <v>292</v>
       </c>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="151" t="s">
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="180" t="s">
         <v>292</v>
       </c>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="155"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="181"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="153">
+      <c r="B9" s="177">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153">
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153">
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="127" t="s">
         <v>308</v>
       </c>
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="128" t="s">
         <v>313</v>
       </c>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="128" t="s">
         <v>314</v>
       </c>
-      <c r="D11" s="145" t="s">
+      <c r="D11" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="E11" s="164" t="s">
+      <c r="E11" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="F11" s="145" t="s">
+      <c r="F11" s="128" t="s">
         <v>317</v>
       </c>
-      <c r="G11" s="145" t="s">
+      <c r="G11" s="128" t="s">
         <v>313</v>
       </c>
-      <c r="H11" s="145" t="s">
+      <c r="H11" s="128" t="s">
         <v>314</v>
       </c>
-      <c r="I11" s="145" t="s">
+      <c r="I11" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="J11" s="145" t="s">
+      <c r="J11" s="128" t="s">
         <v>316</v>
       </c>
-      <c r="K11" s="175" t="s">
+      <c r="K11" s="150" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="111" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="113" t="s">
         <v>319</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="113" t="s">
         <v>320</v>
       </c>
-      <c r="E12" s="165" t="s">
+      <c r="E12" s="143" t="s">
         <v>321</v>
       </c>
-      <c r="F12" s="171" t="s">
+      <c r="F12" s="147" t="s">
         <v>318</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="H12" s="130" t="s">
+      <c r="H12" s="113" t="s">
         <v>330</v>
       </c>
-      <c r="I12" s="130" t="s">
+      <c r="I12" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="J12" s="130" t="s">
+      <c r="J12" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="K12" s="182" t="s">
+      <c r="K12" s="154" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="117" t="s">
         <v>310</v>
       </c>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="E13" s="166" t="s">
+      <c r="E13" s="144" t="s">
         <v>275</v>
       </c>
-      <c r="F13" s="172" t="s">
+      <c r="F13" s="146" t="s">
         <v>301</v>
       </c>
-      <c r="G13" s="136" t="s">
+      <c r="G13" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="H13" s="136" t="s">
+      <c r="H13" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="I13" s="136" t="s">
+      <c r="I13" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="J13" s="136" t="s">
+      <c r="J13" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="K13" s="183" t="s">
+      <c r="K13" s="155" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="111" t="s">
         <v>311</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="E14" s="165" t="s">
+      <c r="E14" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="F14" s="171" t="s">
+      <c r="F14" s="147" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="130" t="s">
+      <c r="G14" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="H14" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="I14" s="130" t="s">
+      <c r="I14" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="J14" s="130" t="s">
+      <c r="J14" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="K14" s="182" t="s">
+      <c r="K14" s="154" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="137" t="s">
         <v>312</v>
       </c>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="138" t="s">
         <v>293</v>
       </c>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="145" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="173">
+      <c r="F15" s="183">
         <v>10255255255</v>
       </c>
-      <c r="G15" s="160" t="s">
+      <c r="G15" s="138" t="s">
         <v>293</v>
       </c>
-      <c r="H15" s="160" t="s">
+      <c r="H15" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="I15" s="160" t="s">
+      <c r="I15" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="J15" s="160" t="s">
+      <c r="J15" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="K15" s="184" t="s">
+      <c r="K15" s="156" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="174"/>
+      <c r="F16" s="149"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="144" t="s">
+      <c r="A17" s="127" t="s">
         <v>308</v>
       </c>
-      <c r="B17" s="145" t="s">
+      <c r="B17" s="128" t="s">
         <v>313</v>
       </c>
-      <c r="C17" s="145" t="s">
+      <c r="C17" s="128" t="s">
         <v>314</v>
       </c>
-      <c r="D17" s="145" t="s">
+      <c r="D17" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="E17" s="164" t="s">
+      <c r="E17" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="F17" s="146" t="s">
+      <c r="F17" s="129" t="s">
         <v>317</v>
       </c>
-      <c r="G17" s="145" t="s">
+      <c r="G17" s="128" t="s">
         <v>313</v>
       </c>
-      <c r="H17" s="145" t="s">
+      <c r="H17" s="128" t="s">
         <v>314</v>
       </c>
-      <c r="I17" s="145" t="s">
+      <c r="I17" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="J17" s="145" t="s">
+      <c r="J17" s="128" t="s">
         <v>316</v>
       </c>
-      <c r="K17" s="175" t="s">
+      <c r="K17" s="150" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="111" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="113" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="113" t="s">
         <v>323</v>
       </c>
-      <c r="D18" s="130" t="s">
+      <c r="D18" s="113" t="s">
         <v>319</v>
       </c>
-      <c r="E18" s="165" t="s">
+      <c r="E18" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="F18" s="176" t="s">
+      <c r="F18" s="184" t="s">
         <v>322</v>
       </c>
-      <c r="G18" s="130" t="s">
+      <c r="G18" s="113" t="s">
         <v>294</v>
       </c>
-      <c r="H18" s="130" t="s">
+      <c r="H18" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="I18" s="130" t="s">
+      <c r="I18" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="J18" s="130" t="s">
+      <c r="J18" s="113" t="s">
         <v>335</v>
       </c>
-      <c r="K18" s="182" t="s">
+      <c r="K18" s="154" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="117" t="s">
         <v>310</v>
       </c>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="D19" s="136" t="s">
+      <c r="D19" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="E19" s="166" t="s">
+      <c r="E19" s="144" t="s">
         <v>275</v>
       </c>
-      <c r="F19" s="177" t="s">
+      <c r="F19" s="185" t="s">
         <v>302</v>
       </c>
-      <c r="G19" s="136" t="s">
+      <c r="G19" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="H19" s="136" t="s">
+      <c r="H19" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="I19" s="136" t="s">
+      <c r="I19" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="J19" s="136" t="s">
+      <c r="J19" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="K19" s="183" t="s">
+      <c r="K19" s="155" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="128" t="s">
+      <c r="A20" s="111" t="s">
         <v>311</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="113" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="113" t="s">
         <v>323</v>
       </c>
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="E20" s="165" t="s">
+      <c r="E20" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="F20" s="176" t="s">
+      <c r="F20" s="184" t="s">
         <v>324</v>
       </c>
-      <c r="G20" s="130" t="s">
+      <c r="G20" s="113" t="s">
         <v>294</v>
       </c>
-      <c r="H20" s="130" t="s">
+      <c r="H20" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="I20" s="130" t="s">
+      <c r="I20" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="J20" s="130" t="s">
+      <c r="J20" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="K20" s="182" t="s">
+      <c r="K20" s="154" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="137" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="138" t="s">
         <v>294</v>
       </c>
-      <c r="C21" s="160" t="s">
+      <c r="C21" s="138" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="160" t="s">
+      <c r="D21" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="E21" s="167" t="s">
+      <c r="E21" s="145" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="178" t="s">
+      <c r="F21" s="186" t="s">
         <v>325</v>
       </c>
-      <c r="G21" s="160" t="s">
+      <c r="G21" s="138" t="s">
         <v>294</v>
       </c>
-      <c r="H21" s="160" t="s">
+      <c r="H21" s="138" t="s">
         <v>333</v>
       </c>
-      <c r="I21" s="160" t="s">
+      <c r="I21" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="J21" s="160" t="s">
+      <c r="J21" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="K21" s="184" t="s">
+      <c r="K21" s="156" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="174"/>
+      <c r="F22" s="149"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="127" t="s">
         <v>308</v>
       </c>
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="128" t="s">
         <v>313</v>
       </c>
-      <c r="C23" s="145" t="s">
+      <c r="C23" s="128" t="s">
         <v>314</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="E23" s="145" t="s">
+      <c r="E23" s="128" t="s">
         <v>316</v>
       </c>
-      <c r="F23" s="188" t="s">
+      <c r="F23" s="157" t="s">
         <v>317</v>
       </c>
-      <c r="G23" s="145" t="s">
+      <c r="G23" s="128" t="s">
         <v>313</v>
       </c>
-      <c r="H23" s="145" t="s">
+      <c r="H23" s="128" t="s">
         <v>314</v>
       </c>
-      <c r="I23" s="145" t="s">
+      <c r="I23" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="J23" s="145" t="s">
+      <c r="J23" s="128" t="s">
         <v>316</v>
       </c>
-      <c r="K23" s="175" t="s">
+      <c r="K23" s="150" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="128" t="s">
+      <c r="A24" s="111" t="s">
         <v>309</v>
       </c>
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="D24" s="130" t="s">
+      <c r="D24" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="E24" s="130" t="s">
+      <c r="E24" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="F24" s="185" t="s">
+      <c r="F24" s="187" t="s">
         <v>326</v>
       </c>
-      <c r="G24" s="130" t="s">
+      <c r="G24" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="H24" s="130" t="s">
+      <c r="H24" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="I24" s="130" t="s">
+      <c r="I24" s="113" t="s">
         <v>340</v>
       </c>
-      <c r="J24" s="130" t="s">
+      <c r="J24" s="113" t="s">
         <v>341</v>
       </c>
-      <c r="K24" s="182" t="s">
+      <c r="K24" s="154" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="117" t="s">
         <v>310</v>
       </c>
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="E25" s="136" t="s">
+      <c r="E25" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="F25" s="186" t="s">
+      <c r="F25" s="188" t="s">
         <v>303</v>
       </c>
-      <c r="G25" s="136" t="s">
+      <c r="G25" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="H25" s="136" t="s">
+      <c r="H25" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="I25" s="136" t="s">
+      <c r="I25" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="J25" s="136" t="s">
+      <c r="J25" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="K25" s="183" t="s">
+      <c r="K25" s="155" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="111" t="s">
         <v>311</v>
       </c>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="E26" s="130" t="s">
+      <c r="E26" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="F26" s="185" t="s">
+      <c r="F26" s="187" t="s">
         <v>329</v>
       </c>
-      <c r="G26" s="130" t="s">
+      <c r="G26" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="H26" s="130" t="s">
+      <c r="H26" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="I26" s="130" t="s">
+      <c r="I26" s="113" t="s">
         <v>340</v>
       </c>
-      <c r="J26" s="130" t="s">
+      <c r="J26" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="K26" s="182" t="s">
+      <c r="K26" s="154" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="137" t="s">
         <v>312</v>
       </c>
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="138" t="s">
         <v>280</v>
       </c>
-      <c r="C27" s="160" t="s">
+      <c r="C27" s="138" t="s">
         <v>327</v>
       </c>
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="160" t="s">
+      <c r="E27" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="F27" s="187">
+      <c r="F27" s="189">
         <v>192168255255</v>
       </c>
-      <c r="G27" s="160" t="s">
+      <c r="G27" s="138" t="s">
         <v>280</v>
       </c>
-      <c r="H27" s="160" t="s">
+      <c r="H27" s="138" t="s">
         <v>327</v>
       </c>
-      <c r="I27" s="160" t="s">
+      <c r="I27" s="138" t="s">
         <v>340</v>
       </c>
-      <c r="J27" s="160" t="s">
+      <c r="J27" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="K27" s="184" t="s">
+      <c r="K27" s="156" t="s">
         <v>343</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
@@ -5992,9 +8327,1380 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACF6758-0A0E-4A21-9C34-F3AEACFA754F}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="126" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="196" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="83">
+        <v>5</v>
+      </c>
+      <c r="C5" s="83">
+        <v>8</v>
+      </c>
+      <c r="D5" s="83">
+        <v>3</v>
+      </c>
+      <c r="E5" s="83">
+        <f>IF(Tabla6[[#This Row],[CLASE]]="A",8,IF(Tabla6[[#This Row],[CLASE]]="B",16,24)) + Tabla6[[#This Row],[bits]]</f>
+        <v>11</v>
+      </c>
+      <c r="F5" s="83">
+        <f>256/Tabla6[[#This Row],[s = subredes]]</f>
+        <v>32</v>
+      </c>
+      <c r="G5" s="83">
+        <f>32-Tabla6[[#This Row],[cidr = bits 1]]</f>
+        <v>21</v>
+      </c>
+      <c r="H5" s="197">
+        <f>2^Tabla6[[#This Row],[H = bits 0]]-2</f>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="199" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="199" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="199" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="199" t="s">
+        <v>398</v>
+      </c>
+      <c r="E8" s="199" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="H8" s="198">
+        <f>2^21-2</f>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="199" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="199" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="199" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="199" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="199" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="H9" s="198">
+        <f t="shared" ref="H9:H15" si="0">2^21-2</f>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="199" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" s="199" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="199" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="199" t="s">
+        <v>400</v>
+      </c>
+      <c r="E10" s="199" t="s">
+        <v>392</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="H10" s="198">
+        <f t="shared" si="0"/>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="199" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="199" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="199" t="s">
+        <v>386</v>
+      </c>
+      <c r="D11" s="199" t="s">
+        <v>401</v>
+      </c>
+      <c r="E11" s="199" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="H11" s="198">
+        <f t="shared" si="0"/>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="199" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" s="199" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="199" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="199" t="s">
+        <v>402</v>
+      </c>
+      <c r="E12" s="199" t="s">
+        <v>395</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="H12" s="198">
+        <f t="shared" si="0"/>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="199" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" s="199" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="199" t="s">
+        <v>388</v>
+      </c>
+      <c r="D13" s="199" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" s="199" t="s">
+        <v>396</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="H13" s="198">
+        <f t="shared" si="0"/>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="199" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="199" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="199" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="199" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" s="199" t="s">
+        <v>397</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="H14" s="198">
+        <f t="shared" si="0"/>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="199" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="199" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="199" t="s">
+        <v>390</v>
+      </c>
+      <c r="D15" s="199" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" s="199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F15" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="H15" s="198">
+        <f t="shared" si="0"/>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>64</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17" s="198">
+        <f>2^G17-2</f>
+        <v>16382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D18" t="s">
+        <v>465</v>
+      </c>
+      <c r="E18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19" t="s">
+        <v>359</v>
+      </c>
+      <c r="E19" t="s">
+        <v>360</v>
+      </c>
+      <c r="F19" t="s">
+        <v>361</v>
+      </c>
+      <c r="G19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="199" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20" s="199" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="199" t="s">
+        <v>415</v>
+      </c>
+      <c r="D20" s="199" t="s">
+        <v>424</v>
+      </c>
+      <c r="E20" s="199" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" s="83" t="s">
+        <v>419</v>
+      </c>
+      <c r="G20" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="H20" s="198">
+        <f t="shared" ref="H20:H23" si="1">2^14-2</f>
+        <v>16382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="199" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" s="199" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="199" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" s="199" t="s">
+        <v>425</v>
+      </c>
+      <c r="E21" s="199" t="s">
+        <v>421</v>
+      </c>
+      <c r="F21" s="83" t="s">
+        <v>419</v>
+      </c>
+      <c r="G21" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="H21" s="198">
+        <f t="shared" si="1"/>
+        <v>16382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="199" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="199" t="s">
+        <v>413</v>
+      </c>
+      <c r="C22" s="199" t="s">
+        <v>417</v>
+      </c>
+      <c r="D22" s="199" t="s">
+        <v>426</v>
+      </c>
+      <c r="E22" s="199" t="s">
+        <v>422</v>
+      </c>
+      <c r="F22" s="83" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="H22" s="198">
+        <f t="shared" si="1"/>
+        <v>16382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="199" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" s="199" t="s">
+        <v>414</v>
+      </c>
+      <c r="C23" s="199" t="s">
+        <v>418</v>
+      </c>
+      <c r="D23" s="199" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="199" t="s">
+        <v>423</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>419</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="H23" s="198">
+        <f t="shared" si="1"/>
+        <v>16382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="199"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="198"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="199" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="199" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25" s="199" t="s">
+        <v>429</v>
+      </c>
+      <c r="D25" s="199" t="s">
+        <v>430</v>
+      </c>
+      <c r="E25" s="199" t="s">
+        <v>431</v>
+      </c>
+      <c r="F25" s="83">
+        <v>32</v>
+      </c>
+      <c r="G25" s="83">
+        <v>5</v>
+      </c>
+      <c r="H25" s="198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="199"/>
+      <c r="B26" s="199" t="s">
+        <v>465</v>
+      </c>
+      <c r="C26" s="199" t="s">
+        <v>466</v>
+      </c>
+      <c r="D26" s="199" t="s">
+        <v>465</v>
+      </c>
+      <c r="E26" s="199" t="s">
+        <v>466</v>
+      </c>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="198"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" t="s">
+        <v>358</v>
+      </c>
+      <c r="D27" t="s">
+        <v>359</v>
+      </c>
+      <c r="E27" t="s">
+        <v>360</v>
+      </c>
+      <c r="F27" t="s">
+        <v>361</v>
+      </c>
+      <c r="G27" t="s">
+        <v>349</v>
+      </c>
+      <c r="H27" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="199" t="s">
+        <v>371</v>
+      </c>
+      <c r="B28" s="199" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="199" t="s">
+        <v>432</v>
+      </c>
+      <c r="D28" s="199" t="s">
+        <v>436</v>
+      </c>
+      <c r="E28" s="199" t="s">
+        <v>435</v>
+      </c>
+      <c r="F28" s="200">
+        <v>255255255224</v>
+      </c>
+      <c r="G28" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="H28" s="198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="199" t="s">
+        <v>372</v>
+      </c>
+      <c r="B29" s="199" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" s="199" t="s">
+        <v>452</v>
+      </c>
+      <c r="D29" s="199" t="s">
+        <v>444</v>
+      </c>
+      <c r="E29" s="199" t="s">
+        <v>443</v>
+      </c>
+      <c r="F29" s="200">
+        <v>255255255224</v>
+      </c>
+      <c r="G29" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="H29" s="198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="199" t="s">
+        <v>373</v>
+      </c>
+      <c r="B30" s="199" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" s="199" t="s">
+        <v>453</v>
+      </c>
+      <c r="D30" s="199" t="s">
+        <v>459</v>
+      </c>
+      <c r="E30" s="199" t="s">
+        <v>445</v>
+      </c>
+      <c r="F30" s="200">
+        <v>255255255224</v>
+      </c>
+      <c r="G30" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="H30" s="198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="199" t="s">
+        <v>374</v>
+      </c>
+      <c r="B31" s="199" t="s">
+        <v>438</v>
+      </c>
+      <c r="C31" s="199" t="s">
+        <v>454</v>
+      </c>
+      <c r="D31" s="199" t="s">
+        <v>460</v>
+      </c>
+      <c r="E31" s="199" t="s">
+        <v>446</v>
+      </c>
+      <c r="F31" s="200">
+        <v>255255255224</v>
+      </c>
+      <c r="G31" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="H31" s="198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="199" t="s">
+        <v>375</v>
+      </c>
+      <c r="B32" s="199" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="199" t="s">
+        <v>455</v>
+      </c>
+      <c r="D32" s="199" t="s">
+        <v>461</v>
+      </c>
+      <c r="E32" s="199" t="s">
+        <v>447</v>
+      </c>
+      <c r="F32" s="200">
+        <v>255255255224</v>
+      </c>
+      <c r="G32" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="H32" s="198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="199" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" s="199" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" s="199" t="s">
+        <v>456</v>
+      </c>
+      <c r="D33" s="199" t="s">
+        <v>462</v>
+      </c>
+      <c r="E33" s="199" t="s">
+        <v>448</v>
+      </c>
+      <c r="F33" s="200">
+        <v>255255255224</v>
+      </c>
+      <c r="G33" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="H33" s="198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="199" t="s">
+        <v>281</v>
+      </c>
+      <c r="B34" s="199" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" s="199" t="s">
+        <v>457</v>
+      </c>
+      <c r="D34" s="199" t="s">
+        <v>463</v>
+      </c>
+      <c r="E34" s="199" t="s">
+        <v>449</v>
+      </c>
+      <c r="F34" s="200">
+        <v>255255255224</v>
+      </c>
+      <c r="G34" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="H34" s="198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="199" t="s">
+        <v>377</v>
+      </c>
+      <c r="B35" s="199" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="199" t="s">
+        <v>458</v>
+      </c>
+      <c r="D35" s="199" t="s">
+        <v>464</v>
+      </c>
+      <c r="E35" s="199" t="s">
+        <v>450</v>
+      </c>
+      <c r="F35" s="200">
+        <v>255255255224</v>
+      </c>
+      <c r="G35" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="H35" s="198">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DD10AC-097D-4523-B531-6423B6A8BD52}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="126" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="196" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>474</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="83">
+        <v>10</v>
+      </c>
+      <c r="B5" s="83">
+        <v>14</v>
+      </c>
+      <c r="C5" s="83">
+        <v>4</v>
+      </c>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="83"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7" t="s">
+        <v>349</v>
+      </c>
+      <c r="I7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="199" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="199" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="199" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="199" t="s">
+        <v>481</v>
+      </c>
+      <c r="E8" s="199" t="s">
+        <v>487</v>
+      </c>
+      <c r="F8" s="199" t="s">
+        <v>486</v>
+      </c>
+      <c r="G8" s="200">
+        <v>255255255128</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>488</v>
+      </c>
+      <c r="I8" s="198">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="199" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="199" t="s">
+        <v>478</v>
+      </c>
+      <c r="C9" s="199" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9" s="199" t="s">
+        <v>485</v>
+      </c>
+      <c r="E9" s="199" t="s">
+        <v>493</v>
+      </c>
+      <c r="F9" s="199" t="s">
+        <v>492</v>
+      </c>
+      <c r="G9" s="200">
+        <v>255255255128</v>
+      </c>
+      <c r="H9" s="83" t="s">
+        <v>488</v>
+      </c>
+      <c r="I9" s="198">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="199" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="199" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="199" t="s">
+        <v>490</v>
+      </c>
+      <c r="D10" s="199" t="s">
+        <v>491</v>
+      </c>
+      <c r="E10" s="199" t="s">
+        <v>496</v>
+      </c>
+      <c r="F10" s="199" t="s">
+        <v>495</v>
+      </c>
+      <c r="G10" s="200">
+        <v>255255255192</v>
+      </c>
+      <c r="H10" s="83" t="s">
+        <v>489</v>
+      </c>
+      <c r="I10" s="198">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="199" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="199" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" s="199" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" s="199" t="s">
+        <v>498</v>
+      </c>
+      <c r="E11" s="199" t="s">
+        <v>500</v>
+      </c>
+      <c r="F11" s="199" t="s">
+        <v>499</v>
+      </c>
+      <c r="G11" s="200">
+        <v>255255255224</v>
+      </c>
+      <c r="H11" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="I11" s="198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="199" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="199" t="s">
+        <v>497</v>
+      </c>
+      <c r="D12" s="199" t="s">
+        <v>501</v>
+      </c>
+      <c r="E12" s="199" t="s">
+        <v>504</v>
+      </c>
+      <c r="F12" s="199" t="s">
+        <v>502</v>
+      </c>
+      <c r="G12" s="200">
+        <v>255255255240</v>
+      </c>
+      <c r="H12" s="83" t="s">
+        <v>451</v>
+      </c>
+      <c r="I12" s="198">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="199"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="199" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="198"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="199"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="198"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" t="s">
+        <v>359</v>
+      </c>
+      <c r="F15" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15" t="s">
+        <v>361</v>
+      </c>
+      <c r="H15" t="s">
+        <v>349</v>
+      </c>
+      <c r="I15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="199" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="199" t="s">
+        <v>478</v>
+      </c>
+      <c r="C16" s="199" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="199" t="s">
+        <v>481</v>
+      </c>
+      <c r="E16" s="199" t="s">
+        <v>487</v>
+      </c>
+      <c r="F16" s="199" t="s">
+        <v>486</v>
+      </c>
+      <c r="G16" s="200">
+        <v>255255255128</v>
+      </c>
+      <c r="H16" s="83" t="s">
+        <v>488</v>
+      </c>
+      <c r="I16" s="198">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="199" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="199" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="199" t="s">
+        <v>484</v>
+      </c>
+      <c r="D17" s="199" t="s">
+        <v>485</v>
+      </c>
+      <c r="E17" s="199" t="s">
+        <v>493</v>
+      </c>
+      <c r="F17" s="199" t="s">
+        <v>492</v>
+      </c>
+      <c r="G17" s="200">
+        <v>255255255128</v>
+      </c>
+      <c r="H17" s="83" t="s">
+        <v>488</v>
+      </c>
+      <c r="I17" s="198">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="199" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="199" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18" s="199" t="s">
+        <v>490</v>
+      </c>
+      <c r="D18" s="199" t="s">
+        <v>491</v>
+      </c>
+      <c r="E18" s="199" t="s">
+        <v>507</v>
+      </c>
+      <c r="F18" s="199" t="s">
+        <v>506</v>
+      </c>
+      <c r="G18" s="200">
+        <v>255255255224</v>
+      </c>
+      <c r="H18" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="I18" s="198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="199" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="199" t="s">
+        <v>480</v>
+      </c>
+      <c r="C19" s="199" t="s">
+        <v>505</v>
+      </c>
+      <c r="D19" s="199" t="s">
+        <v>508</v>
+      </c>
+      <c r="E19" s="199" t="s">
+        <v>496</v>
+      </c>
+      <c r="F19" s="199" t="s">
+        <v>495</v>
+      </c>
+      <c r="G19" s="200">
+        <v>255255255192</v>
+      </c>
+      <c r="H19" s="83" t="s">
+        <v>489</v>
+      </c>
+      <c r="I19" s="198">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="199" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="199" t="s">
+        <v>497</v>
+      </c>
+      <c r="D20" s="199" t="s">
+        <v>501</v>
+      </c>
+      <c r="E20" s="199" t="s">
+        <v>504</v>
+      </c>
+      <c r="F20" s="199" t="s">
+        <v>502</v>
+      </c>
+      <c r="G20" s="200">
+        <v>255255255240</v>
+      </c>
+      <c r="H20" s="83" t="s">
+        <v>451</v>
+      </c>
+      <c r="I20" s="198">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="199"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="199" t="s">
+        <v>503</v>
+      </c>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="198"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="182"/>
+      <c r="D23" s="201"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="202"/>
+      <c r="D24" s="201"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="182"/>
+      <c r="D25" s="201"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="182"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/protocols-suite.xlsx
+++ b/docs/protocols-suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B5FAFE-3F7F-4CE8-BE6D-2785B15B798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A89C32D-D7DE-418B-B940-3551BB6DBC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="568">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -3239,16 +3239,214 @@
     <t>10.0.1.110</t>
   </si>
   <si>
-    <t>10.0.1.32</t>
-  </si>
-  <si>
-    <t>10.0.1.31</t>
-  </si>
-  <si>
-    <t>10.0.1.30</t>
-  </si>
-  <si>
-    <t>10.0.1.33</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>172.20.0.1</t>
+  </si>
+  <si>
+    <t>172.20.1.0</t>
+  </si>
+  <si>
+    <t>172.20.2.0</t>
+  </si>
+  <si>
+    <t>172.20.1.1</t>
+  </si>
+  <si>
+    <t>172.20.0.255</t>
+  </si>
+  <si>
+    <t>172.20.0.254</t>
+  </si>
+  <si>
+    <t>172.20.1.128</t>
+  </si>
+  <si>
+    <t>172.20.1.127</t>
+  </si>
+  <si>
+    <t>172.20.1.126</t>
+  </si>
+  <si>
+    <t>172.20.1.129</t>
+  </si>
+  <si>
+    <t>172.20.1.255</t>
+  </si>
+  <si>
+    <t>172.20.1.254</t>
+  </si>
+  <si>
+    <t>172.20.2.64</t>
+  </si>
+  <si>
+    <t>172.20.2.63</t>
+  </si>
+  <si>
+    <t>172.20.2.62</t>
+  </si>
+  <si>
+    <t>172.20.2.1</t>
+  </si>
+  <si>
+    <t>172.20.2.65</t>
+  </si>
+  <si>
+    <t>172.20.2.128</t>
+  </si>
+  <si>
+    <t>172.20.2.127</t>
+  </si>
+  <si>
+    <t>172.20.2.126</t>
+  </si>
+  <si>
+    <t>172.20.2.129</t>
+  </si>
+  <si>
+    <t>172.20.2.160</t>
+  </si>
+  <si>
+    <t>172.20.2.159</t>
+  </si>
+  <si>
+    <t>172.20.2.158</t>
+  </si>
+  <si>
+    <t>172.20.0.32</t>
+  </si>
+  <si>
+    <t>172.20.0.31</t>
+  </si>
+  <si>
+    <t>172.20.0.30</t>
+  </si>
+  <si>
+    <t>172.20.0.33</t>
+  </si>
+  <si>
+    <t>172.20.0.160</t>
+  </si>
+  <si>
+    <t>172.20.0.158</t>
+  </si>
+  <si>
+    <t>172.20.0.159</t>
+  </si>
+  <si>
+    <t>172.20.0.224</t>
+  </si>
+  <si>
+    <t>172.20.0.161</t>
+  </si>
+  <si>
+    <t>172.20.0.223</t>
+  </si>
+  <si>
+    <t>172.20.0.222</t>
+  </si>
+  <si>
+    <t>172.20.0.225</t>
+  </si>
+  <si>
+    <t>172.20.1.32</t>
+  </si>
+  <si>
+    <t>172.20.1.31</t>
+  </si>
+  <si>
+    <t>172.20.1.30</t>
+  </si>
+  <si>
+    <t>172.20.1.33</t>
+  </si>
+  <si>
+    <t>172.20.1.160</t>
+  </si>
+  <si>
+    <t>172.20.1.161</t>
+  </si>
+  <si>
+    <t>172.20.1.158</t>
+  </si>
+  <si>
+    <t>172.20.1.159</t>
+  </si>
+  <si>
+    <t>172.20.0.128</t>
+  </si>
+  <si>
+    <t>172.20.0.129</t>
+  </si>
+  <si>
+    <t>172.20.1.64</t>
+  </si>
+  <si>
+    <t>172.20.1.63</t>
+  </si>
+  <si>
+    <t>172.20.1.62</t>
+  </si>
+  <si>
+    <t>172.20.1.65</t>
+  </si>
+  <si>
+    <t>172.20.2.254</t>
+  </si>
+  <si>
+    <t>172.20.2.255</t>
+  </si>
+  <si>
+    <t>172.20.3.0</t>
+  </si>
+  <si>
+    <t>10100000</t>
+  </si>
+  <si>
+    <t>11100000</t>
+  </si>
+  <si>
+    <t>byte 4</t>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <t>10000000</t>
   </si>
 </sst>
 </file>
@@ -3259,14 +3457,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3320,6 +3511,26 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3477,7 +3688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -3992,65 +4203,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4094,29 +4314,29 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4152,17 +4372,17 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4201,10 +4421,10 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4219,8 +4439,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4230,7 +4450,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4285,13 +4505,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4306,13 +4526,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4330,7 +4550,7 @@
     <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4342,153 +4562,78 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4500,15 +4645,1370 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="84">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -4564,8 +6064,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -4574,10 +6073,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4629,42 +6124,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4958,28 +6425,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A180DBF7-1A51-407C-907F-CB4B9F7CC57D}" name="Tabla81011" displayName="Tabla81011" ref="A27:H35">
   <autoFilter ref="A27:H35" xr:uid="{A180DBF7-1A51-407C-907F-CB4B9F7CC57D}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FD3F88FE-3DDD-49D3-A8E6-0647D7808F39}" name="binario" totalsRowLabel="Total" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{1D84AD03-B902-4F40-B0BB-14E78A096F6A}" name="red" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{93B91B8A-BC7A-44C7-82E6-B453283364C7}" name="primer ip" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{797A6BCB-ACD2-47F6-AB4A-DA0C9A40518C}" name="ultima ip" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{C4E8FEE1-BE9D-4AD1-821F-E0FE9DA4B930}" name="broadcast" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{64E2742C-8A21-4F78-ABCF-D34821058B8B}" name="mascara" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{E9A842C3-C29F-4CC3-A5C7-1FD8B63221C1}" name="cidr" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{B43EB0D2-71A7-4C05-A613-A6A9A146738E}" name="hosts" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="27" dataCellStyle="Millares"/>
+    <tableColumn id="1" xr3:uid="{FD3F88FE-3DDD-49D3-A8E6-0647D7808F39}" name="binario" totalsRowLabel="Total" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{1D84AD03-B902-4F40-B0BB-14E78A096F6A}" name="red" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{93B91B8A-BC7A-44C7-82E6-B453283364C7}" name="primer ip" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{797A6BCB-ACD2-47F6-AB4A-DA0C9A40518C}" name="ultima ip" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{C4E8FEE1-BE9D-4AD1-821F-E0FE9DA4B930}" name="broadcast" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{64E2742C-8A21-4F78-ABCF-D34821058B8B}" name="mascara" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{E9A842C3-C29F-4CC3-A5C7-1FD8B63221C1}" name="cidr" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{B43EB0D2-71A7-4C05-A613-A6A9A146738E}" name="hosts" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Millares"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F26274E0-7FCB-4616-A4C8-A88D6B226AE2}" name="Tabla612" displayName="Tabla612" ref="A3:E5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F26274E0-7FCB-4616-A4C8-A88D6B226AE2}" name="Tabla612" displayName="Tabla612" ref="A3:E5" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A3:E5" xr:uid="{F26274E0-7FCB-4616-A4C8-A88D6B226AE2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F245494E-4713-4193-9857-3C0E5291EC02}" name="Hosts" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{3DFD68BF-2FD2-4CB5-A1E7-B87A9E477A8A}" name="hosts2" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{D10518A4-0679-4CFE-AAFE-6B6EC0C744CC}" name="h = bits 0" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{926CD250-6D8D-4EFB-A42A-63F334062D15}" name="cidr" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{1B822227-BA10-40FF-A35D-65D64FFB3E60}" name="next hop" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{F245494E-4713-4193-9857-3C0E5291EC02}" name="Hosts" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{3DFD68BF-2FD2-4CB5-A1E7-B87A9E477A8A}" name="hosts2" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{D10518A4-0679-4CFE-AAFE-6B6EC0C744CC}" name="h = bits 0" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{926CD250-6D8D-4EFB-A42A-63F334062D15}" name="cidr" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{1B822227-BA10-40FF-A35D-65D64FFB3E60}" name="next hop" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4992,15 +6459,15 @@
     <sortCondition descending="1" ref="B7:B12"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66F39FF4-0BC4-40D5-A7ED-20CCDB02E1CD}" name="Depto" totalsRowLabel="Total" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{C260C953-42CF-407C-B191-71673B9F445B}" name="equipos" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{83526A93-3346-4C83-B9EF-56CE6C214CD0}" name="red" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{32544E57-1436-44A5-81FC-2879A8450F71}" name="primer ip" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{9D5A8020-A48A-46D9-A5EE-51899C46D6BE}" name="ultima ip" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{7FCD8AF0-A033-4EA1-B347-1815A49CFC7C}" name="broadcast" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{8012672C-2FF8-4F65-8013-B4754EE06DE7}" name="mascara" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{3C2FE2BC-5B8F-4D06-A7D4-F9094ADC3610}" name="cidr" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{C4C302F4-BBA8-4A35-A15A-9EEDE0ACE52C}" name="hosts" totalsRowFunction="sum" dataDxfId="17" dataCellStyle="Millares">
+    <tableColumn id="1" xr3:uid="{66F39FF4-0BC4-40D5-A7ED-20CCDB02E1CD}" name="Depto" totalsRowLabel="Total" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{C260C953-42CF-407C-B191-71673B9F445B}" name="equipos" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{83526A93-3346-4C83-B9EF-56CE6C214CD0}" name="red" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{32544E57-1436-44A5-81FC-2879A8450F71}" name="primer ip" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{9D5A8020-A48A-46D9-A5EE-51899C46D6BE}" name="ultima ip" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{7FCD8AF0-A033-4EA1-B347-1815A49CFC7C}" name="broadcast" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{8012672C-2FF8-4F65-8013-B4754EE06DE7}" name="mascara" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{3C2FE2BC-5B8F-4D06-A7D4-F9094ADC3610}" name="cidr" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{C4C302F4-BBA8-4A35-A15A-9EEDE0ACE52C}" name="hosts" totalsRowFunction="sum" dataDxfId="42" dataCellStyle="Millares">
       <calculatedColumnFormula>2^21-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5009,25 +6476,65 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0951AAE9-7375-4FBD-9A21-769A4B8FD059}" name="Tabla81314" displayName="Tabla81314" ref="A15:I21">
-  <autoFilter ref="A15:I21" xr:uid="{0951AAE9-7375-4FBD-9A21-769A4B8FD059}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{64158E70-88CC-4494-8D53-DAEA07367FE6}" name="Tabla13" displayName="Tabla13" ref="A15:I22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="40" tableBorderDxfId="41" totalsRowBorderDxfId="39">
+  <autoFilter ref="A15:I22" xr:uid="{64158E70-88CC-4494-8D53-DAEA07367FE6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:I21">
-    <sortCondition ref="A15:A21"/>
+    <sortCondition descending="1" ref="B15:B21"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3E3E5B6F-1D02-442B-A1F9-CDCE3CFAB250}" name="Depto" totalsRowLabel="Total" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{7A2D4DDA-2486-4E07-B7ED-34F359F9E5EA}" name="equipos" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4F967433-DCDD-46AA-B94C-11EC1ED85421}" name="red" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{C50F6649-EC1C-4FA0-983A-0763DB054875}" name="primer ip" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{81BAA048-E9C3-44C6-9961-BBBC4F722D02}" name="ultima ip" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{9259CB53-06A1-42B9-AA37-E9DF24F314FF}" name="broadcast" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{478B8208-98B7-4AAB-BFEE-144884CBF91E}" name="mascara" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{194918A2-3363-4CB5-9404-1FAF2D91E2DF}" name="cidr" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{92BA09CC-DCDF-4C16-9208-0A1251B9B862}" name="hosts" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Millares">
-      <calculatedColumnFormula>2^21-2</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{BE25B9C8-70B3-40AE-81F8-F6D881DE24AB}" name="Depto" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{4B2E8338-A61E-400F-8F38-66AE9A28B8DA}" name="equipos" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{46590A4E-6A6D-408E-9219-C1E909A20D86}" name="red" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{3404A1F1-31FE-44A7-9D2E-DAC1DED700C9}" name="primer ip" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{3BA2F3F0-E9C3-4EE4-9390-618398D77305}" name="ultima ip" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{1E87AAEE-C094-454B-9D51-F1C7DB068C72}" name="broadcast" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{8E409EFF-38FD-41BD-8BF4-984C9AD9EA4F}" name="mascara" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{EC2621B2-0346-4112-9EA9-8B3A3E745F55}" name="cidr" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{3532C1E4-F85A-44DB-A7EE-6BBB9DDCE435}" name="hosts" dataDxfId="30" dataCellStyle="Millares"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{48402BB6-D0E1-4799-9987-0E689A81D0E5}" name="Tabla1315" displayName="Tabla1315" ref="A24:I31" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+  <autoFilter ref="A24:I31" xr:uid="{48402BB6-D0E1-4799-9987-0E689A81D0E5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:I31">
+    <sortCondition ref="A24:A31"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{CCC18F72-05E4-46AD-9BBA-EA48E22C07B1}" name="Depto" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{F858718E-D60B-43A4-974F-20D33EA6E55E}" name="equipos" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{8B558A64-F841-4173-BF3C-43CA1DB94576}" name="red" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{D2617FB3-F57F-4073-95AD-72AD28B63B79}" name="primer ip" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{B415C030-B18F-4621-A87F-917748B66DB7}" name="ultima ip" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{FBDB8010-3C35-4BED-87E1-1AA5EB6D4440}" name="broadcast" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{02A4FEDE-2C07-4826-820A-4C521C70F6B0}" name="mascara" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{CB9DFA88-E81F-404C-BCA1-A24E7FC56EF8}" name="cidr" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{D0FD7066-CC59-4ED9-BCDC-5C54BCA1854B}" name="hosts" dataDxfId="14" dataCellStyle="Millares"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{80DC214D-BF32-4E63-A24B-5F0A75299DF8}" name="Tabla131516" displayName="Tabla131516" ref="A33:I40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A33:I40" xr:uid="{80DC214D-BF32-4E63-A24B-5F0A75299DF8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I40">
+    <sortCondition ref="A24:A31"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{080A64F5-DB14-4507-82A1-31D600E0C298}" name="Depto" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D652CF3F-89D2-4B1D-AFEE-D44B95424223}" name="equipos" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{2B6EBDC7-D582-4957-91DF-7E87EF3D5CE0}" name="red" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{F7F2BB0C-02DA-493E-8E04-6A7FBE91791A}" name="primer ip" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{963A97BC-ACAA-4E28-9EB3-15AFEE759EDD}" name="ultima ip" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{742A5C20-B6DE-4B7A-B49F-8E2232B359D6}" name="broadcast" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{FCD8B9C7-1AAA-44A7-867C-1B0BF9150249}" name="mascara" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{0EAE1073-9514-450C-ACEF-8A08DC097A52}" name="cidr" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{16C85F7F-4597-4E01-896D-4001A18058C9}" name="hosts" dataDxfId="0" dataCellStyle="Millares"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -5112,14 +6619,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{73257F07-4ABA-4F5B-9C87-723BAAEDB7D4}" name="Tabla8" displayName="Tabla8" ref="A7:H15">
   <autoFilter ref="A7:H15" xr:uid="{73257F07-4ABA-4F5B-9C87-723BAAEDB7D4}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FE44EF54-97E0-4BFA-8660-4CB2761305B0}" name="binario" totalsRowLabel="Total" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{C78E8F0E-6453-4852-A80F-C42105C34351}" name="red" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{550EC1FB-DA26-47EE-958E-08B135CD65E4}" name="primer ip" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{9C91AB55-BD0A-46C4-8B63-04B244F02EFC}" name="ultima ip" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{CE91EFF6-7A63-470A-A452-71F6AC70138D}" name="broadcast" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{67A6B74A-BA1B-4150-9AAA-AA003D4C4292}" name="mascara" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{E35FC235-F6A5-42C2-89A2-E480A24DE894}" name="cidr" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{B640069A-A80A-4C80-A629-2DE6F444924F}" name="hosts" totalsRowFunction="sum" dataDxfId="44" dataCellStyle="Millares">
+    <tableColumn id="1" xr3:uid="{FE44EF54-97E0-4BFA-8660-4CB2761305B0}" name="binario" totalsRowLabel="Total" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{C78E8F0E-6453-4852-A80F-C42105C34351}" name="red" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{550EC1FB-DA26-47EE-958E-08B135CD65E4}" name="primer ip" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{9C91AB55-BD0A-46C4-8B63-04B244F02EFC}" name="ultima ip" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{CE91EFF6-7A63-470A-A452-71F6AC70138D}" name="broadcast" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{67A6B74A-BA1B-4150-9AAA-AA003D4C4292}" name="mascara" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{E35FC235-F6A5-42C2-89A2-E480A24DE894}" name="cidr" dataDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{B640069A-A80A-4C80-A629-2DE6F444924F}" name="hosts" totalsRowFunction="sum" dataDxfId="76" dataCellStyle="Millares">
       <calculatedColumnFormula>2^21-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5131,14 +6638,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EE17664E-FCD6-42E2-8C1B-041504FEDD0B}" name="Tabla810" displayName="Tabla810" ref="A19:H23">
   <autoFilter ref="A19:H23" xr:uid="{EE17664E-FCD6-42E2-8C1B-041504FEDD0B}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{03C33E2E-494E-4B97-9BC8-DE93FAC921D2}" name="binario" totalsRowLabel="Total" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{822F987C-2FE7-4A01-AB81-0291CFF47D19}" name="red" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{F0FA4D4E-2736-4748-A30C-9DBA3DC77B3C}" name="primer ip" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{322533DE-A708-462F-A636-EB64E237628F}" name="ultima ip" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{B22E293B-AF7B-4D8A-B2A9-FBF9AC413BD5}" name="broadcast" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{5727992B-0264-494C-BFA0-AA68170523EE}" name="mascara" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{83196FCA-9747-4E3B-9D66-A19683EED906}" name="cidr" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{61DB8854-04EB-4C4B-B113-0A95C3A47654}" name="hosts" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Millares">
+    <tableColumn id="1" xr3:uid="{03C33E2E-494E-4B97-9BC8-DE93FAC921D2}" name="binario" totalsRowLabel="Total" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{822F987C-2FE7-4A01-AB81-0291CFF47D19}" name="red" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{F0FA4D4E-2736-4748-A30C-9DBA3DC77B3C}" name="primer ip" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{322533DE-A708-462F-A636-EB64E237628F}" name="ultima ip" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{B22E293B-AF7B-4D8A-B2A9-FBF9AC413BD5}" name="broadcast" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{5727992B-0264-494C-BFA0-AA68170523EE}" name="mascara" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{83196FCA-9747-4E3B-9D66-A19683EED906}" name="cidr" dataDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{61DB8854-04EB-4C4B-B113-0A95C3A47654}" name="hosts" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Millares">
       <calculatedColumnFormula>2^14-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5475,13 +6982,13 @@
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="180" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5489,17 +6996,17 @@
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="162"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="181"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="163"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="182"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -5539,7 +7046,7 @@
       <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="183" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5553,7 +7060,7 @@
       <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="165"/>
+      <c r="D8" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5562,7 +7069,7 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5595,16 +7102,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="188" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="E3" s="169" t="s">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="E3" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5747,11 +7254,11 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="169" t="s">
+      <c r="E11" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5859,7 +7366,7 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E11:G11"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
@@ -5913,10 +7420,10 @@
       <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="189" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="171"/>
+      <c r="J2" s="190"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -6037,10 +7544,10 @@
       <c r="G7" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="170" t="s">
+      <c r="I7" s="189" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="171"/>
+      <c r="J7" s="190"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -6135,10 +7642,10 @@
       <c r="G12" t="s">
         <v>163</v>
       </c>
-      <c r="I12" s="170" t="s">
+      <c r="I12" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="171"/>
+      <c r="J12" s="190"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -6286,33 +7793,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="189" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="171"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="190"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="170" t="s">
+      <c r="G1" s="189" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
       <c r="P1" s="108"/>
-      <c r="Q1" s="172" t="s">
+      <c r="Q1" s="191" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="171"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="190"/>
       <c r="V1" s="31"/>
       <c r="W1" s="103" t="s">
         <v>182</v>
@@ -6698,32 +8205,32 @@
       <c r="E6" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H6" s="173" t="s">
+      <c r="H6" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="175"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="194"/>
       <c r="P6" s="108"/>
-      <c r="Q6" s="174" t="s">
+      <c r="Q6" s="193" t="s">
         <v>184</v>
       </c>
-      <c r="R6" s="174"/>
+      <c r="R6" s="193"/>
       <c r="S6" s="96"/>
-      <c r="T6" s="169" t="s">
+      <c r="T6" s="188" t="s">
         <v>247</v>
       </c>
-      <c r="U6" s="169"/>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="169"/>
-      <c r="Y6" s="169"/>
-      <c r="Z6" s="169"/>
-      <c r="AA6" s="169"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="188"/>
+      <c r="X6" s="188"/>
+      <c r="Y6" s="188"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
       <c r="AB6" s="57" t="s">
         <v>184</v>
       </c>
@@ -6773,7 +8280,7 @@
       <c r="AB7" s="57">
         <v>128</v>
       </c>
-      <c r="AC7" s="195">
+      <c r="AC7" s="171">
         <v>16</v>
       </c>
     </row>
@@ -6827,10 +8334,10 @@
       <c r="Y8" s="77"/>
       <c r="Z8" s="77"/>
       <c r="AA8" s="77"/>
-      <c r="AB8" s="190">
+      <c r="AB8" s="166">
         <v>0</v>
       </c>
-      <c r="AC8" s="191">
+      <c r="AC8" s="167">
         <v>8</v>
       </c>
     </row>
@@ -7161,7 +8668,7 @@
       <c r="AB14" s="59">
         <v>172</v>
       </c>
-      <c r="AC14" s="194">
+      <c r="AC14" s="170">
         <v>16</v>
       </c>
     </row>
@@ -7267,10 +8774,10 @@
         <v>2</v>
       </c>
       <c r="AA16" s="77"/>
-      <c r="AB16" s="192" t="s">
+      <c r="AB16" s="168" t="s">
         <v>245</v>
       </c>
-      <c r="AC16" s="193" t="s">
+      <c r="AC16" s="169" t="s">
         <v>248</v>
       </c>
     </row>
@@ -7449,7 +8956,7 @@
     <mergeCell ref="T6:AA6"/>
     <mergeCell ref="Q6:R6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7485,53 +8992,53 @@
       <c r="A1" s="125" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="200" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176" t="s">
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176" t="s">
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200" t="s">
         <v>304</v>
       </c>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="200" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176" t="s">
+      <c r="C2" s="200"/>
+      <c r="D2" s="200" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176" t="s">
+      <c r="E2" s="200"/>
+      <c r="F2" s="200" t="s">
         <v>264</v>
       </c>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176" t="s">
+      <c r="G2" s="200"/>
+      <c r="H2" s="200" t="s">
         <v>265</v>
       </c>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176" t="s">
+      <c r="I2" s="200"/>
+      <c r="J2" s="200" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176" t="s">
+      <c r="K2" s="200"/>
+      <c r="L2" s="200" t="s">
         <v>305</v>
       </c>
-      <c r="M2" s="176"/>
+      <c r="M2" s="200"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="127" t="s">
@@ -7716,18 +9223,18 @@
       <c r="E7" s="120" t="s">
         <v>284</v>
       </c>
-      <c r="F7" s="178" t="s">
+      <c r="F7" s="196" t="s">
         <v>291</v>
       </c>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="178" t="s">
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="196" t="s">
         <v>291</v>
       </c>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="179"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="197"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="130" t="s">
@@ -7745,44 +9252,44 @@
       <c r="E8" s="132" t="s">
         <v>286</v>
       </c>
-      <c r="F8" s="180" t="s">
+      <c r="F8" s="198" t="s">
         <v>292</v>
       </c>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="180" t="s">
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="198" t="s">
         <v>292</v>
       </c>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="181"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="199"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="177">
+      <c r="B9" s="195">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177">
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177">
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="177"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="127" t="s">
@@ -7940,7 +9447,7 @@
       <c r="E15" s="145" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="183">
+      <c r="F15" s="159">
         <v>10255255255</v>
       </c>
       <c r="G15" s="138" t="s">
@@ -8013,7 +9520,7 @@
       <c r="E18" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="F18" s="184" t="s">
+      <c r="F18" s="160" t="s">
         <v>322</v>
       </c>
       <c r="G18" s="113" t="s">
@@ -8048,7 +9555,7 @@
       <c r="E19" s="144" t="s">
         <v>275</v>
       </c>
-      <c r="F19" s="185" t="s">
+      <c r="F19" s="161" t="s">
         <v>302</v>
       </c>
       <c r="G19" s="119" t="s">
@@ -8083,7 +9590,7 @@
       <c r="E20" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="F20" s="184" t="s">
+      <c r="F20" s="160" t="s">
         <v>324</v>
       </c>
       <c r="G20" s="113" t="s">
@@ -8118,7 +9625,7 @@
       <c r="E21" s="145" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="186" t="s">
+      <c r="F21" s="162" t="s">
         <v>325</v>
       </c>
       <c r="G21" s="138" t="s">
@@ -8191,7 +9698,7 @@
       <c r="E24" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="F24" s="187" t="s">
+      <c r="F24" s="163" t="s">
         <v>326</v>
       </c>
       <c r="G24" s="113" t="s">
@@ -8226,7 +9733,7 @@
       <c r="E25" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="F25" s="188" t="s">
+      <c r="F25" s="164" t="s">
         <v>303</v>
       </c>
       <c r="G25" s="119" t="s">
@@ -8261,7 +9768,7 @@
       <c r="E26" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="F26" s="187" t="s">
+      <c r="F26" s="163" t="s">
         <v>329</v>
       </c>
       <c r="G26" s="113" t="s">
@@ -8296,7 +9803,7 @@
       <c r="E27" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="F27" s="189">
+      <c r="F27" s="165">
         <v>192168255255</v>
       </c>
       <c r="G27" s="138" t="s">
@@ -8317,6 +9824,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
@@ -8327,14 +9840,8 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8363,15 +9870,15 @@
       <c r="A1" s="126" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="201" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8450,7 +9957,7 @@
         <f>32-Tabla6[[#This Row],[cidr = bits 1]]</f>
         <v>21</v>
       </c>
-      <c r="H5" s="197">
+      <c r="H5" s="172">
         <f>2^Tabla6[[#This Row],[H = bits 0]]-2</f>
         <v>2097150</v>
       </c>
@@ -8496,19 +10003,19 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="199" t="s">
+      <c r="A8" s="174" t="s">
         <v>371</v>
       </c>
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="174" t="s">
         <v>363</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="174" t="s">
         <v>364</v>
       </c>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="174" t="s">
         <v>398</v>
       </c>
-      <c r="E8" s="199" t="s">
+      <c r="E8" s="174" t="s">
         <v>366</v>
       </c>
       <c r="F8" s="83" t="s">
@@ -8517,25 +10024,25 @@
       <c r="G8" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="H8" s="198">
+      <c r="H8" s="173">
         <f>2^21-2</f>
         <v>2097150</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="199" t="s">
+      <c r="A9" s="174" t="s">
         <v>372</v>
       </c>
-      <c r="B9" s="199" t="s">
+      <c r="B9" s="174" t="s">
         <v>365</v>
       </c>
-      <c r="C9" s="199" t="s">
+      <c r="C9" s="174" t="s">
         <v>378</v>
       </c>
-      <c r="D9" s="199" t="s">
+      <c r="D9" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="E9" s="199" t="s">
+      <c r="E9" s="174" t="s">
         <v>391</v>
       </c>
       <c r="F9" s="83" t="s">
@@ -8544,25 +10051,25 @@
       <c r="G9" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="H9" s="198">
+      <c r="H9" s="173">
         <f t="shared" ref="H9:H15" si="0">2^21-2</f>
         <v>2097150</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="199" t="s">
+      <c r="A10" s="174" t="s">
         <v>373</v>
       </c>
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="174" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="199" t="s">
+      <c r="C10" s="174" t="s">
         <v>385</v>
       </c>
-      <c r="D10" s="199" t="s">
+      <c r="D10" s="174" t="s">
         <v>400</v>
       </c>
-      <c r="E10" s="199" t="s">
+      <c r="E10" s="174" t="s">
         <v>392</v>
       </c>
       <c r="F10" s="83" t="s">
@@ -8571,25 +10078,25 @@
       <c r="G10" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="173">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="174" t="s">
         <v>374</v>
       </c>
-      <c r="B11" s="199" t="s">
+      <c r="B11" s="174" t="s">
         <v>380</v>
       </c>
-      <c r="C11" s="199" t="s">
+      <c r="C11" s="174" t="s">
         <v>386</v>
       </c>
-      <c r="D11" s="199" t="s">
+      <c r="D11" s="174" t="s">
         <v>401</v>
       </c>
-      <c r="E11" s="199" t="s">
+      <c r="E11" s="174" t="s">
         <v>393</v>
       </c>
       <c r="F11" s="83" t="s">
@@ -8598,25 +10105,25 @@
       <c r="G11" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="H11" s="198">
+      <c r="H11" s="173">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="199" t="s">
+      <c r="A12" s="174" t="s">
         <v>375</v>
       </c>
-      <c r="B12" s="199" t="s">
+      <c r="B12" s="174" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="199" t="s">
+      <c r="C12" s="174" t="s">
         <v>387</v>
       </c>
-      <c r="D12" s="199" t="s">
+      <c r="D12" s="174" t="s">
         <v>402</v>
       </c>
-      <c r="E12" s="199" t="s">
+      <c r="E12" s="174" t="s">
         <v>395</v>
       </c>
       <c r="F12" s="83" t="s">
@@ -8625,25 +10132,25 @@
       <c r="G12" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="H12" s="198">
+      <c r="H12" s="173">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="199" t="s">
+      <c r="A13" s="174" t="s">
         <v>376</v>
       </c>
-      <c r="B13" s="199" t="s">
+      <c r="B13" s="174" t="s">
         <v>382</v>
       </c>
-      <c r="C13" s="199" t="s">
+      <c r="C13" s="174" t="s">
         <v>388</v>
       </c>
-      <c r="D13" s="199" t="s">
+      <c r="D13" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="E13" s="199" t="s">
+      <c r="E13" s="174" t="s">
         <v>396</v>
       </c>
       <c r="F13" s="83" t="s">
@@ -8652,25 +10159,25 @@
       <c r="G13" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="H13" s="198">
+      <c r="H13" s="173">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="199" t="s">
+      <c r="A14" s="174" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="199" t="s">
+      <c r="B14" s="174" t="s">
         <v>383</v>
       </c>
-      <c r="C14" s="199" t="s">
+      <c r="C14" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="D14" s="199" t="s">
+      <c r="D14" s="174" t="s">
         <v>404</v>
       </c>
-      <c r="E14" s="199" t="s">
+      <c r="E14" s="174" t="s">
         <v>397</v>
       </c>
       <c r="F14" s="83" t="s">
@@ -8679,25 +10186,25 @@
       <c r="G14" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="H14" s="198">
+      <c r="H14" s="173">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="199" t="s">
+      <c r="A15" s="174" t="s">
         <v>377</v>
       </c>
-      <c r="B15" s="199" t="s">
+      <c r="B15" s="174" t="s">
         <v>384</v>
       </c>
-      <c r="C15" s="199" t="s">
+      <c r="C15" s="174" t="s">
         <v>390</v>
       </c>
-      <c r="D15" s="199" t="s">
+      <c r="D15" s="174" t="s">
         <v>405</v>
       </c>
-      <c r="E15" s="199" t="s">
+      <c r="E15" s="174" t="s">
         <v>394</v>
       </c>
       <c r="F15" s="83" t="s">
@@ -8706,7 +10213,7 @@
       <c r="G15" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="H15" s="198">
+      <c r="H15" s="173">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
@@ -8733,7 +10240,7 @@
       <c r="G17">
         <v>14</v>
       </c>
-      <c r="H17" s="198">
+      <c r="H17" s="173">
         <f>2^G17-2</f>
         <v>16382</v>
       </c>
@@ -8779,19 +10286,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="199" t="s">
+      <c r="A20" s="174" t="s">
         <v>408</v>
       </c>
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="174" t="s">
         <v>411</v>
       </c>
-      <c r="C20" s="199" t="s">
+      <c r="C20" s="174" t="s">
         <v>415</v>
       </c>
-      <c r="D20" s="199" t="s">
+      <c r="D20" s="174" t="s">
         <v>424</v>
       </c>
-      <c r="E20" s="199" t="s">
+      <c r="E20" s="174" t="s">
         <v>420</v>
       </c>
       <c r="F20" s="83" t="s">
@@ -8800,25 +10307,25 @@
       <c r="G20" s="83" t="s">
         <v>407</v>
       </c>
-      <c r="H20" s="198">
+      <c r="H20" s="173">
         <f t="shared" ref="H20:H23" si="1">2^14-2</f>
         <v>16382</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="199" t="s">
+      <c r="A21" s="174" t="s">
         <v>409</v>
       </c>
-      <c r="B21" s="199" t="s">
+      <c r="B21" s="174" t="s">
         <v>412</v>
       </c>
-      <c r="C21" s="199" t="s">
+      <c r="C21" s="174" t="s">
         <v>416</v>
       </c>
-      <c r="D21" s="199" t="s">
+      <c r="D21" s="174" t="s">
         <v>425</v>
       </c>
-      <c r="E21" s="199" t="s">
+      <c r="E21" s="174" t="s">
         <v>421</v>
       </c>
       <c r="F21" s="83" t="s">
@@ -8827,25 +10334,25 @@
       <c r="G21" s="83" t="s">
         <v>407</v>
       </c>
-      <c r="H21" s="198">
+      <c r="H21" s="173">
         <f t="shared" si="1"/>
         <v>16382</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="199" t="s">
+      <c r="A22" s="174" t="s">
         <v>278</v>
       </c>
-      <c r="B22" s="199" t="s">
+      <c r="B22" s="174" t="s">
         <v>413</v>
       </c>
-      <c r="C22" s="199" t="s">
+      <c r="C22" s="174" t="s">
         <v>417</v>
       </c>
-      <c r="D22" s="199" t="s">
+      <c r="D22" s="174" t="s">
         <v>426</v>
       </c>
-      <c r="E22" s="199" t="s">
+      <c r="E22" s="174" t="s">
         <v>422</v>
       </c>
       <c r="F22" s="83" t="s">
@@ -8854,25 +10361,25 @@
       <c r="G22" s="83" t="s">
         <v>407</v>
       </c>
-      <c r="H22" s="198">
+      <c r="H22" s="173">
         <f t="shared" si="1"/>
         <v>16382</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="199" t="s">
+      <c r="A23" s="174" t="s">
         <v>410</v>
       </c>
-      <c r="B23" s="199" t="s">
+      <c r="B23" s="174" t="s">
         <v>414</v>
       </c>
-      <c r="C23" s="199" t="s">
+      <c r="C23" s="174" t="s">
         <v>418</v>
       </c>
-      <c r="D23" s="199" t="s">
+      <c r="D23" s="174" t="s">
         <v>427</v>
       </c>
-      <c r="E23" s="199" t="s">
+      <c r="E23" s="174" t="s">
         <v>423</v>
       </c>
       <c r="F23" s="83" t="s">
@@ -8881,35 +10388,35 @@
       <c r="G23" s="83" t="s">
         <v>407</v>
       </c>
-      <c r="H23" s="198">
+      <c r="H23" s="173">
         <f t="shared" si="1"/>
         <v>16382</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="199"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="199"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
       <c r="F24" s="83"/>
       <c r="G24" s="83"/>
-      <c r="H24" s="198"/>
+      <c r="H24" s="173"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="199" t="s">
+      <c r="A25" s="174" t="s">
         <v>245</v>
       </c>
-      <c r="B25" s="199" t="s">
+      <c r="B25" s="174" t="s">
         <v>428</v>
       </c>
-      <c r="C25" s="199" t="s">
+      <c r="C25" s="174" t="s">
         <v>429</v>
       </c>
-      <c r="D25" s="199" t="s">
+      <c r="D25" s="174" t="s">
         <v>430</v>
       </c>
-      <c r="E25" s="199" t="s">
+      <c r="E25" s="174" t="s">
         <v>431</v>
       </c>
       <c r="F25" s="83">
@@ -8918,27 +10425,27 @@
       <c r="G25" s="83">
         <v>5</v>
       </c>
-      <c r="H25" s="198">
+      <c r="H25" s="173">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="199"/>
-      <c r="B26" s="199" t="s">
+      <c r="A26" s="174"/>
+      <c r="B26" s="174" t="s">
         <v>465</v>
       </c>
-      <c r="C26" s="199" t="s">
+      <c r="C26" s="174" t="s">
         <v>466</v>
       </c>
-      <c r="D26" s="199" t="s">
+      <c r="D26" s="174" t="s">
         <v>465</v>
       </c>
-      <c r="E26" s="199" t="s">
+      <c r="E26" s="174" t="s">
         <v>466</v>
       </c>
       <c r="F26" s="83"/>
       <c r="G26" s="83"/>
-      <c r="H26" s="198"/>
+      <c r="H26" s="173"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -8967,210 +10474,210 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="199" t="s">
+      <c r="A28" s="174" t="s">
         <v>371</v>
       </c>
-      <c r="B28" s="199" t="s">
+      <c r="B28" s="174" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="199" t="s">
+      <c r="C28" s="174" t="s">
         <v>432</v>
       </c>
-      <c r="D28" s="199" t="s">
+      <c r="D28" s="174" t="s">
         <v>436</v>
       </c>
-      <c r="E28" s="199" t="s">
+      <c r="E28" s="174" t="s">
         <v>435</v>
       </c>
-      <c r="F28" s="200">
+      <c r="F28" s="175">
         <v>255255255224</v>
       </c>
       <c r="G28" s="83" t="s">
         <v>433</v>
       </c>
-      <c r="H28" s="198">
+      <c r="H28" s="173">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="199" t="s">
+      <c r="A29" s="174" t="s">
         <v>372</v>
       </c>
-      <c r="B29" s="199" t="s">
+      <c r="B29" s="174" t="s">
         <v>434</v>
       </c>
-      <c r="C29" s="199" t="s">
+      <c r="C29" s="174" t="s">
         <v>452</v>
       </c>
-      <c r="D29" s="199" t="s">
+      <c r="D29" s="174" t="s">
         <v>444</v>
       </c>
-      <c r="E29" s="199" t="s">
+      <c r="E29" s="174" t="s">
         <v>443</v>
       </c>
-      <c r="F29" s="200">
+      <c r="F29" s="175">
         <v>255255255224</v>
       </c>
       <c r="G29" s="83" t="s">
         <v>433</v>
       </c>
-      <c r="H29" s="198">
+      <c r="H29" s="173">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="174" t="s">
         <v>373</v>
       </c>
-      <c r="B30" s="199" t="s">
+      <c r="B30" s="174" t="s">
         <v>437</v>
       </c>
-      <c r="C30" s="199" t="s">
+      <c r="C30" s="174" t="s">
         <v>453</v>
       </c>
-      <c r="D30" s="199" t="s">
+      <c r="D30" s="174" t="s">
         <v>459</v>
       </c>
-      <c r="E30" s="199" t="s">
+      <c r="E30" s="174" t="s">
         <v>445</v>
       </c>
-      <c r="F30" s="200">
+      <c r="F30" s="175">
         <v>255255255224</v>
       </c>
       <c r="G30" s="83" t="s">
         <v>433</v>
       </c>
-      <c r="H30" s="198">
+      <c r="H30" s="173">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="199" t="s">
+      <c r="A31" s="174" t="s">
         <v>374</v>
       </c>
-      <c r="B31" s="199" t="s">
+      <c r="B31" s="174" t="s">
         <v>438</v>
       </c>
-      <c r="C31" s="199" t="s">
+      <c r="C31" s="174" t="s">
         <v>454</v>
       </c>
-      <c r="D31" s="199" t="s">
+      <c r="D31" s="174" t="s">
         <v>460</v>
       </c>
-      <c r="E31" s="199" t="s">
+      <c r="E31" s="174" t="s">
         <v>446</v>
       </c>
-      <c r="F31" s="200">
+      <c r="F31" s="175">
         <v>255255255224</v>
       </c>
       <c r="G31" s="83" t="s">
         <v>433</v>
       </c>
-      <c r="H31" s="198">
+      <c r="H31" s="173">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="199" t="s">
+      <c r="A32" s="174" t="s">
         <v>375</v>
       </c>
-      <c r="B32" s="199" t="s">
+      <c r="B32" s="174" t="s">
         <v>439</v>
       </c>
-      <c r="C32" s="199" t="s">
+      <c r="C32" s="174" t="s">
         <v>455</v>
       </c>
-      <c r="D32" s="199" t="s">
+      <c r="D32" s="174" t="s">
         <v>461</v>
       </c>
-      <c r="E32" s="199" t="s">
+      <c r="E32" s="174" t="s">
         <v>447</v>
       </c>
-      <c r="F32" s="200">
+      <c r="F32" s="175">
         <v>255255255224</v>
       </c>
       <c r="G32" s="83" t="s">
         <v>433</v>
       </c>
-      <c r="H32" s="198">
+      <c r="H32" s="173">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="199" t="s">
+      <c r="A33" s="174" t="s">
         <v>376</v>
       </c>
-      <c r="B33" s="199" t="s">
+      <c r="B33" s="174" t="s">
         <v>440</v>
       </c>
-      <c r="C33" s="199" t="s">
+      <c r="C33" s="174" t="s">
         <v>456</v>
       </c>
-      <c r="D33" s="199" t="s">
+      <c r="D33" s="174" t="s">
         <v>462</v>
       </c>
-      <c r="E33" s="199" t="s">
+      <c r="E33" s="174" t="s">
         <v>448</v>
       </c>
-      <c r="F33" s="200">
+      <c r="F33" s="175">
         <v>255255255224</v>
       </c>
       <c r="G33" s="83" t="s">
         <v>433</v>
       </c>
-      <c r="H33" s="198">
+      <c r="H33" s="173">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="199" t="s">
+      <c r="A34" s="174" t="s">
         <v>281</v>
       </c>
-      <c r="B34" s="199" t="s">
+      <c r="B34" s="174" t="s">
         <v>441</v>
       </c>
-      <c r="C34" s="199" t="s">
+      <c r="C34" s="174" t="s">
         <v>457</v>
       </c>
-      <c r="D34" s="199" t="s">
+      <c r="D34" s="174" t="s">
         <v>463</v>
       </c>
-      <c r="E34" s="199" t="s">
+      <c r="E34" s="174" t="s">
         <v>449</v>
       </c>
-      <c r="F34" s="200">
+      <c r="F34" s="175">
         <v>255255255224</v>
       </c>
       <c r="G34" s="83" t="s">
         <v>433</v>
       </c>
-      <c r="H34" s="198">
+      <c r="H34" s="173">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="199" t="s">
+      <c r="A35" s="174" t="s">
         <v>377</v>
       </c>
-      <c r="B35" s="199" t="s">
+      <c r="B35" s="174" t="s">
         <v>442</v>
       </c>
-      <c r="C35" s="199" t="s">
+      <c r="C35" s="174" t="s">
         <v>458</v>
       </c>
-      <c r="D35" s="199" t="s">
+      <c r="D35" s="174" t="s">
         <v>464</v>
       </c>
-      <c r="E35" s="199" t="s">
+      <c r="E35" s="174" t="s">
         <v>450</v>
       </c>
-      <c r="F35" s="200">
+      <c r="F35" s="175">
         <v>255255255224</v>
       </c>
       <c r="G35" s="83" t="s">
         <v>433</v>
       </c>
-      <c r="H35" s="198">
+      <c r="H35" s="173">
         <v>30</v>
       </c>
     </row>
@@ -9178,7 +10685,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="4">
     <tablePart r:id="rId1"/>
@@ -9191,32 +10698,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DD10AC-097D-4523-B531-6423B6A8BD52}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="126" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="201" t="s">
         <v>475</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
@@ -9274,7 +10784,7 @@
       <c r="E5" s="83"/>
       <c r="F5" s="83"/>
       <c r="G5" s="83"/>
-      <c r="H5" s="197"/>
+      <c r="H5" s="172"/>
       <c r="I5" s="83"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9321,386 +10831,1035 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="199" t="s">
+      <c r="A8" s="174" t="s">
         <v>262</v>
       </c>
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="174" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="174" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="174" t="s">
         <v>481</v>
       </c>
-      <c r="E8" s="199" t="s">
+      <c r="E8" s="174" t="s">
         <v>487</v>
       </c>
-      <c r="F8" s="199" t="s">
+      <c r="F8" s="174" t="s">
         <v>486</v>
       </c>
-      <c r="G8" s="200">
+      <c r="G8" s="175">
         <v>255255255128</v>
       </c>
       <c r="H8" s="83" t="s">
         <v>488</v>
       </c>
-      <c r="I8" s="198">
+      <c r="I8" s="173">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="199" t="s">
+      <c r="A9" s="174" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="199" t="s">
+      <c r="B9" s="174" t="s">
         <v>478</v>
       </c>
-      <c r="C9" s="199" t="s">
+      <c r="C9" s="174" t="s">
         <v>484</v>
       </c>
-      <c r="D9" s="199" t="s">
+      <c r="D9" s="174" t="s">
         <v>485</v>
       </c>
-      <c r="E9" s="199" t="s">
+      <c r="E9" s="174" t="s">
         <v>493</v>
       </c>
-      <c r="F9" s="199" t="s">
+      <c r="F9" s="174" t="s">
         <v>492</v>
       </c>
-      <c r="G9" s="200">
+      <c r="G9" s="175">
         <v>255255255128</v>
       </c>
       <c r="H9" s="83" t="s">
         <v>488</v>
       </c>
-      <c r="I9" s="198">
+      <c r="I9" s="173">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="199" t="s">
+      <c r="A10" s="174" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="174" t="s">
         <v>480</v>
       </c>
-      <c r="C10" s="199" t="s">
+      <c r="C10" s="174" t="s">
         <v>490</v>
       </c>
-      <c r="D10" s="199" t="s">
+      <c r="D10" s="174" t="s">
         <v>491</v>
       </c>
-      <c r="E10" s="199" t="s">
+      <c r="E10" s="174" t="s">
         <v>496</v>
       </c>
-      <c r="F10" s="199" t="s">
+      <c r="F10" s="174" t="s">
         <v>495</v>
       </c>
-      <c r="G10" s="200">
+      <c r="G10" s="175">
         <v>255255255192</v>
       </c>
       <c r="H10" s="83" t="s">
         <v>489</v>
       </c>
-      <c r="I10" s="198">
+      <c r="I10" s="173">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="174" t="s">
         <v>245</v>
       </c>
-      <c r="B11" s="199" t="s">
+      <c r="B11" s="174" t="s">
         <v>479</v>
       </c>
-      <c r="C11" s="199" t="s">
+      <c r="C11" s="174" t="s">
         <v>494</v>
       </c>
-      <c r="D11" s="199" t="s">
+      <c r="D11" s="174" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="199" t="s">
+      <c r="E11" s="174" t="s">
         <v>500</v>
       </c>
-      <c r="F11" s="199" t="s">
+      <c r="F11" s="174" t="s">
         <v>499</v>
       </c>
-      <c r="G11" s="200">
+      <c r="G11" s="175">
         <v>255255255224</v>
       </c>
       <c r="H11" s="83" t="s">
         <v>433</v>
       </c>
-      <c r="I11" s="198">
+      <c r="I11" s="173">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="199" t="s">
+      <c r="A12" s="174" t="s">
         <v>246</v>
       </c>
-      <c r="B12" s="199" t="s">
+      <c r="B12" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="199" t="s">
+      <c r="C12" s="174" t="s">
         <v>497</v>
       </c>
-      <c r="D12" s="199" t="s">
+      <c r="D12" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="E12" s="199" t="s">
+      <c r="E12" s="174" t="s">
         <v>504</v>
       </c>
-      <c r="F12" s="199" t="s">
+      <c r="F12" s="174" t="s">
         <v>502</v>
       </c>
-      <c r="G12" s="200">
+      <c r="G12" s="175">
         <v>255255255240</v>
       </c>
       <c r="H12" s="83" t="s">
         <v>451</v>
       </c>
-      <c r="I12" s="198">
+      <c r="I12" s="173">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
-      <c r="B13" s="199"/>
-      <c r="C13" s="199" t="s">
+      <c r="A13" s="174"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174" t="s">
         <v>503</v>
       </c>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
       <c r="G13" s="83"/>
       <c r="H13" s="83"/>
-      <c r="I13" s="198"/>
+      <c r="I13" s="173"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="199"/>
-      <c r="B14" s="199"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
       <c r="G14" s="83"/>
       <c r="H14" s="83"/>
-      <c r="I14" s="198"/>
+      <c r="I14" s="173"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="202" t="s">
         <v>473</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="202" t="s">
         <v>477</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="202" t="s">
         <v>306</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="202" t="s">
         <v>358</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="202" t="s">
         <v>359</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="202" t="s">
         <v>360</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="202" t="s">
         <v>349</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="202" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="203" t="s">
+        <v>505</v>
+      </c>
+      <c r="B16" s="203" t="s">
+        <v>509</v>
+      </c>
+      <c r="C16" s="203" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="203" t="s">
+        <v>510</v>
+      </c>
+      <c r="E16" s="203" t="s">
+        <v>515</v>
+      </c>
+      <c r="F16" s="203" t="s">
+        <v>514</v>
+      </c>
+      <c r="G16" s="205" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="205">
+        <v>24</v>
+      </c>
+      <c r="I16" s="206">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="203" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="203" t="s">
+        <v>511</v>
+      </c>
+      <c r="D17" s="203" t="s">
+        <v>513</v>
+      </c>
+      <c r="E17" s="203" t="s">
+        <v>518</v>
+      </c>
+      <c r="F17" s="203" t="s">
+        <v>517</v>
+      </c>
+      <c r="G17" s="204">
+        <v>255255255128</v>
+      </c>
+      <c r="H17" s="205">
+        <v>25</v>
+      </c>
+      <c r="I17" s="206">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="203" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" s="203" t="s">
+        <v>478</v>
+      </c>
+      <c r="C18" s="203" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18" s="203" t="s">
+        <v>519</v>
+      </c>
+      <c r="E18" s="203" t="s">
+        <v>521</v>
+      </c>
+      <c r="F18" s="203" t="s">
+        <v>520</v>
+      </c>
+      <c r="G18" s="204">
+        <v>255255255128</v>
+      </c>
+      <c r="H18" s="205">
+        <v>25</v>
+      </c>
+      <c r="I18" s="206">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="203" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="203" t="s">
+        <v>508</v>
+      </c>
+      <c r="C19" s="203" t="s">
+        <v>512</v>
+      </c>
+      <c r="D19" s="203" t="s">
+        <v>525</v>
+      </c>
+      <c r="E19" s="203" t="s">
+        <v>524</v>
+      </c>
+      <c r="F19" s="203" t="s">
+        <v>523</v>
+      </c>
+      <c r="G19" s="204">
+        <v>255255255192</v>
+      </c>
+      <c r="H19" s="205">
+        <v>26</v>
+      </c>
+      <c r="I19" s="206">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="203" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="203" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" s="203" t="s">
+        <v>522</v>
+      </c>
+      <c r="D20" s="203" t="s">
+        <v>526</v>
+      </c>
+      <c r="E20" s="203" t="s">
+        <v>529</v>
+      </c>
+      <c r="F20" s="203" t="s">
+        <v>528</v>
+      </c>
+      <c r="G20" s="204">
+        <v>255255255192</v>
+      </c>
+      <c r="H20" s="205">
+        <v>26</v>
+      </c>
+      <c r="I20" s="206">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="207" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="199" t="s">
+      <c r="B21" s="207" t="s">
+        <v>507</v>
+      </c>
+      <c r="C21" s="207" t="s">
+        <v>527</v>
+      </c>
+      <c r="D21" s="207" t="s">
+        <v>530</v>
+      </c>
+      <c r="E21" s="207" t="s">
+        <v>533</v>
+      </c>
+      <c r="F21" s="207" t="s">
+        <v>532</v>
+      </c>
+      <c r="G21" s="210">
+        <v>255255255224</v>
+      </c>
+      <c r="H21" s="208">
+        <v>27</v>
+      </c>
+      <c r="I21" s="209">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="207"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="207" t="s">
+        <v>531</v>
+      </c>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="209"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="158"/>
+      <c r="D23" s="176"/>
+      <c r="M23">
+        <v>11110000</v>
+      </c>
+      <c r="N23">
+        <v>11100000</v>
+      </c>
+      <c r="O23">
+        <v>11000000</v>
+      </c>
+      <c r="P23">
+        <v>10000000</v>
+      </c>
+      <c r="Q23" s="174" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="202" t="s">
+        <v>473</v>
+      </c>
+      <c r="B24" s="202" t="s">
+        <v>477</v>
+      </c>
+      <c r="C24" s="202" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="202" t="s">
+        <v>358</v>
+      </c>
+      <c r="E24" s="202" t="s">
+        <v>359</v>
+      </c>
+      <c r="F24" s="202" t="s">
+        <v>360</v>
+      </c>
+      <c r="G24" s="202" t="s">
+        <v>361</v>
+      </c>
+      <c r="H24" s="202" t="s">
+        <v>349</v>
+      </c>
+      <c r="I24" s="202" t="s">
+        <v>353</v>
+      </c>
+      <c r="L24" t="s">
+        <v>565</v>
+      </c>
+      <c r="M24" s="109">
+        <v>28</v>
+      </c>
+      <c r="N24" s="226">
+        <v>27</v>
+      </c>
+      <c r="O24" s="226">
+        <v>26</v>
+      </c>
+      <c r="P24" s="226">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="226">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="203" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="203" t="s">
+        <v>507</v>
+      </c>
+      <c r="C25" s="203" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="203" t="s">
+        <v>510</v>
+      </c>
+      <c r="E25" s="203" t="s">
+        <v>536</v>
+      </c>
+      <c r="F25" s="203" t="s">
+        <v>535</v>
+      </c>
+      <c r="G25" s="204">
+        <v>255255255224</v>
+      </c>
+      <c r="H25" s="205">
+        <v>27</v>
+      </c>
+      <c r="I25" s="206">
+        <v>30</v>
+      </c>
+      <c r="K25" s="225" t="s">
+        <v>324</v>
+      </c>
+      <c r="L25" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="M25" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="N25" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="O25" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="P25" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q25" s="228" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="203" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="211" t="s">
+        <v>534</v>
+      </c>
+      <c r="D26" s="211" t="s">
+        <v>537</v>
+      </c>
+      <c r="E26" s="211" t="s">
+        <v>539</v>
+      </c>
+      <c r="F26" s="211" t="s">
+        <v>540</v>
+      </c>
+      <c r="G26" s="212">
+        <v>255255255128</v>
+      </c>
+      <c r="H26" s="213">
+        <v>25</v>
+      </c>
+      <c r="I26" s="214">
+        <v>126</v>
+      </c>
+      <c r="K26" s="231" t="s">
+        <v>534</v>
+      </c>
+      <c r="L26" s="232" t="s">
+        <v>566</v>
+      </c>
+      <c r="M26" s="174" t="s">
+        <v>340</v>
+      </c>
+      <c r="N26" s="174" t="s">
+        <v>340</v>
+      </c>
+      <c r="O26" s="229" t="s">
+        <v>275</v>
+      </c>
+      <c r="P26" s="229" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q26" s="229" t="s">
+        <v>275</v>
+      </c>
+      <c r="R26" s="227"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="203" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="203" t="s">
+        <v>506</v>
+      </c>
+      <c r="C27" s="211" t="s">
+        <v>538</v>
+      </c>
+      <c r="D27" s="211" t="s">
+        <v>542</v>
+      </c>
+      <c r="E27" s="211" t="s">
+        <v>544</v>
+      </c>
+      <c r="F27" s="211" t="s">
+        <v>543</v>
+      </c>
+      <c r="G27" s="212">
+        <v>255255255192</v>
+      </c>
+      <c r="H27" s="213">
+        <v>26</v>
+      </c>
+      <c r="I27" s="214">
+        <v>62</v>
+      </c>
+      <c r="K27" s="231" t="s">
+        <v>538</v>
+      </c>
+      <c r="L27" s="232" t="s">
+        <v>563</v>
+      </c>
+      <c r="M27" s="174" t="s">
+        <v>563</v>
+      </c>
+      <c r="N27" s="174" t="s">
+        <v>563</v>
+      </c>
+      <c r="O27" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="P27" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q27" s="233" t="s">
+        <v>275</v>
+      </c>
+      <c r="R27" s="227"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="203" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="203" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="211" t="s">
+        <v>541</v>
+      </c>
+      <c r="D28" s="211" t="s">
+        <v>545</v>
+      </c>
+      <c r="E28" s="211" t="s">
+        <v>548</v>
+      </c>
+      <c r="F28" s="211" t="s">
+        <v>547</v>
+      </c>
+      <c r="G28" s="212">
+        <v>255255255192</v>
+      </c>
+      <c r="H28" s="213">
+        <v>26</v>
+      </c>
+      <c r="I28" s="214">
+        <v>62</v>
+      </c>
+      <c r="K28" s="231" t="s">
+        <v>541</v>
+      </c>
+      <c r="L28" s="232" t="s">
+        <v>564</v>
+      </c>
+      <c r="M28" s="174" t="s">
+        <v>564</v>
+      </c>
+      <c r="N28" s="174" t="s">
+        <v>564</v>
+      </c>
+      <c r="O28" s="233" t="s">
+        <v>280</v>
+      </c>
+      <c r="P28" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q28" s="229" t="s">
+        <v>275</v>
+      </c>
+      <c r="R28" s="227"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="203" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" s="203" t="s">
         <v>478</v>
       </c>
-      <c r="C16" s="199" t="s">
-        <v>287</v>
-      </c>
-      <c r="D16" s="199" t="s">
-        <v>481</v>
-      </c>
-      <c r="E16" s="199" t="s">
-        <v>487</v>
-      </c>
-      <c r="F16" s="199" t="s">
-        <v>486</v>
-      </c>
-      <c r="G16" s="200">
+      <c r="C29" s="211" t="s">
+        <v>546</v>
+      </c>
+      <c r="D29" s="211" t="s">
+        <v>549</v>
+      </c>
+      <c r="E29" s="211" t="s">
+        <v>552</v>
+      </c>
+      <c r="F29" s="211" t="s">
+        <v>553</v>
+      </c>
+      <c r="G29" s="212">
         <v>255255255128</v>
       </c>
-      <c r="H16" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="I16" s="198">
+      <c r="H29" s="213">
+        <v>25</v>
+      </c>
+      <c r="I29" s="214">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="199" t="s">
+      <c r="K29" s="231" t="s">
+        <v>546</v>
+      </c>
+      <c r="L29" s="232" t="s">
+        <v>340</v>
+      </c>
+      <c r="M29" s="174" t="s">
+        <v>340</v>
+      </c>
+      <c r="N29" s="174" t="s">
+        <v>340</v>
+      </c>
+      <c r="O29" s="233" t="s">
+        <v>275</v>
+      </c>
+      <c r="P29" s="229" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q29" s="229" t="s">
+        <v>275</v>
+      </c>
+      <c r="R29" s="227"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="207" t="s">
+        <v>505</v>
+      </c>
+      <c r="B30" s="207" t="s">
+        <v>509</v>
+      </c>
+      <c r="C30" s="215" t="s">
+        <v>550</v>
+      </c>
+      <c r="D30" s="215" t="s">
+        <v>551</v>
+      </c>
+      <c r="E30" s="215" t="s">
+        <v>533</v>
+      </c>
+      <c r="F30" s="215" t="s">
+        <v>532</v>
+      </c>
+      <c r="G30" s="216" t="s">
+        <v>303</v>
+      </c>
+      <c r="H30" s="216">
+        <v>24</v>
+      </c>
+      <c r="I30" s="217">
+        <v>254</v>
+      </c>
+      <c r="K30" s="231" t="s">
+        <v>550</v>
+      </c>
+      <c r="L30" s="232" t="s">
+        <v>563</v>
+      </c>
+      <c r="M30" s="174" t="s">
+        <v>563</v>
+      </c>
+      <c r="N30" s="174" t="s">
+        <v>563</v>
+      </c>
+      <c r="O30" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="P30" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q30" s="233" t="s">
+        <v>275</v>
+      </c>
+      <c r="R30" s="227"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="207"/>
+      <c r="B31" s="207"/>
+      <c r="C31" s="207" t="s">
+        <v>531</v>
+      </c>
+      <c r="D31" s="207"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="209"/>
+      <c r="K31" s="225" t="s">
+        <v>531</v>
+      </c>
+      <c r="L31" s="230" t="s">
+        <v>563</v>
+      </c>
+      <c r="M31" s="174" t="s">
+        <v>563</v>
+      </c>
+      <c r="N31" s="174" t="s">
+        <v>563</v>
+      </c>
+      <c r="O31" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="P31" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q31" s="229" t="s">
+        <v>275</v>
+      </c>
+      <c r="R31" s="227"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="202" t="s">
+        <v>473</v>
+      </c>
+      <c r="B33" s="202" t="s">
+        <v>477</v>
+      </c>
+      <c r="C33" s="202" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="202" t="s">
+        <v>358</v>
+      </c>
+      <c r="E33" s="202" t="s">
+        <v>359</v>
+      </c>
+      <c r="F33" s="202" t="s">
+        <v>360</v>
+      </c>
+      <c r="G33" s="202" t="s">
+        <v>361</v>
+      </c>
+      <c r="H33" s="202" t="s">
+        <v>349</v>
+      </c>
+      <c r="I33" s="202" t="s">
+        <v>353</v>
+      </c>
+      <c r="K33" s="231"/>
+      <c r="L33" s="232"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="174"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="203" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="203" t="s">
+        <v>507</v>
+      </c>
+      <c r="C34" s="203" t="s">
+        <v>324</v>
+      </c>
+      <c r="D34" s="203" t="s">
+        <v>510</v>
+      </c>
+      <c r="E34" s="203" t="s">
+        <v>536</v>
+      </c>
+      <c r="F34" s="203" t="s">
+        <v>535</v>
+      </c>
+      <c r="G34" s="204">
+        <v>255255255224</v>
+      </c>
+      <c r="H34" s="205">
+        <v>27</v>
+      </c>
+      <c r="I34" s="206">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="203" t="s">
         <v>262</v>
       </c>
-      <c r="B17" s="199" t="s">
+      <c r="B35" s="203" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="199" t="s">
-        <v>484</v>
-      </c>
-      <c r="D17" s="199" t="s">
-        <v>485</v>
-      </c>
-      <c r="E17" s="199" t="s">
-        <v>493</v>
-      </c>
-      <c r="F17" s="199" t="s">
-        <v>492</v>
-      </c>
-      <c r="G17" s="200">
+      <c r="C35" s="218" t="s">
+        <v>554</v>
+      </c>
+      <c r="D35" s="218" t="s">
+        <v>555</v>
+      </c>
+      <c r="E35" s="218" t="s">
+        <v>515</v>
+      </c>
+      <c r="F35" s="218" t="s">
+        <v>514</v>
+      </c>
+      <c r="G35" s="219">
         <v>255255255128</v>
       </c>
-      <c r="H17" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="I17" s="198">
+      <c r="H35" s="220">
+        <v>25</v>
+      </c>
+      <c r="I35" s="221">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="199" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="203" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="199" t="s">
-        <v>479</v>
-      </c>
-      <c r="C18" s="199" t="s">
-        <v>490</v>
-      </c>
-      <c r="D18" s="199" t="s">
-        <v>491</v>
-      </c>
-      <c r="E18" s="199" t="s">
-        <v>507</v>
-      </c>
-      <c r="F18" s="199" t="s">
+      <c r="B36" s="203" t="s">
         <v>506</v>
       </c>
-      <c r="G18" s="200">
-        <v>255255255224</v>
-      </c>
-      <c r="H18" s="83" t="s">
-        <v>433</v>
-      </c>
-      <c r="I18" s="198">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="199" t="s">
+      <c r="C36" s="218" t="s">
+        <v>511</v>
+      </c>
+      <c r="D36" s="218" t="s">
+        <v>513</v>
+      </c>
+      <c r="E36" s="218" t="s">
+        <v>558</v>
+      </c>
+      <c r="F36" s="218" t="s">
+        <v>557</v>
+      </c>
+      <c r="G36" s="219">
+        <v>255255255192</v>
+      </c>
+      <c r="H36" s="220">
+        <v>26</v>
+      </c>
+      <c r="I36" s="221">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="203" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="199" t="s">
-        <v>480</v>
-      </c>
-      <c r="C19" s="199" t="s">
+      <c r="B37" s="203" t="s">
+        <v>508</v>
+      </c>
+      <c r="C37" s="218" t="s">
+        <v>556</v>
+      </c>
+      <c r="D37" s="218" t="s">
+        <v>559</v>
+      </c>
+      <c r="E37" s="218" t="s">
+        <v>518</v>
+      </c>
+      <c r="F37" s="218" t="s">
+        <v>517</v>
+      </c>
+      <c r="G37" s="219">
+        <v>255255255192</v>
+      </c>
+      <c r="H37" s="220">
+        <v>26</v>
+      </c>
+      <c r="I37" s="221">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="203" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" s="203" t="s">
+        <v>478</v>
+      </c>
+      <c r="C38" s="218" t="s">
+        <v>516</v>
+      </c>
+      <c r="D38" s="218" t="s">
+        <v>519</v>
+      </c>
+      <c r="E38" s="218" t="s">
+        <v>521</v>
+      </c>
+      <c r="F38" s="218" t="s">
+        <v>520</v>
+      </c>
+      <c r="G38" s="219">
+        <v>255255255128</v>
+      </c>
+      <c r="H38" s="220">
+        <v>25</v>
+      </c>
+      <c r="I38" s="221">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="207" t="s">
         <v>505</v>
       </c>
-      <c r="D19" s="199" t="s">
-        <v>508</v>
-      </c>
-      <c r="E19" s="199" t="s">
-        <v>496</v>
-      </c>
-      <c r="F19" s="199" t="s">
-        <v>495</v>
-      </c>
-      <c r="G19" s="200">
-        <v>255255255192</v>
-      </c>
-      <c r="H19" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="I19" s="198">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="199" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="199" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="199" t="s">
-        <v>497</v>
-      </c>
-      <c r="D20" s="199" t="s">
-        <v>501</v>
-      </c>
-      <c r="E20" s="199" t="s">
-        <v>504</v>
-      </c>
-      <c r="F20" s="199" t="s">
-        <v>502</v>
-      </c>
-      <c r="G20" s="200">
-        <v>255255255240</v>
-      </c>
-      <c r="H20" s="83" t="s">
-        <v>451</v>
-      </c>
-      <c r="I20" s="198">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="199"/>
-      <c r="B21" s="199"/>
-      <c r="C21" s="199" t="s">
-        <v>503</v>
-      </c>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="198"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="182"/>
-      <c r="D23" s="201"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="202"/>
-      <c r="D24" s="201"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="182"/>
-      <c r="D25" s="201"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="182"/>
+      <c r="B39" s="207" t="s">
+        <v>509</v>
+      </c>
+      <c r="C39" s="222" t="s">
+        <v>512</v>
+      </c>
+      <c r="D39" s="222" t="s">
+        <v>525</v>
+      </c>
+      <c r="E39" s="222" t="s">
+        <v>560</v>
+      </c>
+      <c r="F39" s="222" t="s">
+        <v>561</v>
+      </c>
+      <c r="G39" s="223" t="s">
+        <v>303</v>
+      </c>
+      <c r="H39" s="223">
+        <v>24</v>
+      </c>
+      <c r="I39" s="224">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="207"/>
+      <c r="B40" s="207"/>
+      <c r="C40" s="207" t="s">
+        <v>562</v>
+      </c>
+      <c r="D40" s="207"/>
+      <c r="E40" s="207"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="210"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="209"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:I21">
+    <sortCondition ref="A15:A21"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/protocols-suite.xlsx
+++ b/docs/protocols-suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A89C32D-D7DE-418B-B940-3551BB6DBC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A058693B-AD77-429C-AB42-0F890EB6FB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="IPv4" sheetId="5" r:id="rId5"/>
     <sheet name="Classic" sheetId="6" r:id="rId6"/>
     <sheet name="VLSM" sheetId="7" r:id="rId7"/>
+    <sheet name="IPv6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="614">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -3447,15 +3448,154 @@
   </si>
   <si>
     <t>10000000</t>
+  </si>
+  <si>
+    <t>Global Address</t>
+  </si>
+  <si>
+    <t>SN ID</t>
+  </si>
+  <si>
+    <t>Interface ID</t>
+  </si>
+  <si>
+    <t>2001:</t>
+  </si>
+  <si>
+    <t>0DB6:</t>
+  </si>
+  <si>
+    <t>ACAD:</t>
+  </si>
+  <si>
+    <t>0001:</t>
+  </si>
+  <si>
+    <t>0000:</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>/64</t>
+  </si>
+  <si>
+    <t>Reglas IPv6</t>
+  </si>
+  <si>
+    <t>ceros izq.</t>
+  </si>
+  <si>
+    <t>DB6:</t>
+  </si>
+  <si>
+    <t>1:</t>
+  </si>
+  <si>
+    <t>0:</t>
+  </si>
+  <si>
+    <t>sin resumir</t>
+  </si>
+  <si>
+    <t>conjunto 0</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>2001:db6:acad:1::1</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Link-Local</t>
+  </si>
+  <si>
+    <t>Unique-Local</t>
+  </si>
+  <si>
+    <t>Anycast</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>Equivalencia</t>
+  </si>
+  <si>
+    <t>3FFF</t>
+  </si>
+  <si>
+    <t>WAN Enrutable</t>
+  </si>
+  <si>
+    <t>Publicas IPv4</t>
+  </si>
+  <si>
+    <t>FE80</t>
+  </si>
+  <si>
+    <t>FEBF</t>
+  </si>
+  <si>
+    <t>LAN No enrutable</t>
+  </si>
+  <si>
+    <t>APIPA</t>
+  </si>
+  <si>
+    <t>FC00</t>
+  </si>
+  <si>
+    <t>FDFF</t>
+  </si>
+  <si>
+    <t>LAN Enrutable</t>
+  </si>
+  <si>
+    <t>Privadas IPv4</t>
+  </si>
+  <si>
+    <t>FF00</t>
+  </si>
+  <si>
+    <t>FFFF</t>
+  </si>
+  <si>
+    <t>Multicast IPv4</t>
+  </si>
+  <si>
+    <t>Transmision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.00000000000000E+00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -4217,7 +4357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4645,80 +4785,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4798,6 +4866,88 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5137,13 +5287,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -5182,6 +5325,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -5538,13 +5688,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -5585,53 +5728,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -5988,13 +6089,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -6008,6 +6102,62 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -6476,28 +6626,28 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{64158E70-88CC-4494-8D53-DAEA07367FE6}" name="Tabla13" displayName="Tabla13" ref="A15:I22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="40" tableBorderDxfId="41" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{64158E70-88CC-4494-8D53-DAEA07367FE6}" name="Tabla13" displayName="Tabla13" ref="A15:I22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="A15:I22" xr:uid="{64158E70-88CC-4494-8D53-DAEA07367FE6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:I21">
     <sortCondition descending="1" ref="B15:B21"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BE25B9C8-70B3-40AE-81F8-F6D881DE24AB}" name="Depto" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{4B2E8338-A61E-400F-8F38-66AE9A28B8DA}" name="equipos" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{46590A4E-6A6D-408E-9219-C1E909A20D86}" name="red" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{3404A1F1-31FE-44A7-9D2E-DAC1DED700C9}" name="primer ip" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{3BA2F3F0-E9C3-4EE4-9390-618398D77305}" name="ultima ip" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{1E87AAEE-C094-454B-9D51-F1C7DB068C72}" name="broadcast" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{8E409EFF-38FD-41BD-8BF4-984C9AD9EA4F}" name="mascara" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{EC2621B2-0346-4112-9EA9-8B3A3E745F55}" name="cidr" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{3532C1E4-F85A-44DB-A7EE-6BBB9DDCE435}" name="hosts" dataDxfId="30" dataCellStyle="Millares"/>
+    <tableColumn id="1" xr3:uid="{BE25B9C8-70B3-40AE-81F8-F6D881DE24AB}" name="Depto" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{4B2E8338-A61E-400F-8F38-66AE9A28B8DA}" name="equipos" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{46590A4E-6A6D-408E-9219-C1E909A20D86}" name="red" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{3404A1F1-31FE-44A7-9D2E-DAC1DED700C9}" name="primer ip" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{3BA2F3F0-E9C3-4EE4-9390-618398D77305}" name="ultima ip" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{1E87AAEE-C094-454B-9D51-F1C7DB068C72}" name="broadcast" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{8E409EFF-38FD-41BD-8BF4-984C9AD9EA4F}" name="mascara" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{EC2621B2-0346-4112-9EA9-8B3A3E745F55}" name="cidr" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{3532C1E4-F85A-44DB-A7EE-6BBB9DDCE435}" name="hosts" dataDxfId="28" dataCellStyle="Millares"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{48402BB6-D0E1-4799-9987-0E689A81D0E5}" name="Tabla1315" displayName="Tabla1315" ref="A24:I31" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{48402BB6-D0E1-4799-9987-0E689A81D0E5}" name="Tabla1315" displayName="Tabla1315" ref="A24:I31" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A24:I31" xr:uid="{48402BB6-D0E1-4799-9987-0E689A81D0E5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:I31">
     <sortCondition ref="A24:A31"/>
@@ -6518,7 +6668,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{80DC214D-BF32-4E63-A24B-5F0A75299DF8}" name="Tabla131516" displayName="Tabla131516" ref="A33:I40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{80DC214D-BF32-4E63-A24B-5F0A75299DF8}" name="Tabla131516" displayName="Tabla131516" ref="A33:I40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A33:I40" xr:uid="{80DC214D-BF32-4E63-A24B-5F0A75299DF8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I40">
     <sortCondition ref="A24:A31"/>
@@ -6982,13 +7132,13 @@
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="180" t="s">
+      <c r="D2" s="213" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6996,17 +7146,17 @@
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="181"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="214"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="182"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="215"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -7046,7 +7196,7 @@
       <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="183" t="s">
+      <c r="D7" s="216" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7060,7 +7210,7 @@
       <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="184"/>
+      <c r="D8" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7102,16 +7252,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="E3" s="188" t="s">
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="E3" s="221" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -7254,11 +7404,11 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="188" t="s">
+      <c r="E11" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
+      <c r="F11" s="221"/>
+      <c r="G11" s="221"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -7420,10 +7570,10 @@
       <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="189" t="s">
+      <c r="I2" s="222" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="190"/>
+      <c r="J2" s="223"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -7544,10 +7694,10 @@
       <c r="G7" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="189" t="s">
+      <c r="I7" s="222" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="190"/>
+      <c r="J7" s="223"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -7642,10 +7792,10 @@
       <c r="G12" t="s">
         <v>163</v>
       </c>
-      <c r="I12" s="189" t="s">
+      <c r="I12" s="222" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="190"/>
+      <c r="J12" s="223"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -7793,33 +7943,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="222" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="190"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="223"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="189" t="s">
+      <c r="G1" s="222" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
       <c r="P1" s="108"/>
-      <c r="Q1" s="191" t="s">
+      <c r="Q1" s="224" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="190"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="224"/>
+      <c r="U1" s="223"/>
       <c r="V1" s="31"/>
       <c r="W1" s="103" t="s">
         <v>182</v>
@@ -8205,32 +8355,32 @@
       <c r="E6" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H6" s="192" t="s">
+      <c r="H6" s="225" t="s">
         <v>239</v>
       </c>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="194"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="226"/>
+      <c r="N6" s="226"/>
+      <c r="O6" s="227"/>
       <c r="P6" s="108"/>
-      <c r="Q6" s="193" t="s">
+      <c r="Q6" s="226" t="s">
         <v>184</v>
       </c>
-      <c r="R6" s="193"/>
+      <c r="R6" s="226"/>
       <c r="S6" s="96"/>
-      <c r="T6" s="188" t="s">
+      <c r="T6" s="221" t="s">
         <v>247</v>
       </c>
-      <c r="U6" s="188"/>
-      <c r="V6" s="188"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="188"/>
-      <c r="Y6" s="188"/>
-      <c r="Z6" s="188"/>
-      <c r="AA6" s="188"/>
+      <c r="U6" s="221"/>
+      <c r="V6" s="221"/>
+      <c r="W6" s="221"/>
+      <c r="X6" s="221"/>
+      <c r="Y6" s="221"/>
+      <c r="Z6" s="221"/>
+      <c r="AA6" s="221"/>
       <c r="AB6" s="57" t="s">
         <v>184</v>
       </c>
@@ -8965,11 +9115,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2E4EBA-F545-46F4-A4E2-4B686F5E50D1}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8992,53 +9142,53 @@
       <c r="A1" s="125" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="228" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200" t="s">
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200" t="s">
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228" t="s">
         <v>304</v>
       </c>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="228" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200" t="s">
+      <c r="C2" s="228"/>
+      <c r="D2" s="228" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200" t="s">
+      <c r="E2" s="228"/>
+      <c r="F2" s="228" t="s">
         <v>264</v>
       </c>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200" t="s">
+      <c r="G2" s="228"/>
+      <c r="H2" s="228" t="s">
         <v>265</v>
       </c>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200" t="s">
+      <c r="I2" s="228"/>
+      <c r="J2" s="228" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200" t="s">
+      <c r="K2" s="228"/>
+      <c r="L2" s="228" t="s">
         <v>305</v>
       </c>
-      <c r="M2" s="200"/>
+      <c r="M2" s="228"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="127" t="s">
@@ -9223,18 +9373,18 @@
       <c r="E7" s="120" t="s">
         <v>284</v>
       </c>
-      <c r="F7" s="196" t="s">
+      <c r="F7" s="230" t="s">
         <v>291</v>
       </c>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="196" t="s">
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="230" t="s">
         <v>291</v>
       </c>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="197"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="231"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="130" t="s">
@@ -9252,44 +9402,44 @@
       <c r="E8" s="132" t="s">
         <v>286</v>
       </c>
-      <c r="F8" s="198" t="s">
+      <c r="F8" s="232" t="s">
         <v>292</v>
       </c>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="198" t="s">
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="232" t="s">
         <v>292</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="199"/>
+      <c r="K8" s="232"/>
+      <c r="L8" s="232"/>
+      <c r="M8" s="233"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="195">
+      <c r="B9" s="229">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195">
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195">
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="229"/>
+      <c r="J9" s="229">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="K9" s="195"/>
-      <c r="L9" s="195"/>
-      <c r="M9" s="195"/>
+      <c r="K9" s="229"/>
+      <c r="L9" s="229"/>
+      <c r="M9" s="229"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="127" t="s">
@@ -9824,12 +9974,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
@@ -9840,6 +9984,12 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9870,15 +10020,15 @@
       <c r="A1" s="126" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="234" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -10700,7 +10850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DD10AC-097D-4523-B531-6423B6A8BD52}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K33" sqref="K33:N33"/>
     </sheetView>
   </sheetViews>
@@ -10718,15 +10868,15 @@
       <c r="A1" s="126" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="234" t="s">
         <v>475</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
@@ -11000,220 +11150,220 @@
       <c r="I14" s="173"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="202" t="s">
+      <c r="A15" s="178" t="s">
         <v>473</v>
       </c>
-      <c r="B15" s="202" t="s">
+      <c r="B15" s="178" t="s">
         <v>477</v>
       </c>
-      <c r="C15" s="202" t="s">
+      <c r="C15" s="178" t="s">
         <v>306</v>
       </c>
-      <c r="D15" s="202" t="s">
+      <c r="D15" s="178" t="s">
         <v>358</v>
       </c>
-      <c r="E15" s="202" t="s">
+      <c r="E15" s="178" t="s">
         <v>359</v>
       </c>
-      <c r="F15" s="202" t="s">
+      <c r="F15" s="178" t="s">
         <v>360</v>
       </c>
-      <c r="G15" s="202" t="s">
+      <c r="G15" s="178" t="s">
         <v>361</v>
       </c>
-      <c r="H15" s="202" t="s">
+      <c r="H15" s="178" t="s">
         <v>349</v>
       </c>
-      <c r="I15" s="202" t="s">
+      <c r="I15" s="178" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="203" t="s">
+      <c r="A16" s="179" t="s">
         <v>505</v>
       </c>
-      <c r="B16" s="203" t="s">
+      <c r="B16" s="179" t="s">
         <v>509</v>
       </c>
-      <c r="C16" s="203" t="s">
+      <c r="C16" s="179" t="s">
         <v>324</v>
       </c>
-      <c r="D16" s="203" t="s">
+      <c r="D16" s="179" t="s">
         <v>510</v>
       </c>
-      <c r="E16" s="203" t="s">
+      <c r="E16" s="179" t="s">
         <v>515</v>
       </c>
-      <c r="F16" s="203" t="s">
+      <c r="F16" s="179" t="s">
         <v>514</v>
       </c>
-      <c r="G16" s="205" t="s">
+      <c r="G16" s="181" t="s">
         <v>303</v>
       </c>
-      <c r="H16" s="205">
+      <c r="H16" s="181">
         <v>24</v>
       </c>
-      <c r="I16" s="206">
+      <c r="I16" s="182">
         <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="179" t="s">
         <v>262</v>
       </c>
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="203" t="s">
+      <c r="C17" s="179" t="s">
         <v>511</v>
       </c>
-      <c r="D17" s="203" t="s">
+      <c r="D17" s="179" t="s">
         <v>513</v>
       </c>
-      <c r="E17" s="203" t="s">
+      <c r="E17" s="179" t="s">
         <v>518</v>
       </c>
-      <c r="F17" s="203" t="s">
+      <c r="F17" s="179" t="s">
         <v>517</v>
       </c>
-      <c r="G17" s="204">
+      <c r="G17" s="180">
         <v>255255255128</v>
       </c>
-      <c r="H17" s="205">
+      <c r="H17" s="181">
         <v>25</v>
       </c>
-      <c r="I17" s="206">
+      <c r="I17" s="182">
         <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="179" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="203" t="s">
+      <c r="B18" s="179" t="s">
         <v>478</v>
       </c>
-      <c r="C18" s="203" t="s">
+      <c r="C18" s="179" t="s">
         <v>516</v>
       </c>
-      <c r="D18" s="203" t="s">
+      <c r="D18" s="179" t="s">
         <v>519</v>
       </c>
-      <c r="E18" s="203" t="s">
+      <c r="E18" s="179" t="s">
         <v>521</v>
       </c>
-      <c r="F18" s="203" t="s">
+      <c r="F18" s="179" t="s">
         <v>520</v>
       </c>
-      <c r="G18" s="204">
+      <c r="G18" s="180">
         <v>255255255128</v>
       </c>
-      <c r="H18" s="205">
+      <c r="H18" s="181">
         <v>25</v>
       </c>
-      <c r="I18" s="206">
+      <c r="I18" s="182">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="203" t="s">
+      <c r="A19" s="179" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="203" t="s">
+      <c r="B19" s="179" t="s">
         <v>508</v>
       </c>
-      <c r="C19" s="203" t="s">
+      <c r="C19" s="179" t="s">
         <v>512</v>
       </c>
-      <c r="D19" s="203" t="s">
+      <c r="D19" s="179" t="s">
         <v>525</v>
       </c>
-      <c r="E19" s="203" t="s">
+      <c r="E19" s="179" t="s">
         <v>524</v>
       </c>
-      <c r="F19" s="203" t="s">
+      <c r="F19" s="179" t="s">
         <v>523</v>
       </c>
-      <c r="G19" s="204">
+      <c r="G19" s="180">
         <v>255255255192</v>
       </c>
-      <c r="H19" s="205">
+      <c r="H19" s="181">
         <v>26</v>
       </c>
-      <c r="I19" s="206">
+      <c r="I19" s="182">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="203" t="s">
+      <c r="A20" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="203" t="s">
+      <c r="B20" s="179" t="s">
         <v>506</v>
       </c>
-      <c r="C20" s="203" t="s">
+      <c r="C20" s="179" t="s">
         <v>522</v>
       </c>
-      <c r="D20" s="203" t="s">
+      <c r="D20" s="179" t="s">
         <v>526</v>
       </c>
-      <c r="E20" s="203" t="s">
+      <c r="E20" s="179" t="s">
         <v>529</v>
       </c>
-      <c r="F20" s="203" t="s">
+      <c r="F20" s="179" t="s">
         <v>528</v>
       </c>
-      <c r="G20" s="204">
+      <c r="G20" s="180">
         <v>255255255192</v>
       </c>
-      <c r="H20" s="205">
+      <c r="H20" s="181">
         <v>26</v>
       </c>
-      <c r="I20" s="206">
+      <c r="I20" s="182">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="183" t="s">
         <v>248</v>
       </c>
-      <c r="B21" s="207" t="s">
+      <c r="B21" s="183" t="s">
         <v>507</v>
       </c>
-      <c r="C21" s="207" t="s">
+      <c r="C21" s="183" t="s">
         <v>527</v>
       </c>
-      <c r="D21" s="207" t="s">
+      <c r="D21" s="183" t="s">
         <v>530</v>
       </c>
-      <c r="E21" s="207" t="s">
+      <c r="E21" s="183" t="s">
         <v>533</v>
       </c>
-      <c r="F21" s="207" t="s">
+      <c r="F21" s="183" t="s">
         <v>532</v>
       </c>
-      <c r="G21" s="210">
+      <c r="G21" s="186">
         <v>255255255224</v>
       </c>
-      <c r="H21" s="208">
+      <c r="H21" s="184">
         <v>27</v>
       </c>
-      <c r="I21" s="209">
+      <c r="I21" s="185">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="207"/>
-      <c r="B22" s="207"/>
-      <c r="C22" s="207" t="s">
+      <c r="A22" s="183"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183" t="s">
         <v>531</v>
       </c>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="209"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="185"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C23" s="158"/>
@@ -11235,31 +11385,31 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="202" t="s">
+      <c r="A24" s="178" t="s">
         <v>473</v>
       </c>
-      <c r="B24" s="202" t="s">
+      <c r="B24" s="178" t="s">
         <v>477</v>
       </c>
-      <c r="C24" s="202" t="s">
+      <c r="C24" s="178" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="202" t="s">
+      <c r="D24" s="178" t="s">
         <v>358</v>
       </c>
-      <c r="E24" s="202" t="s">
+      <c r="E24" s="178" t="s">
         <v>359</v>
       </c>
-      <c r="F24" s="202" t="s">
+      <c r="F24" s="178" t="s">
         <v>360</v>
       </c>
-      <c r="G24" s="202" t="s">
+      <c r="G24" s="178" t="s">
         <v>361</v>
       </c>
-      <c r="H24" s="202" t="s">
+      <c r="H24" s="178" t="s">
         <v>349</v>
       </c>
-      <c r="I24" s="202" t="s">
+      <c r="I24" s="178" t="s">
         <v>353</v>
       </c>
       <c r="L24" t="s">
@@ -11268,101 +11418,101 @@
       <c r="M24" s="109">
         <v>28</v>
       </c>
-      <c r="N24" s="226">
+      <c r="N24" s="202">
         <v>27</v>
       </c>
-      <c r="O24" s="226">
+      <c r="O24" s="202">
         <v>26</v>
       </c>
-      <c r="P24" s="226">
+      <c r="P24" s="202">
         <v>25</v>
       </c>
-      <c r="Q24" s="226">
+      <c r="Q24" s="202">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="203" t="s">
+      <c r="A25" s="179" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="203" t="s">
+      <c r="B25" s="179" t="s">
         <v>507</v>
       </c>
-      <c r="C25" s="203" t="s">
+      <c r="C25" s="179" t="s">
         <v>324</v>
       </c>
-      <c r="D25" s="203" t="s">
+      <c r="D25" s="179" t="s">
         <v>510</v>
       </c>
-      <c r="E25" s="203" t="s">
+      <c r="E25" s="179" t="s">
         <v>536</v>
       </c>
-      <c r="F25" s="203" t="s">
+      <c r="F25" s="179" t="s">
         <v>535</v>
       </c>
-      <c r="G25" s="204">
+      <c r="G25" s="180">
         <v>255255255224</v>
       </c>
-      <c r="H25" s="205">
+      <c r="H25" s="181">
         <v>27</v>
       </c>
-      <c r="I25" s="206">
+      <c r="I25" s="182">
         <v>30</v>
       </c>
-      <c r="K25" s="225" t="s">
+      <c r="K25" s="201" t="s">
         <v>324</v>
       </c>
-      <c r="L25" s="228" t="s">
+      <c r="L25" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="M25" s="228" t="s">
+      <c r="M25" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="N25" s="228" t="s">
+      <c r="N25" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="O25" s="228" t="s">
+      <c r="O25" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="P25" s="228" t="s">
+      <c r="P25" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="Q25" s="228" t="s">
+      <c r="Q25" s="204" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="203" t="s">
+      <c r="A26" s="179" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="203" t="s">
+      <c r="B26" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="211" t="s">
+      <c r="C26" s="187" t="s">
         <v>534</v>
       </c>
-      <c r="D26" s="211" t="s">
+      <c r="D26" s="187" t="s">
         <v>537</v>
       </c>
-      <c r="E26" s="211" t="s">
+      <c r="E26" s="187" t="s">
         <v>539</v>
       </c>
-      <c r="F26" s="211" t="s">
+      <c r="F26" s="187" t="s">
         <v>540</v>
       </c>
-      <c r="G26" s="212">
+      <c r="G26" s="188">
         <v>255255255128</v>
       </c>
-      <c r="H26" s="213">
+      <c r="H26" s="189">
         <v>25</v>
       </c>
-      <c r="I26" s="214">
+      <c r="I26" s="190">
         <v>126</v>
       </c>
-      <c r="K26" s="231" t="s">
+      <c r="K26" s="207" t="s">
         <v>534</v>
       </c>
-      <c r="L26" s="232" t="s">
+      <c r="L26" s="208" t="s">
         <v>566</v>
       </c>
       <c r="M26" s="174" t="s">
@@ -11371,49 +11521,49 @@
       <c r="N26" s="174" t="s">
         <v>340</v>
       </c>
-      <c r="O26" s="229" t="s">
+      <c r="O26" s="205" t="s">
         <v>275</v>
       </c>
-      <c r="P26" s="229" t="s">
+      <c r="P26" s="205" t="s">
         <v>275</v>
       </c>
-      <c r="Q26" s="229" t="s">
+      <c r="Q26" s="205" t="s">
         <v>275</v>
       </c>
-      <c r="R26" s="227"/>
+      <c r="R26" s="203"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="203" t="s">
+      <c r="A27" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="203" t="s">
+      <c r="B27" s="179" t="s">
         <v>506</v>
       </c>
-      <c r="C27" s="211" t="s">
+      <c r="C27" s="187" t="s">
         <v>538</v>
       </c>
-      <c r="D27" s="211" t="s">
+      <c r="D27" s="187" t="s">
         <v>542</v>
       </c>
-      <c r="E27" s="211" t="s">
+      <c r="E27" s="187" t="s">
         <v>544</v>
       </c>
-      <c r="F27" s="211" t="s">
+      <c r="F27" s="187" t="s">
         <v>543</v>
       </c>
-      <c r="G27" s="212">
+      <c r="G27" s="188">
         <v>255255255192</v>
       </c>
-      <c r="H27" s="213">
+      <c r="H27" s="189">
         <v>26</v>
       </c>
-      <c r="I27" s="214">
+      <c r="I27" s="190">
         <v>62</v>
       </c>
-      <c r="K27" s="231" t="s">
+      <c r="K27" s="207" t="s">
         <v>538</v>
       </c>
-      <c r="L27" s="232" t="s">
+      <c r="L27" s="208" t="s">
         <v>563</v>
       </c>
       <c r="M27" s="174" t="s">
@@ -11422,49 +11572,49 @@
       <c r="N27" s="174" t="s">
         <v>563</v>
       </c>
-      <c r="O27" s="233" t="s">
+      <c r="O27" s="209" t="s">
         <v>567</v>
       </c>
-      <c r="P27" s="233" t="s">
+      <c r="P27" s="209" t="s">
         <v>567</v>
       </c>
-      <c r="Q27" s="233" t="s">
+      <c r="Q27" s="209" t="s">
         <v>275</v>
       </c>
-      <c r="R27" s="227"/>
+      <c r="R27" s="203"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="203" t="s">
+      <c r="A28" s="179" t="s">
         <v>263</v>
       </c>
-      <c r="B28" s="203" t="s">
+      <c r="B28" s="179" t="s">
         <v>508</v>
       </c>
-      <c r="C28" s="211" t="s">
+      <c r="C28" s="187" t="s">
         <v>541</v>
       </c>
-      <c r="D28" s="211" t="s">
+      <c r="D28" s="187" t="s">
         <v>545</v>
       </c>
-      <c r="E28" s="211" t="s">
+      <c r="E28" s="187" t="s">
         <v>548</v>
       </c>
-      <c r="F28" s="211" t="s">
+      <c r="F28" s="187" t="s">
         <v>547</v>
       </c>
-      <c r="G28" s="212">
+      <c r="G28" s="188">
         <v>255255255192</v>
       </c>
-      <c r="H28" s="213">
+      <c r="H28" s="189">
         <v>26</v>
       </c>
-      <c r="I28" s="214">
+      <c r="I28" s="190">
         <v>62</v>
       </c>
-      <c r="K28" s="231" t="s">
+      <c r="K28" s="207" t="s">
         <v>541</v>
       </c>
-      <c r="L28" s="232" t="s">
+      <c r="L28" s="208" t="s">
         <v>564</v>
       </c>
       <c r="M28" s="174" t="s">
@@ -11473,49 +11623,49 @@
       <c r="N28" s="174" t="s">
         <v>564</v>
       </c>
-      <c r="O28" s="233" t="s">
+      <c r="O28" s="209" t="s">
         <v>280</v>
       </c>
-      <c r="P28" s="233" t="s">
+      <c r="P28" s="209" t="s">
         <v>567</v>
       </c>
-      <c r="Q28" s="229" t="s">
+      <c r="Q28" s="205" t="s">
         <v>275</v>
       </c>
-      <c r="R28" s="227"/>
+      <c r="R28" s="203"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="203" t="s">
+      <c r="A29" s="179" t="s">
         <v>246</v>
       </c>
-      <c r="B29" s="203" t="s">
+      <c r="B29" s="179" t="s">
         <v>478</v>
       </c>
-      <c r="C29" s="211" t="s">
+      <c r="C29" s="187" t="s">
         <v>546</v>
       </c>
-      <c r="D29" s="211" t="s">
+      <c r="D29" s="187" t="s">
         <v>549</v>
       </c>
-      <c r="E29" s="211" t="s">
+      <c r="E29" s="187" t="s">
         <v>552</v>
       </c>
-      <c r="F29" s="211" t="s">
+      <c r="F29" s="187" t="s">
         <v>553</v>
       </c>
-      <c r="G29" s="212">
+      <c r="G29" s="188">
         <v>255255255128</v>
       </c>
-      <c r="H29" s="213">
+      <c r="H29" s="189">
         <v>25</v>
       </c>
-      <c r="I29" s="214">
+      <c r="I29" s="190">
         <v>126</v>
       </c>
-      <c r="K29" s="231" t="s">
+      <c r="K29" s="207" t="s">
         <v>546</v>
       </c>
-      <c r="L29" s="232" t="s">
+      <c r="L29" s="208" t="s">
         <v>340</v>
       </c>
       <c r="M29" s="174" t="s">
@@ -11524,49 +11674,49 @@
       <c r="N29" s="174" t="s">
         <v>340</v>
       </c>
-      <c r="O29" s="233" t="s">
+      <c r="O29" s="209" t="s">
         <v>275</v>
       </c>
-      <c r="P29" s="229" t="s">
+      <c r="P29" s="205" t="s">
         <v>275</v>
       </c>
-      <c r="Q29" s="229" t="s">
+      <c r="Q29" s="205" t="s">
         <v>275</v>
       </c>
-      <c r="R29" s="227"/>
+      <c r="R29" s="203"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="207" t="s">
+      <c r="A30" s="183" t="s">
         <v>505</v>
       </c>
-      <c r="B30" s="207" t="s">
+      <c r="B30" s="183" t="s">
         <v>509</v>
       </c>
-      <c r="C30" s="215" t="s">
+      <c r="C30" s="191" t="s">
         <v>550</v>
       </c>
-      <c r="D30" s="215" t="s">
+      <c r="D30" s="191" t="s">
         <v>551</v>
       </c>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="191" t="s">
         <v>533</v>
       </c>
-      <c r="F30" s="215" t="s">
+      <c r="F30" s="191" t="s">
         <v>532</v>
       </c>
-      <c r="G30" s="216" t="s">
+      <c r="G30" s="192" t="s">
         <v>303</v>
       </c>
-      <c r="H30" s="216">
+      <c r="H30" s="192">
         <v>24</v>
       </c>
-      <c r="I30" s="217">
+      <c r="I30" s="193">
         <v>254</v>
       </c>
-      <c r="K30" s="231" t="s">
+      <c r="K30" s="207" t="s">
         <v>550</v>
       </c>
-      <c r="L30" s="232" t="s">
+      <c r="L30" s="208" t="s">
         <v>563</v>
       </c>
       <c r="M30" s="174" t="s">
@@ -11575,33 +11725,33 @@
       <c r="N30" s="174" t="s">
         <v>563</v>
       </c>
-      <c r="O30" s="233" t="s">
+      <c r="O30" s="209" t="s">
         <v>567</v>
       </c>
-      <c r="P30" s="233" t="s">
+      <c r="P30" s="209" t="s">
         <v>567</v>
       </c>
-      <c r="Q30" s="233" t="s">
+      <c r="Q30" s="209" t="s">
         <v>275</v>
       </c>
-      <c r="R30" s="227"/>
+      <c r="R30" s="203"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="207"/>
-      <c r="B31" s="207"/>
-      <c r="C31" s="207" t="s">
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183" t="s">
         <v>531</v>
       </c>
-      <c r="D31" s="207"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="209"/>
-      <c r="K31" s="225" t="s">
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="185"/>
+      <c r="K31" s="201" t="s">
         <v>531</v>
       </c>
-      <c r="L31" s="230" t="s">
+      <c r="L31" s="206" t="s">
         <v>563</v>
       </c>
       <c r="M31" s="174" t="s">
@@ -11610,240 +11760,240 @@
       <c r="N31" s="174" t="s">
         <v>563</v>
       </c>
-      <c r="O31" s="233" t="s">
+      <c r="O31" s="209" t="s">
         <v>567</v>
       </c>
-      <c r="P31" s="233" t="s">
+      <c r="P31" s="209" t="s">
         <v>567</v>
       </c>
-      <c r="Q31" s="229" t="s">
+      <c r="Q31" s="205" t="s">
         <v>275</v>
       </c>
-      <c r="R31" s="227"/>
+      <c r="R31" s="203"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K32" s="58"/>
       <c r="L32" s="58"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="202" t="s">
+      <c r="A33" s="178" t="s">
         <v>473</v>
       </c>
-      <c r="B33" s="202" t="s">
+      <c r="B33" s="178" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="202" t="s">
+      <c r="C33" s="178" t="s">
         <v>306</v>
       </c>
-      <c r="D33" s="202" t="s">
+      <c r="D33" s="178" t="s">
         <v>358</v>
       </c>
-      <c r="E33" s="202" t="s">
+      <c r="E33" s="178" t="s">
         <v>359</v>
       </c>
-      <c r="F33" s="202" t="s">
+      <c r="F33" s="178" t="s">
         <v>360</v>
       </c>
-      <c r="G33" s="202" t="s">
+      <c r="G33" s="178" t="s">
         <v>361</v>
       </c>
-      <c r="H33" s="202" t="s">
+      <c r="H33" s="178" t="s">
         <v>349</v>
       </c>
-      <c r="I33" s="202" t="s">
+      <c r="I33" s="178" t="s">
         <v>353</v>
       </c>
-      <c r="K33" s="231"/>
-      <c r="L33" s="232"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="208"/>
       <c r="M33" s="174"/>
       <c r="N33" s="174"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="203" t="s">
+      <c r="A34" s="179" t="s">
         <v>248</v>
       </c>
-      <c r="B34" s="203" t="s">
+      <c r="B34" s="179" t="s">
         <v>507</v>
       </c>
-      <c r="C34" s="203" t="s">
+      <c r="C34" s="179" t="s">
         <v>324</v>
       </c>
-      <c r="D34" s="203" t="s">
+      <c r="D34" s="179" t="s">
         <v>510</v>
       </c>
-      <c r="E34" s="203" t="s">
+      <c r="E34" s="179" t="s">
         <v>536</v>
       </c>
-      <c r="F34" s="203" t="s">
+      <c r="F34" s="179" t="s">
         <v>535</v>
       </c>
-      <c r="G34" s="204">
+      <c r="G34" s="180">
         <v>255255255224</v>
       </c>
-      <c r="H34" s="205">
+      <c r="H34" s="181">
         <v>27</v>
       </c>
-      <c r="I34" s="206">
+      <c r="I34" s="182">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="203" t="s">
+      <c r="A35" s="179" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="203" t="s">
+      <c r="B35" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="218" t="s">
+      <c r="C35" s="194" t="s">
         <v>554</v>
       </c>
-      <c r="D35" s="218" t="s">
+      <c r="D35" s="194" t="s">
         <v>555</v>
       </c>
-      <c r="E35" s="218" t="s">
+      <c r="E35" s="194" t="s">
         <v>515</v>
       </c>
-      <c r="F35" s="218" t="s">
+      <c r="F35" s="194" t="s">
         <v>514</v>
       </c>
-      <c r="G35" s="219">
+      <c r="G35" s="195">
         <v>255255255128</v>
       </c>
-      <c r="H35" s="220">
+      <c r="H35" s="196">
         <v>25</v>
       </c>
-      <c r="I35" s="221">
+      <c r="I35" s="197">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="203" t="s">
+      <c r="A36" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="B36" s="203" t="s">
+      <c r="B36" s="179" t="s">
         <v>506</v>
       </c>
-      <c r="C36" s="218" t="s">
+      <c r="C36" s="194" t="s">
         <v>511</v>
       </c>
-      <c r="D36" s="218" t="s">
+      <c r="D36" s="194" t="s">
         <v>513</v>
       </c>
-      <c r="E36" s="218" t="s">
+      <c r="E36" s="194" t="s">
         <v>558</v>
       </c>
-      <c r="F36" s="218" t="s">
+      <c r="F36" s="194" t="s">
         <v>557</v>
       </c>
-      <c r="G36" s="219">
+      <c r="G36" s="195">
         <v>255255255192</v>
       </c>
-      <c r="H36" s="220">
+      <c r="H36" s="196">
         <v>26</v>
       </c>
-      <c r="I36" s="221">
+      <c r="I36" s="197">
         <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="203" t="s">
+      <c r="A37" s="179" t="s">
         <v>263</v>
       </c>
-      <c r="B37" s="203" t="s">
+      <c r="B37" s="179" t="s">
         <v>508</v>
       </c>
-      <c r="C37" s="218" t="s">
+      <c r="C37" s="194" t="s">
         <v>556</v>
       </c>
-      <c r="D37" s="218" t="s">
+      <c r="D37" s="194" t="s">
         <v>559</v>
       </c>
-      <c r="E37" s="218" t="s">
+      <c r="E37" s="194" t="s">
         <v>518</v>
       </c>
-      <c r="F37" s="218" t="s">
+      <c r="F37" s="194" t="s">
         <v>517</v>
       </c>
-      <c r="G37" s="219">
+      <c r="G37" s="195">
         <v>255255255192</v>
       </c>
-      <c r="H37" s="220">
+      <c r="H37" s="196">
         <v>26</v>
       </c>
-      <c r="I37" s="221">
+      <c r="I37" s="197">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="203" t="s">
+      <c r="A38" s="179" t="s">
         <v>246</v>
       </c>
-      <c r="B38" s="203" t="s">
+      <c r="B38" s="179" t="s">
         <v>478</v>
       </c>
-      <c r="C38" s="218" t="s">
+      <c r="C38" s="194" t="s">
         <v>516</v>
       </c>
-      <c r="D38" s="218" t="s">
+      <c r="D38" s="194" t="s">
         <v>519</v>
       </c>
-      <c r="E38" s="218" t="s">
+      <c r="E38" s="194" t="s">
         <v>521</v>
       </c>
-      <c r="F38" s="218" t="s">
+      <c r="F38" s="194" t="s">
         <v>520</v>
       </c>
-      <c r="G38" s="219">
+      <c r="G38" s="195">
         <v>255255255128</v>
       </c>
-      <c r="H38" s="220">
+      <c r="H38" s="196">
         <v>25</v>
       </c>
-      <c r="I38" s="221">
+      <c r="I38" s="197">
         <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="207" t="s">
+      <c r="A39" s="183" t="s">
         <v>505</v>
       </c>
-      <c r="B39" s="207" t="s">
+      <c r="B39" s="183" t="s">
         <v>509</v>
       </c>
-      <c r="C39" s="222" t="s">
+      <c r="C39" s="198" t="s">
         <v>512</v>
       </c>
-      <c r="D39" s="222" t="s">
+      <c r="D39" s="198" t="s">
         <v>525</v>
       </c>
-      <c r="E39" s="222" t="s">
+      <c r="E39" s="198" t="s">
         <v>560</v>
       </c>
-      <c r="F39" s="222" t="s">
+      <c r="F39" s="198" t="s">
         <v>561</v>
       </c>
-      <c r="G39" s="223" t="s">
+      <c r="G39" s="199" t="s">
         <v>303</v>
       </c>
-      <c r="H39" s="223">
+      <c r="H39" s="199">
         <v>24</v>
       </c>
-      <c r="I39" s="224">
+      <c r="I39" s="200">
         <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="207"/>
-      <c r="B40" s="207"/>
-      <c r="C40" s="207" t="s">
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183" t="s">
         <v>562</v>
       </c>
-      <c r="D40" s="207"/>
-      <c r="E40" s="207"/>
-      <c r="F40" s="207"/>
-      <c r="G40" s="210"/>
-      <c r="H40" s="208"/>
-      <c r="I40" s="209"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="184"/>
+      <c r="I40" s="185"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:I21">
@@ -11862,4 +12012,358 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BFE413-6567-4A3B-BA4C-0009554AB6BA}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" s="221" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" s="221" t="s">
+        <v>570</v>
+      </c>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L1" t="s">
+        <v>589</v>
+      </c>
+      <c r="M1" t="s">
+        <v>594</v>
+      </c>
+      <c r="N1" t="s">
+        <v>595</v>
+      </c>
+      <c r="O1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P1" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>572</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" s="203" t="s">
+        <v>574</v>
+      </c>
+      <c r="F2" s="203" t="s">
+        <v>575</v>
+      </c>
+      <c r="G2" s="203" t="s">
+        <v>575</v>
+      </c>
+      <c r="H2" s="203" t="s">
+        <v>575</v>
+      </c>
+      <c r="I2" s="203" t="s">
+        <v>576</v>
+      </c>
+      <c r="J2" s="203" t="s">
+        <v>578</v>
+      </c>
+      <c r="L2" s="203" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" s="177">
+        <v>2000</v>
+      </c>
+      <c r="N2" s="174" t="s">
+        <v>599</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="235" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" s="174" t="s">
+        <v>571</v>
+      </c>
+      <c r="C3" s="174" t="s">
+        <v>581</v>
+      </c>
+      <c r="D3" s="174" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" s="174" t="s">
+        <v>582</v>
+      </c>
+      <c r="F3" s="174" t="s">
+        <v>583</v>
+      </c>
+      <c r="G3" s="174" t="s">
+        <v>583</v>
+      </c>
+      <c r="H3" s="174" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" s="177">
+        <v>1</v>
+      </c>
+      <c r="J3" s="203" t="s">
+        <v>578</v>
+      </c>
+      <c r="L3" t="s">
+        <v>591</v>
+      </c>
+      <c r="M3" s="177" t="s">
+        <v>602</v>
+      </c>
+      <c r="N3" s="177" t="s">
+        <v>603</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B4" s="174" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" s="174" t="s">
+        <v>581</v>
+      </c>
+      <c r="D4" s="174" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="237" t="s">
+        <v>586</v>
+      </c>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="177">
+        <v>1</v>
+      </c>
+      <c r="J4" s="203" t="s">
+        <v>578</v>
+      </c>
+      <c r="L4" t="s">
+        <v>592</v>
+      </c>
+      <c r="M4" s="177" t="s">
+        <v>606</v>
+      </c>
+      <c r="N4" s="177" t="s">
+        <v>607</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B5" s="237" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="237"/>
+      <c r="J5" s="203" t="s">
+        <v>578</v>
+      </c>
+      <c r="L5" t="s">
+        <v>593</v>
+      </c>
+      <c r="M5" s="177" t="s">
+        <v>610</v>
+      </c>
+      <c r="N5" s="177" t="s">
+        <v>611</v>
+      </c>
+      <c r="P5" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="236">
+        <f>2^128</f>
+        <v>3.4028236692093846E+38</v>
+      </c>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="236"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F7" s="203"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="203"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="203"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="203"/>
+      <c r="B10" s="203"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="203"/>
+      <c r="B11" s="203"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203"/>
+      <c r="H11" s="203"/>
+      <c r="I11" s="203"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="203"/>
+      <c r="B12" s="203"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="203"/>
+      <c r="H12" s="203"/>
+      <c r="I12" s="203"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="203"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="203"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="203"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/protocols-suite.xlsx
+++ b/docs/protocols-suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A058693B-AD77-429C-AB42-0F890EB6FB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42975D7A-E457-4677-AFA7-DED87EA26FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="650">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -3510,9 +3510,6 @@
     <t>resultado</t>
   </si>
   <si>
-    <t>2001:db6:acad:1::1</t>
-  </si>
-  <si>
     <t>Direccion</t>
   </si>
   <si>
@@ -3525,9 +3522,6 @@
     <t>Unique-Local</t>
   </si>
   <si>
-    <t>Anycast</t>
-  </si>
-  <si>
     <t>Inicio</t>
   </si>
   <si>
@@ -3586,6 +3580,149 @@
   </si>
   <si>
     <t>Transmision</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2001:db6:acad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:1</t>
+    </r>
+  </si>
+  <si>
+    <t>EUI-64</t>
+  </si>
+  <si>
+    <t>Extended Unique Identifier</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>000A</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>C221</t>
+  </si>
+  <si>
+    <t>16 bits</t>
+  </si>
+  <si>
+    <t>!7 bit</t>
+  </si>
+  <si>
+    <t>F3FF</t>
+  </si>
+  <si>
+    <t>FE52</t>
+  </si>
+  <si>
+    <t>/65</t>
+  </si>
+  <si>
+    <t>/66</t>
+  </si>
+  <si>
+    <t>020A</t>
+  </si>
+  <si>
+    <t>FE80::</t>
+  </si>
+  <si>
+    <t>20A:f3ff:fe52:c221</t>
+  </si>
+  <si>
+    <t>000C</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>A9BA</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>47da</t>
+  </si>
+  <si>
+    <t>00e0</t>
+  </si>
+  <si>
+    <t>000c</t>
+  </si>
+  <si>
+    <t>cfff</t>
+  </si>
+  <si>
+    <t>fe00</t>
+  </si>
+  <si>
+    <t>a9ba</t>
+  </si>
+  <si>
+    <t>!7bit</t>
+  </si>
+  <si>
+    <t>020c</t>
+  </si>
+  <si>
+    <t>fe80::</t>
+  </si>
+  <si>
+    <t>/67</t>
+  </si>
+  <si>
+    <t>20c:cfff:fe00:a9ba</t>
+  </si>
+  <si>
+    <t>02e0</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>f7ff</t>
+  </si>
+  <si>
+    <t>fe3c</t>
+  </si>
+  <si>
+    <t>2e0:f7ff:fe3c:47da</t>
   </si>
 </sst>
 </file>
@@ -3595,9 +3732,9 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.00000000000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000E+00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3671,6 +3808,20 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4357,7 +4508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4785,9 +4936,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4868,6 +5016,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -4922,34 +5076,70 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -7132,13 +7322,13 @@
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="218" t="s">
+      <c r="C2" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="213" t="s">
+      <c r="D2" s="214" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7146,17 +7336,17 @@
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="214"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="215"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="215"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="216"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -7196,7 +7386,7 @@
       <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="216" t="s">
+      <c r="D7" s="217" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7210,7 +7400,7 @@
       <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="217"/>
+      <c r="D8" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7252,16 +7442,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="221" t="s">
+      <c r="A3" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
-      <c r="E3" s="221" t="s">
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="E3" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -7404,11 +7594,11 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="221" t="s">
+      <c r="E11" s="222" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="221"/>
-      <c r="G11" s="221"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -7570,10 +7760,10 @@
       <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="222" t="s">
+      <c r="I2" s="223" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="223"/>
+      <c r="J2" s="224"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -7694,10 +7884,10 @@
       <c r="G7" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="222" t="s">
+      <c r="I7" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="223"/>
+      <c r="J7" s="224"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -7792,10 +7982,10 @@
       <c r="G12" t="s">
         <v>163</v>
       </c>
-      <c r="I12" s="222" t="s">
+      <c r="I12" s="223" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="223"/>
+      <c r="J12" s="224"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -7943,33 +8133,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="223"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="224"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="222" t="s">
+      <c r="G1" s="223" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
       <c r="P1" s="108"/>
-      <c r="Q1" s="224" t="s">
+      <c r="Q1" s="225" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="224"/>
-      <c r="U1" s="223"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="225"/>
+      <c r="U1" s="224"/>
       <c r="V1" s="31"/>
       <c r="W1" s="103" t="s">
         <v>182</v>
@@ -8355,32 +8545,32 @@
       <c r="E6" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H6" s="225" t="s">
+      <c r="H6" s="226" t="s">
         <v>239</v>
       </c>
-      <c r="I6" s="226"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="226"/>
-      <c r="N6" s="226"/>
-      <c r="O6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="227"/>
+      <c r="N6" s="227"/>
+      <c r="O6" s="228"/>
       <c r="P6" s="108"/>
-      <c r="Q6" s="226" t="s">
+      <c r="Q6" s="227" t="s">
         <v>184</v>
       </c>
-      <c r="R6" s="226"/>
+      <c r="R6" s="227"/>
       <c r="S6" s="96"/>
-      <c r="T6" s="221" t="s">
+      <c r="T6" s="222" t="s">
         <v>247</v>
       </c>
-      <c r="U6" s="221"/>
-      <c r="V6" s="221"/>
-      <c r="W6" s="221"/>
-      <c r="X6" s="221"/>
-      <c r="Y6" s="221"/>
-      <c r="Z6" s="221"/>
-      <c r="AA6" s="221"/>
+      <c r="U6" s="222"/>
+      <c r="V6" s="222"/>
+      <c r="W6" s="222"/>
+      <c r="X6" s="222"/>
+      <c r="Y6" s="222"/>
+      <c r="Z6" s="222"/>
+      <c r="AA6" s="222"/>
       <c r="AB6" s="57" t="s">
         <v>184</v>
       </c>
@@ -9142,53 +9332,53 @@
       <c r="A1" s="125" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="228" t="s">
+      <c r="B1" s="234" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228" t="s">
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228" t="s">
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234" t="s">
         <v>304</v>
       </c>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="234" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228" t="s">
+      <c r="C2" s="234"/>
+      <c r="D2" s="234" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228" t="s">
+      <c r="E2" s="234"/>
+      <c r="F2" s="234" t="s">
         <v>264</v>
       </c>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228" t="s">
+      <c r="G2" s="234"/>
+      <c r="H2" s="234" t="s">
         <v>265</v>
       </c>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228" t="s">
+      <c r="I2" s="234"/>
+      <c r="J2" s="234" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228" t="s">
+      <c r="K2" s="234"/>
+      <c r="L2" s="234" t="s">
         <v>305</v>
       </c>
-      <c r="M2" s="228"/>
+      <c r="M2" s="234"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="127" t="s">
@@ -9974,6 +10164,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
@@ -9984,12 +10180,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10020,15 +10210,15 @@
       <c r="A1" s="126" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="235" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -10868,15 +11058,15 @@
       <c r="A1" s="126" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="235" t="s">
         <v>475</v>
       </c>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
@@ -11150,220 +11340,220 @@
       <c r="I14" s="173"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="177" t="s">
         <v>473</v>
       </c>
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="177" t="s">
         <v>477</v>
       </c>
-      <c r="C15" s="178" t="s">
+      <c r="C15" s="177" t="s">
         <v>306</v>
       </c>
-      <c r="D15" s="178" t="s">
+      <c r="D15" s="177" t="s">
         <v>358</v>
       </c>
-      <c r="E15" s="178" t="s">
+      <c r="E15" s="177" t="s">
         <v>359</v>
       </c>
-      <c r="F15" s="178" t="s">
+      <c r="F15" s="177" t="s">
         <v>360</v>
       </c>
-      <c r="G15" s="178" t="s">
+      <c r="G15" s="177" t="s">
         <v>361</v>
       </c>
-      <c r="H15" s="178" t="s">
+      <c r="H15" s="177" t="s">
         <v>349</v>
       </c>
-      <c r="I15" s="178" t="s">
+      <c r="I15" s="177" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="179" t="s">
+      <c r="A16" s="178" t="s">
         <v>505</v>
       </c>
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="178" t="s">
         <v>509</v>
       </c>
-      <c r="C16" s="179" t="s">
+      <c r="C16" s="178" t="s">
         <v>324</v>
       </c>
-      <c r="D16" s="179" t="s">
+      <c r="D16" s="178" t="s">
         <v>510</v>
       </c>
-      <c r="E16" s="179" t="s">
+      <c r="E16" s="178" t="s">
         <v>515</v>
       </c>
-      <c r="F16" s="179" t="s">
+      <c r="F16" s="178" t="s">
         <v>514</v>
       </c>
-      <c r="G16" s="181" t="s">
+      <c r="G16" s="180" t="s">
         <v>303</v>
       </c>
-      <c r="H16" s="181">
+      <c r="H16" s="180">
         <v>24</v>
       </c>
-      <c r="I16" s="182">
+      <c r="I16" s="181">
         <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="179" t="s">
+      <c r="A17" s="178" t="s">
         <v>262</v>
       </c>
-      <c r="B17" s="179" t="s">
+      <c r="B17" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="179" t="s">
+      <c r="C17" s="178" t="s">
         <v>511</v>
       </c>
-      <c r="D17" s="179" t="s">
+      <c r="D17" s="178" t="s">
         <v>513</v>
       </c>
-      <c r="E17" s="179" t="s">
+      <c r="E17" s="178" t="s">
         <v>518</v>
       </c>
-      <c r="F17" s="179" t="s">
+      <c r="F17" s="178" t="s">
         <v>517</v>
       </c>
-      <c r="G17" s="180">
+      <c r="G17" s="179">
         <v>255255255128</v>
       </c>
-      <c r="H17" s="181">
+      <c r="H17" s="180">
         <v>25</v>
       </c>
-      <c r="I17" s="182">
+      <c r="I17" s="181">
         <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="179" t="s">
+      <c r="A18" s="178" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="178" t="s">
         <v>478</v>
       </c>
-      <c r="C18" s="179" t="s">
+      <c r="C18" s="178" t="s">
         <v>516</v>
       </c>
-      <c r="D18" s="179" t="s">
+      <c r="D18" s="178" t="s">
         <v>519</v>
       </c>
-      <c r="E18" s="179" t="s">
+      <c r="E18" s="178" t="s">
         <v>521</v>
       </c>
-      <c r="F18" s="179" t="s">
+      <c r="F18" s="178" t="s">
         <v>520</v>
       </c>
-      <c r="G18" s="180">
+      <c r="G18" s="179">
         <v>255255255128</v>
       </c>
-      <c r="H18" s="181">
+      <c r="H18" s="180">
         <v>25</v>
       </c>
-      <c r="I18" s="182">
+      <c r="I18" s="181">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="179" t="s">
+      <c r="A19" s="178" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="179" t="s">
+      <c r="B19" s="178" t="s">
         <v>508</v>
       </c>
-      <c r="C19" s="179" t="s">
+      <c r="C19" s="178" t="s">
         <v>512</v>
       </c>
-      <c r="D19" s="179" t="s">
+      <c r="D19" s="178" t="s">
         <v>525</v>
       </c>
-      <c r="E19" s="179" t="s">
+      <c r="E19" s="178" t="s">
         <v>524</v>
       </c>
-      <c r="F19" s="179" t="s">
+      <c r="F19" s="178" t="s">
         <v>523</v>
       </c>
-      <c r="G19" s="180">
+      <c r="G19" s="179">
         <v>255255255192</v>
       </c>
-      <c r="H19" s="181">
+      <c r="H19" s="180">
         <v>26</v>
       </c>
-      <c r="I19" s="182">
+      <c r="I19" s="181">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="179" t="s">
+      <c r="B20" s="178" t="s">
         <v>506</v>
       </c>
-      <c r="C20" s="179" t="s">
+      <c r="C20" s="178" t="s">
         <v>522</v>
       </c>
-      <c r="D20" s="179" t="s">
+      <c r="D20" s="178" t="s">
         <v>526</v>
       </c>
-      <c r="E20" s="179" t="s">
+      <c r="E20" s="178" t="s">
         <v>529</v>
       </c>
-      <c r="F20" s="179" t="s">
+      <c r="F20" s="178" t="s">
         <v>528</v>
       </c>
-      <c r="G20" s="180">
+      <c r="G20" s="179">
         <v>255255255192</v>
       </c>
-      <c r="H20" s="181">
+      <c r="H20" s="180">
         <v>26</v>
       </c>
-      <c r="I20" s="182">
+      <c r="I20" s="181">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="183" t="s">
+      <c r="A21" s="182" t="s">
         <v>248</v>
       </c>
-      <c r="B21" s="183" t="s">
+      <c r="B21" s="182" t="s">
         <v>507</v>
       </c>
-      <c r="C21" s="183" t="s">
+      <c r="C21" s="182" t="s">
         <v>527</v>
       </c>
-      <c r="D21" s="183" t="s">
+      <c r="D21" s="182" t="s">
         <v>530</v>
       </c>
-      <c r="E21" s="183" t="s">
+      <c r="E21" s="182" t="s">
         <v>533</v>
       </c>
-      <c r="F21" s="183" t="s">
+      <c r="F21" s="182" t="s">
         <v>532</v>
       </c>
-      <c r="G21" s="186">
+      <c r="G21" s="185">
         <v>255255255224</v>
       </c>
-      <c r="H21" s="184">
+      <c r="H21" s="183">
         <v>27</v>
       </c>
-      <c r="I21" s="185">
+      <c r="I21" s="184">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="183"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="183" t="s">
+      <c r="A22" s="182"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="182" t="s">
         <v>531</v>
       </c>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="185"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="184"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C23" s="158"/>
@@ -11385,31 +11575,31 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="178" t="s">
+      <c r="A24" s="177" t="s">
         <v>473</v>
       </c>
-      <c r="B24" s="178" t="s">
+      <c r="B24" s="177" t="s">
         <v>477</v>
       </c>
-      <c r="C24" s="178" t="s">
+      <c r="C24" s="177" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="178" t="s">
+      <c r="D24" s="177" t="s">
         <v>358</v>
       </c>
-      <c r="E24" s="178" t="s">
+      <c r="E24" s="177" t="s">
         <v>359</v>
       </c>
-      <c r="F24" s="178" t="s">
+      <c r="F24" s="177" t="s">
         <v>360</v>
       </c>
-      <c r="G24" s="178" t="s">
+      <c r="G24" s="177" t="s">
         <v>361</v>
       </c>
-      <c r="H24" s="178" t="s">
+      <c r="H24" s="177" t="s">
         <v>349</v>
       </c>
-      <c r="I24" s="178" t="s">
+      <c r="I24" s="177" t="s">
         <v>353</v>
       </c>
       <c r="L24" t="s">
@@ -11418,101 +11608,101 @@
       <c r="M24" s="109">
         <v>28</v>
       </c>
-      <c r="N24" s="202">
+      <c r="N24" s="201">
         <v>27</v>
       </c>
-      <c r="O24" s="202">
+      <c r="O24" s="201">
         <v>26</v>
       </c>
-      <c r="P24" s="202">
+      <c r="P24" s="201">
         <v>25</v>
       </c>
-      <c r="Q24" s="202">
+      <c r="Q24" s="201">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="179" t="s">
+      <c r="B25" s="178" t="s">
         <v>507</v>
       </c>
-      <c r="C25" s="179" t="s">
+      <c r="C25" s="178" t="s">
         <v>324</v>
       </c>
-      <c r="D25" s="179" t="s">
+      <c r="D25" s="178" t="s">
         <v>510</v>
       </c>
-      <c r="E25" s="179" t="s">
+      <c r="E25" s="178" t="s">
         <v>536</v>
       </c>
-      <c r="F25" s="179" t="s">
+      <c r="F25" s="178" t="s">
         <v>535</v>
       </c>
-      <c r="G25" s="180">
+      <c r="G25" s="179">
         <v>255255255224</v>
       </c>
-      <c r="H25" s="181">
+      <c r="H25" s="180">
         <v>27</v>
       </c>
-      <c r="I25" s="182">
+      <c r="I25" s="181">
         <v>30</v>
       </c>
-      <c r="K25" s="201" t="s">
+      <c r="K25" s="200" t="s">
         <v>324</v>
       </c>
-      <c r="L25" s="204" t="s">
+      <c r="L25" s="203" t="s">
         <v>275</v>
       </c>
-      <c r="M25" s="204" t="s">
+      <c r="M25" s="203" t="s">
         <v>275</v>
       </c>
-      <c r="N25" s="204" t="s">
+      <c r="N25" s="203" t="s">
         <v>275</v>
       </c>
-      <c r="O25" s="204" t="s">
+      <c r="O25" s="203" t="s">
         <v>275</v>
       </c>
-      <c r="P25" s="204" t="s">
+      <c r="P25" s="203" t="s">
         <v>275</v>
       </c>
-      <c r="Q25" s="204" t="s">
+      <c r="Q25" s="203" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="179" t="s">
+      <c r="A26" s="178" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="179" t="s">
+      <c r="B26" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="187" t="s">
+      <c r="C26" s="186" t="s">
         <v>534</v>
       </c>
-      <c r="D26" s="187" t="s">
+      <c r="D26" s="186" t="s">
         <v>537</v>
       </c>
-      <c r="E26" s="187" t="s">
+      <c r="E26" s="186" t="s">
         <v>539</v>
       </c>
-      <c r="F26" s="187" t="s">
+      <c r="F26" s="186" t="s">
         <v>540</v>
       </c>
-      <c r="G26" s="188">
+      <c r="G26" s="187">
         <v>255255255128</v>
       </c>
-      <c r="H26" s="189">
+      <c r="H26" s="188">
         <v>25</v>
       </c>
-      <c r="I26" s="190">
+      <c r="I26" s="189">
         <v>126</v>
       </c>
-      <c r="K26" s="207" t="s">
+      <c r="K26" s="206" t="s">
         <v>534</v>
       </c>
-      <c r="L26" s="208" t="s">
+      <c r="L26" s="207" t="s">
         <v>566</v>
       </c>
       <c r="M26" s="174" t="s">
@@ -11521,49 +11711,49 @@
       <c r="N26" s="174" t="s">
         <v>340</v>
       </c>
-      <c r="O26" s="205" t="s">
+      <c r="O26" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="P26" s="205" t="s">
+      <c r="P26" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="Q26" s="205" t="s">
+      <c r="Q26" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="R26" s="203"/>
+      <c r="R26" s="202"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="179" t="s">
+      <c r="B27" s="178" t="s">
         <v>506</v>
       </c>
-      <c r="C27" s="187" t="s">
+      <c r="C27" s="186" t="s">
         <v>538</v>
       </c>
-      <c r="D27" s="187" t="s">
+      <c r="D27" s="186" t="s">
         <v>542</v>
       </c>
-      <c r="E27" s="187" t="s">
+      <c r="E27" s="186" t="s">
         <v>544</v>
       </c>
-      <c r="F27" s="187" t="s">
+      <c r="F27" s="186" t="s">
         <v>543</v>
       </c>
-      <c r="G27" s="188">
+      <c r="G27" s="187">
         <v>255255255192</v>
       </c>
-      <c r="H27" s="189">
+      <c r="H27" s="188">
         <v>26</v>
       </c>
-      <c r="I27" s="190">
+      <c r="I27" s="189">
         <v>62</v>
       </c>
-      <c r="K27" s="207" t="s">
+      <c r="K27" s="206" t="s">
         <v>538</v>
       </c>
-      <c r="L27" s="208" t="s">
+      <c r="L27" s="207" t="s">
         <v>563</v>
       </c>
       <c r="M27" s="174" t="s">
@@ -11572,49 +11762,49 @@
       <c r="N27" s="174" t="s">
         <v>563</v>
       </c>
-      <c r="O27" s="209" t="s">
+      <c r="O27" s="208" t="s">
         <v>567</v>
       </c>
-      <c r="P27" s="209" t="s">
+      <c r="P27" s="208" t="s">
         <v>567</v>
       </c>
-      <c r="Q27" s="209" t="s">
+      <c r="Q27" s="208" t="s">
         <v>275</v>
       </c>
-      <c r="R27" s="203"/>
+      <c r="R27" s="202"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="178" t="s">
         <v>263</v>
       </c>
-      <c r="B28" s="179" t="s">
+      <c r="B28" s="178" t="s">
         <v>508</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="186" t="s">
         <v>541</v>
       </c>
-      <c r="D28" s="187" t="s">
+      <c r="D28" s="186" t="s">
         <v>545</v>
       </c>
-      <c r="E28" s="187" t="s">
+      <c r="E28" s="186" t="s">
         <v>548</v>
       </c>
-      <c r="F28" s="187" t="s">
+      <c r="F28" s="186" t="s">
         <v>547</v>
       </c>
-      <c r="G28" s="188">
+      <c r="G28" s="187">
         <v>255255255192</v>
       </c>
-      <c r="H28" s="189">
+      <c r="H28" s="188">
         <v>26</v>
       </c>
-      <c r="I28" s="190">
+      <c r="I28" s="189">
         <v>62</v>
       </c>
-      <c r="K28" s="207" t="s">
+      <c r="K28" s="206" t="s">
         <v>541</v>
       </c>
-      <c r="L28" s="208" t="s">
+      <c r="L28" s="207" t="s">
         <v>564</v>
       </c>
       <c r="M28" s="174" t="s">
@@ -11623,49 +11813,49 @@
       <c r="N28" s="174" t="s">
         <v>564</v>
       </c>
-      <c r="O28" s="209" t="s">
+      <c r="O28" s="208" t="s">
         <v>280</v>
       </c>
-      <c r="P28" s="209" t="s">
+      <c r="P28" s="208" t="s">
         <v>567</v>
       </c>
-      <c r="Q28" s="205" t="s">
+      <c r="Q28" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="R28" s="203"/>
+      <c r="R28" s="202"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="178" t="s">
         <v>246</v>
       </c>
-      <c r="B29" s="179" t="s">
+      <c r="B29" s="178" t="s">
         <v>478</v>
       </c>
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="186" t="s">
         <v>546</v>
       </c>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="186" t="s">
         <v>549</v>
       </c>
-      <c r="E29" s="187" t="s">
+      <c r="E29" s="186" t="s">
         <v>552</v>
       </c>
-      <c r="F29" s="187" t="s">
+      <c r="F29" s="186" t="s">
         <v>553</v>
       </c>
-      <c r="G29" s="188">
+      <c r="G29" s="187">
         <v>255255255128</v>
       </c>
-      <c r="H29" s="189">
+      <c r="H29" s="188">
         <v>25</v>
       </c>
-      <c r="I29" s="190">
+      <c r="I29" s="189">
         <v>126</v>
       </c>
-      <c r="K29" s="207" t="s">
+      <c r="K29" s="206" t="s">
         <v>546</v>
       </c>
-      <c r="L29" s="208" t="s">
+      <c r="L29" s="207" t="s">
         <v>340</v>
       </c>
       <c r="M29" s="174" t="s">
@@ -11674,49 +11864,49 @@
       <c r="N29" s="174" t="s">
         <v>340</v>
       </c>
-      <c r="O29" s="209" t="s">
+      <c r="O29" s="208" t="s">
         <v>275</v>
       </c>
-      <c r="P29" s="205" t="s">
+      <c r="P29" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="Q29" s="205" t="s">
+      <c r="Q29" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="R29" s="203"/>
+      <c r="R29" s="202"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="183" t="s">
+      <c r="A30" s="182" t="s">
         <v>505</v>
       </c>
-      <c r="B30" s="183" t="s">
+      <c r="B30" s="182" t="s">
         <v>509</v>
       </c>
-      <c r="C30" s="191" t="s">
+      <c r="C30" s="190" t="s">
         <v>550</v>
       </c>
-      <c r="D30" s="191" t="s">
+      <c r="D30" s="190" t="s">
         <v>551</v>
       </c>
-      <c r="E30" s="191" t="s">
+      <c r="E30" s="190" t="s">
         <v>533</v>
       </c>
-      <c r="F30" s="191" t="s">
+      <c r="F30" s="190" t="s">
         <v>532</v>
       </c>
-      <c r="G30" s="192" t="s">
+      <c r="G30" s="191" t="s">
         <v>303</v>
       </c>
-      <c r="H30" s="192">
+      <c r="H30" s="191">
         <v>24</v>
       </c>
-      <c r="I30" s="193">
+      <c r="I30" s="192">
         <v>254</v>
       </c>
-      <c r="K30" s="207" t="s">
+      <c r="K30" s="206" t="s">
         <v>550</v>
       </c>
-      <c r="L30" s="208" t="s">
+      <c r="L30" s="207" t="s">
         <v>563</v>
       </c>
       <c r="M30" s="174" t="s">
@@ -11725,33 +11915,33 @@
       <c r="N30" s="174" t="s">
         <v>563</v>
       </c>
-      <c r="O30" s="209" t="s">
+      <c r="O30" s="208" t="s">
         <v>567</v>
       </c>
-      <c r="P30" s="209" t="s">
+      <c r="P30" s="208" t="s">
         <v>567</v>
       </c>
-      <c r="Q30" s="209" t="s">
+      <c r="Q30" s="208" t="s">
         <v>275</v>
       </c>
-      <c r="R30" s="203"/>
+      <c r="R30" s="202"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="183"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183" t="s">
+      <c r="A31" s="182"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182" t="s">
         <v>531</v>
       </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="185"/>
-      <c r="K31" s="201" t="s">
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="184"/>
+      <c r="K31" s="200" t="s">
         <v>531</v>
       </c>
-      <c r="L31" s="206" t="s">
+      <c r="L31" s="205" t="s">
         <v>563</v>
       </c>
       <c r="M31" s="174" t="s">
@@ -11760,240 +11950,240 @@
       <c r="N31" s="174" t="s">
         <v>563</v>
       </c>
-      <c r="O31" s="209" t="s">
+      <c r="O31" s="208" t="s">
         <v>567</v>
       </c>
-      <c r="P31" s="209" t="s">
+      <c r="P31" s="208" t="s">
         <v>567</v>
       </c>
-      <c r="Q31" s="205" t="s">
+      <c r="Q31" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="R31" s="203"/>
+      <c r="R31" s="202"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K32" s="58"/>
       <c r="L32" s="58"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="178" t="s">
+      <c r="A33" s="177" t="s">
         <v>473</v>
       </c>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="177" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="178" t="s">
+      <c r="C33" s="177" t="s">
         <v>306</v>
       </c>
-      <c r="D33" s="178" t="s">
+      <c r="D33" s="177" t="s">
         <v>358</v>
       </c>
-      <c r="E33" s="178" t="s">
+      <c r="E33" s="177" t="s">
         <v>359</v>
       </c>
-      <c r="F33" s="178" t="s">
+      <c r="F33" s="177" t="s">
         <v>360</v>
       </c>
-      <c r="G33" s="178" t="s">
+      <c r="G33" s="177" t="s">
         <v>361</v>
       </c>
-      <c r="H33" s="178" t="s">
+      <c r="H33" s="177" t="s">
         <v>349</v>
       </c>
-      <c r="I33" s="178" t="s">
+      <c r="I33" s="177" t="s">
         <v>353</v>
       </c>
-      <c r="K33" s="207"/>
-      <c r="L33" s="208"/>
+      <c r="K33" s="206"/>
+      <c r="L33" s="207"/>
       <c r="M33" s="174"/>
       <c r="N33" s="174"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="179" t="s">
+      <c r="A34" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="B34" s="179" t="s">
+      <c r="B34" s="178" t="s">
         <v>507</v>
       </c>
-      <c r="C34" s="179" t="s">
+      <c r="C34" s="178" t="s">
         <v>324</v>
       </c>
-      <c r="D34" s="179" t="s">
+      <c r="D34" s="178" t="s">
         <v>510</v>
       </c>
-      <c r="E34" s="179" t="s">
+      <c r="E34" s="178" t="s">
         <v>536</v>
       </c>
-      <c r="F34" s="179" t="s">
+      <c r="F34" s="178" t="s">
         <v>535</v>
       </c>
-      <c r="G34" s="180">
+      <c r="G34" s="179">
         <v>255255255224</v>
       </c>
-      <c r="H34" s="181">
+      <c r="H34" s="180">
         <v>27</v>
       </c>
-      <c r="I34" s="182">
+      <c r="I34" s="181">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="179" t="s">
+      <c r="A35" s="178" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="194" t="s">
+      <c r="C35" s="193" t="s">
         <v>554</v>
       </c>
-      <c r="D35" s="194" t="s">
+      <c r="D35" s="193" t="s">
         <v>555</v>
       </c>
-      <c r="E35" s="194" t="s">
+      <c r="E35" s="193" t="s">
         <v>515</v>
       </c>
-      <c r="F35" s="194" t="s">
+      <c r="F35" s="193" t="s">
         <v>514</v>
       </c>
-      <c r="G35" s="195">
+      <c r="G35" s="194">
         <v>255255255128</v>
       </c>
-      <c r="H35" s="196">
+      <c r="H35" s="195">
         <v>25</v>
       </c>
-      <c r="I35" s="197">
+      <c r="I35" s="196">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="179" t="s">
+      <c r="A36" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="B36" s="179" t="s">
+      <c r="B36" s="178" t="s">
         <v>506</v>
       </c>
-      <c r="C36" s="194" t="s">
+      <c r="C36" s="193" t="s">
         <v>511</v>
       </c>
-      <c r="D36" s="194" t="s">
+      <c r="D36" s="193" t="s">
         <v>513</v>
       </c>
-      <c r="E36" s="194" t="s">
+      <c r="E36" s="193" t="s">
         <v>558</v>
       </c>
-      <c r="F36" s="194" t="s">
+      <c r="F36" s="193" t="s">
         <v>557</v>
       </c>
-      <c r="G36" s="195">
+      <c r="G36" s="194">
         <v>255255255192</v>
       </c>
-      <c r="H36" s="196">
+      <c r="H36" s="195">
         <v>26</v>
       </c>
-      <c r="I36" s="197">
+      <c r="I36" s="196">
         <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="179" t="s">
+      <c r="A37" s="178" t="s">
         <v>263</v>
       </c>
-      <c r="B37" s="179" t="s">
+      <c r="B37" s="178" t="s">
         <v>508</v>
       </c>
-      <c r="C37" s="194" t="s">
+      <c r="C37" s="193" t="s">
         <v>556</v>
       </c>
-      <c r="D37" s="194" t="s">
+      <c r="D37" s="193" t="s">
         <v>559</v>
       </c>
-      <c r="E37" s="194" t="s">
+      <c r="E37" s="193" t="s">
         <v>518</v>
       </c>
-      <c r="F37" s="194" t="s">
+      <c r="F37" s="193" t="s">
         <v>517</v>
       </c>
-      <c r="G37" s="195">
+      <c r="G37" s="194">
         <v>255255255192</v>
       </c>
-      <c r="H37" s="196">
+      <c r="H37" s="195">
         <v>26</v>
       </c>
-      <c r="I37" s="197">
+      <c r="I37" s="196">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="178" t="s">
         <v>246</v>
       </c>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="178" t="s">
         <v>478</v>
       </c>
-      <c r="C38" s="194" t="s">
+      <c r="C38" s="193" t="s">
         <v>516</v>
       </c>
-      <c r="D38" s="194" t="s">
+      <c r="D38" s="193" t="s">
         <v>519</v>
       </c>
-      <c r="E38" s="194" t="s">
+      <c r="E38" s="193" t="s">
         <v>521</v>
       </c>
-      <c r="F38" s="194" t="s">
+      <c r="F38" s="193" t="s">
         <v>520</v>
       </c>
-      <c r="G38" s="195">
+      <c r="G38" s="194">
         <v>255255255128</v>
       </c>
-      <c r="H38" s="196">
+      <c r="H38" s="195">
         <v>25</v>
       </c>
-      <c r="I38" s="197">
+      <c r="I38" s="196">
         <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="183" t="s">
+      <c r="A39" s="182" t="s">
         <v>505</v>
       </c>
-      <c r="B39" s="183" t="s">
+      <c r="B39" s="182" t="s">
         <v>509</v>
       </c>
-      <c r="C39" s="198" t="s">
+      <c r="C39" s="197" t="s">
         <v>512</v>
       </c>
-      <c r="D39" s="198" t="s">
+      <c r="D39" s="197" t="s">
         <v>525</v>
       </c>
-      <c r="E39" s="198" t="s">
+      <c r="E39" s="197" t="s">
         <v>560</v>
       </c>
-      <c r="F39" s="198" t="s">
+      <c r="F39" s="197" t="s">
         <v>561</v>
       </c>
-      <c r="G39" s="199" t="s">
+      <c r="G39" s="198" t="s">
         <v>303</v>
       </c>
-      <c r="H39" s="199">
+      <c r="H39" s="198">
         <v>24</v>
       </c>
-      <c r="I39" s="200">
+      <c r="I39" s="199">
         <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="183"/>
-      <c r="B40" s="183"/>
-      <c r="C40" s="183" t="s">
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182" t="s">
         <v>562</v>
       </c>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="185"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="184"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:I21">
@@ -12016,249 +12206,251 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BFE413-6567-4A3B-BA4C-0009554AB6BA}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
     <col min="11" max="11" width="4.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="103" t="s">
         <v>579</v>
       </c>
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="225" t="s">
         <v>568</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" t="s">
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="238" t="s">
         <v>569</v>
       </c>
-      <c r="F1" s="221" t="s">
+      <c r="F1" s="225" t="s">
         <v>570</v>
       </c>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" t="s">
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="104" t="s">
         <v>577</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="103" t="s">
+        <v>588</v>
+      </c>
+      <c r="M1" s="238" t="s">
+        <v>592</v>
+      </c>
+      <c r="N1" s="238" t="s">
+        <v>593</v>
+      </c>
+      <c r="O1" s="238" t="s">
+        <v>594</v>
+      </c>
+      <c r="P1" s="238" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q1" s="104" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="251" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" s="251" t="s">
+        <v>572</v>
+      </c>
+      <c r="D2" s="251" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" s="253" t="s">
+        <v>574</v>
+      </c>
+      <c r="F2" s="255" t="s">
+        <v>575</v>
+      </c>
+      <c r="G2" s="255" t="s">
+        <v>575</v>
+      </c>
+      <c r="H2" s="255" t="s">
+        <v>575</v>
+      </c>
+      <c r="I2" s="255" t="s">
+        <v>576</v>
+      </c>
+      <c r="J2" s="239" t="s">
+        <v>578</v>
+      </c>
+      <c r="L2" s="246" t="s">
         <v>589</v>
       </c>
-      <c r="M1" t="s">
-        <v>594</v>
-      </c>
-      <c r="N1" t="s">
-        <v>595</v>
-      </c>
-      <c r="O1" t="s">
-        <v>596</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="M2" s="85">
+        <v>2000</v>
+      </c>
+      <c r="N2" s="242" t="s">
         <v>597</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="O2" s="247">
+        <v>3</v>
+      </c>
+      <c r="P2" s="247" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B2" s="203" t="s">
+      <c r="Q2" s="37" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="240" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" s="250" t="s">
         <v>571</v>
       </c>
-      <c r="C2" s="203" t="s">
-        <v>572</v>
-      </c>
-      <c r="D2" s="203" t="s">
+      <c r="C3" s="250" t="s">
+        <v>581</v>
+      </c>
+      <c r="D3" s="250" t="s">
         <v>573</v>
       </c>
-      <c r="E2" s="203" t="s">
-        <v>574</v>
-      </c>
-      <c r="F2" s="203" t="s">
-        <v>575</v>
-      </c>
-      <c r="G2" s="203" t="s">
-        <v>575</v>
-      </c>
-      <c r="H2" s="203" t="s">
-        <v>575</v>
-      </c>
-      <c r="I2" s="203" t="s">
-        <v>576</v>
-      </c>
-      <c r="J2" s="203" t="s">
+      <c r="E3" s="252" t="s">
+        <v>582</v>
+      </c>
+      <c r="F3" s="254" t="s">
+        <v>583</v>
+      </c>
+      <c r="G3" s="254" t="s">
+        <v>583</v>
+      </c>
+      <c r="H3" s="254" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" s="254">
+        <v>1</v>
+      </c>
+      <c r="J3" s="241" t="s">
         <v>578</v>
       </c>
-      <c r="L2" s="203" t="s">
+      <c r="L3" s="38" t="s">
         <v>590</v>
       </c>
-      <c r="M2" s="177">
-        <v>2000</v>
-      </c>
-      <c r="N2" s="174" t="s">
-        <v>599</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="M3" s="88" t="s">
         <v>600</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="N3" s="88" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="235" t="s">
-        <v>580</v>
-      </c>
-      <c r="B3" s="174" t="s">
+      <c r="O3" s="248">
+        <v>10</v>
+      </c>
+      <c r="P3" s="248" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="B4" s="251" t="s">
         <v>571</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C4" s="251" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D4" s="251" t="s">
         <v>573</v>
       </c>
-      <c r="E3" s="174" t="s">
-        <v>582</v>
-      </c>
-      <c r="F3" s="174" t="s">
-        <v>583</v>
-      </c>
-      <c r="G3" s="174" t="s">
-        <v>583</v>
-      </c>
-      <c r="H3" s="174" t="s">
-        <v>583</v>
-      </c>
-      <c r="I3" s="177">
+      <c r="E4" s="253" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="255" t="s">
+        <v>586</v>
+      </c>
+      <c r="G4" s="255"/>
+      <c r="H4" s="255"/>
+      <c r="I4" s="255">
         <v>1</v>
       </c>
-      <c r="J3" s="203" t="s">
+      <c r="J4" s="239" t="s">
         <v>578</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" s="36" t="s">
         <v>591</v>
       </c>
-      <c r="M3" s="177" t="s">
-        <v>602</v>
-      </c>
-      <c r="N3" s="177" t="s">
-        <v>603</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="M4" s="85" t="s">
         <v>604</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="N4" s="85" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>585</v>
-      </c>
-      <c r="B4" s="174" t="s">
-        <v>571</v>
-      </c>
-      <c r="C4" s="174" t="s">
-        <v>581</v>
-      </c>
-      <c r="D4" s="174" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="174" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="237" t="s">
-        <v>586</v>
-      </c>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="177">
-        <v>1</v>
-      </c>
-      <c r="J4" s="203" t="s">
+      <c r="O4" s="247">
+        <v>7</v>
+      </c>
+      <c r="P4" s="247" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="B5" s="244" t="s">
+        <v>612</v>
+      </c>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="243" t="s">
         <v>578</v>
       </c>
-      <c r="L4" t="s">
-        <v>592</v>
-      </c>
-      <c r="M4" s="177" t="s">
-        <v>606</v>
-      </c>
-      <c r="N4" s="177" t="s">
-        <v>607</v>
-      </c>
-      <c r="O4">
-        <v>7</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="L5" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M5" s="249" t="s">
         <v>608</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="N5" s="249" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>587</v>
-      </c>
-      <c r="B5" s="237" t="s">
-        <v>588</v>
-      </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="203" t="s">
-        <v>578</v>
-      </c>
-      <c r="L5" t="s">
-        <v>593</v>
-      </c>
-      <c r="M5" s="177" t="s">
+      <c r="O5" s="245">
+        <v>8</v>
+      </c>
+      <c r="P5" s="245" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q5" s="35" t="s">
         <v>610</v>
-      </c>
-      <c r="N5" s="177" t="s">
-        <v>611</v>
-      </c>
-      <c r="P5" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -12275,91 +12467,271 @@
       <c r="I6" s="236"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F7" s="203"/>
+      <c r="F7" s="202"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="203"/>
-      <c r="B8" s="203"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
+      <c r="A8" s="202" t="s">
+        <v>613</v>
+      </c>
+      <c r="B8" s="222" t="s">
+        <v>614</v>
+      </c>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="203"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
+      <c r="A9" s="202" t="s">
+        <v>615</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="C9" s="256" t="s">
+        <v>618</v>
+      </c>
+      <c r="D9" s="256" t="s">
+        <v>616</v>
+      </c>
+      <c r="E9" s="256" t="s">
+        <v>619</v>
+      </c>
+      <c r="F9" s="202" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="203"/>
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
+      <c r="A10" s="202" t="s">
+        <v>620</v>
+      </c>
+      <c r="B10" s="256" t="s">
+        <v>617</v>
+      </c>
+      <c r="C10" s="210" t="s">
+        <v>622</v>
+      </c>
+      <c r="D10" s="210" t="s">
+        <v>623</v>
+      </c>
+      <c r="E10" s="256" t="s">
+        <v>619</v>
+      </c>
+      <c r="F10" s="202" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="203"/>
-      <c r="B11" s="203"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
+      <c r="A11" s="202" t="s">
+        <v>621</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="C11" s="256" t="s">
+        <v>622</v>
+      </c>
+      <c r="D11" s="256" t="s">
+        <v>623</v>
+      </c>
+      <c r="E11" s="256" t="s">
+        <v>619</v>
+      </c>
+      <c r="F11" s="202" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="203"/>
-      <c r="B12" s="203"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="203"/>
+      <c r="A12" s="202" t="s">
+        <v>627</v>
+      </c>
+      <c r="B12" s="237" t="s">
+        <v>628</v>
+      </c>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="202" t="s">
+        <v>578</v>
+      </c>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="203"/>
-      <c r="B13" s="203"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="203"/>
+      <c r="A13" s="202"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="203"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="203"/>
+      <c r="A14" s="210" t="s">
+        <v>615</v>
+      </c>
+      <c r="B14" s="210" t="s">
+        <v>629</v>
+      </c>
+      <c r="C14" s="210" t="s">
+        <v>630</v>
+      </c>
+      <c r="D14" s="210" t="s">
+        <v>631</v>
+      </c>
+      <c r="E14" s="210" t="s">
+        <v>632</v>
+      </c>
+      <c r="F14" s="210" t="s">
+        <v>578</v>
+      </c>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="210" t="s">
+        <v>620</v>
+      </c>
+      <c r="B15" s="209" t="s">
+        <v>636</v>
+      </c>
+      <c r="C15" s="209" t="s">
+        <v>637</v>
+      </c>
+      <c r="D15" s="209" t="s">
+        <v>638</v>
+      </c>
+      <c r="E15" s="210" t="s">
+        <v>639</v>
+      </c>
+      <c r="F15" s="210" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="210" t="s">
+        <v>640</v>
+      </c>
+      <c r="B16" s="209" t="s">
+        <v>641</v>
+      </c>
+      <c r="C16" s="209" t="s">
+        <v>637</v>
+      </c>
+      <c r="D16" s="209" t="s">
+        <v>638</v>
+      </c>
+      <c r="E16" s="210" t="s">
+        <v>639</v>
+      </c>
+      <c r="F16" s="210" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="210" t="s">
+        <v>642</v>
+      </c>
+      <c r="B17" s="222" t="s">
+        <v>644</v>
+      </c>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="210" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="210" t="s">
+        <v>615</v>
+      </c>
+      <c r="B19" s="210" t="s">
+        <v>635</v>
+      </c>
+      <c r="C19" s="209" t="s">
+        <v>646</v>
+      </c>
+      <c r="D19" s="209" t="s">
+        <v>633</v>
+      </c>
+      <c r="E19" s="209" t="s">
+        <v>634</v>
+      </c>
+      <c r="F19" s="210" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="210" t="s">
+        <v>620</v>
+      </c>
+      <c r="B20" s="210" t="s">
+        <v>635</v>
+      </c>
+      <c r="C20" s="209" t="s">
+        <v>647</v>
+      </c>
+      <c r="D20" s="209" t="s">
+        <v>648</v>
+      </c>
+      <c r="E20" t="s">
+        <v>634</v>
+      </c>
+      <c r="F20" s="210" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="210" t="s">
+        <v>640</v>
+      </c>
+      <c r="B21" s="210" t="s">
+        <v>645</v>
+      </c>
+      <c r="C21" s="209" t="s">
+        <v>647</v>
+      </c>
+      <c r="D21" s="209" t="s">
+        <v>648</v>
+      </c>
+      <c r="E21" t="s">
+        <v>634</v>
+      </c>
+      <c r="F21" s="210" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="210" t="s">
+        <v>642</v>
+      </c>
+      <c r="B22" s="237" t="s">
+        <v>649</v>
+      </c>
+      <c r="C22" s="237"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="237"/>
+      <c r="F22" s="210" t="s">
+        <v>643</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B6:I6"/>
-    <mergeCell ref="F4:H4"/>
     <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/docs/protocols-suite.xlsx
+++ b/docs/protocols-suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42975D7A-E457-4677-AFA7-DED87EA26FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB884C4-4519-46E8-9A89-F271F3640E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="8" xr2:uid="{61336F32-1C3D-4908-AE32-B989E9366DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Classic" sheetId="6" r:id="rId6"/>
     <sheet name="VLSM" sheetId="7" r:id="rId7"/>
     <sheet name="IPv6" sheetId="8" r:id="rId8"/>
+    <sheet name="transporte" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="675">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -3723,6 +3724,81 @@
   </si>
   <si>
     <t>2e0:f7ff:fe3c:47da</t>
+  </si>
+  <si>
+    <t>Protocolo</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>Definicion</t>
+  </si>
+  <si>
+    <t>Transport Control Protocol</t>
+  </si>
+  <si>
+    <t>User Datagram Protocol</t>
+  </si>
+  <si>
+    <t>Cabecera</t>
+  </si>
+  <si>
+    <t>20 Bytes</t>
+  </si>
+  <si>
+    <t>8 Bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo </t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Datagram</t>
+  </si>
+  <si>
+    <t>Confiable (ACK)</t>
+  </si>
+  <si>
+    <t>Max. esfuerzo (Sin ACK)</t>
+  </si>
+  <si>
+    <t>Capa de Transporte</t>
+  </si>
+  <si>
+    <t>Capa de Aplicación</t>
+  </si>
+  <si>
+    <t>Organización</t>
+  </si>
+  <si>
+    <t>Conocidos</t>
+  </si>
+  <si>
+    <t>Registrados</t>
+  </si>
+  <si>
+    <t>Dinamicos</t>
+  </si>
+  <si>
+    <t>tftp - dns - dhcp</t>
+  </si>
+  <si>
+    <t>https - https - ftp - sftp - pop - smtp - ssh</t>
+  </si>
+  <si>
+    <t>Reenvio</t>
+  </si>
+  <si>
+    <t>En caso de perdida</t>
+  </si>
+  <si>
+    <t>se procesa solo lo recibido</t>
   </si>
 </sst>
 </file>
@@ -4508,7 +4584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -5022,86 +5098,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5111,9 +5115,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5140,6 +5141,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -6878,6 +6969,30 @@
 </table>
 </file>
 
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{41A3CBD8-6260-47CE-921E-C47E66FB7E2A}" name="Tabla16" displayName="Tabla16" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{41A3CBD8-6260-47CE-921E-C47E66FB7E2A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F4672F37-20C6-4D2B-8506-0822968E67E7}" name="Protocolo"/>
+    <tableColumn id="2" xr3:uid="{E0752E5B-2656-44D9-BE50-8832383F2619}" name="TCP"/>
+    <tableColumn id="3" xr3:uid="{A28E540E-DC30-4BB5-B7CF-BABF121FEA04}" name="UDP"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{11449B62-2A2E-45AD-A4E2-E95B2C337E54}" name="Tabla17" displayName="Tabla17" ref="E1:G4" totalsRowShown="0">
+  <autoFilter ref="E1:G4" xr:uid="{11449B62-2A2E-45AD-A4E2-E95B2C337E54}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ECD0979A-8857-41A4-88DC-7BAB5F0D1E5A}" name="Inicio"/>
+    <tableColumn id="2" xr3:uid="{F2BE9A95-4562-474B-8AAE-13F541482D69}" name="Fin"/>
+    <tableColumn id="3" xr3:uid="{59B8410F-A8B8-4DEB-8235-D8C00BA826AB}" name="Tipo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6C6D8F50-DDEA-4CB6-AECB-C91F008AE46E}" name="Tabla2" displayName="Tabla2" ref="E4:G9" totalsRowShown="0">
   <autoFilter ref="E4:G9" xr:uid="{6C6D8F50-DDEA-4CB6-AECB-C91F008AE46E}"/>
@@ -7322,13 +7437,13 @@
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="232" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="240" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="214" t="s">
+      <c r="D2" s="235" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7336,17 +7451,17 @@
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="215"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="236"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="213"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="216"/>
+      <c r="B4" s="234"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="237"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -7386,7 +7501,7 @@
       <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="217" t="s">
+      <c r="D7" s="238" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7400,7 +7515,7 @@
       <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="218"/>
+      <c r="D8" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7442,16 +7557,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="E3" s="222" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="E3" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -7594,11 +7709,11 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="222" t="s">
+      <c r="E11" s="243" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="243"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -7760,10 +7875,10 @@
       <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="223" t="s">
+      <c r="I2" s="244" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="224"/>
+      <c r="J2" s="245"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -7884,10 +7999,10 @@
       <c r="G7" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="223" t="s">
+      <c r="I7" s="244" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="224"/>
+      <c r="J7" s="245"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -7982,10 +8097,10 @@
       <c r="G12" t="s">
         <v>163</v>
       </c>
-      <c r="I12" s="223" t="s">
+      <c r="I12" s="244" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="224"/>
+      <c r="J12" s="245"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -8133,33 +8248,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="244" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="224"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="245"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="223" t="s">
+      <c r="G1" s="244" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="225"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
       <c r="P1" s="108"/>
-      <c r="Q1" s="225" t="s">
+      <c r="Q1" s="246" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="225"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="225"/>
-      <c r="U1" s="224"/>
+      <c r="R1" s="246"/>
+      <c r="S1" s="246"/>
+      <c r="T1" s="246"/>
+      <c r="U1" s="245"/>
       <c r="V1" s="31"/>
       <c r="W1" s="103" t="s">
         <v>182</v>
@@ -8545,32 +8660,32 @@
       <c r="E6" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H6" s="226" t="s">
+      <c r="H6" s="247" t="s">
         <v>239</v>
       </c>
-      <c r="I6" s="227"/>
-      <c r="J6" s="227"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="227"/>
-      <c r="M6" s="227"/>
-      <c r="N6" s="227"/>
-      <c r="O6" s="228"/>
+      <c r="I6" s="248"/>
+      <c r="J6" s="248"/>
+      <c r="K6" s="248"/>
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="248"/>
+      <c r="O6" s="249"/>
       <c r="P6" s="108"/>
-      <c r="Q6" s="227" t="s">
+      <c r="Q6" s="248" t="s">
         <v>184</v>
       </c>
-      <c r="R6" s="227"/>
+      <c r="R6" s="248"/>
       <c r="S6" s="96"/>
-      <c r="T6" s="222" t="s">
+      <c r="T6" s="243" t="s">
         <v>247</v>
       </c>
-      <c r="U6" s="222"/>
-      <c r="V6" s="222"/>
-      <c r="W6" s="222"/>
-      <c r="X6" s="222"/>
-      <c r="Y6" s="222"/>
-      <c r="Z6" s="222"/>
-      <c r="AA6" s="222"/>
+      <c r="U6" s="243"/>
+      <c r="V6" s="243"/>
+      <c r="W6" s="243"/>
+      <c r="X6" s="243"/>
+      <c r="Y6" s="243"/>
+      <c r="Z6" s="243"/>
+      <c r="AA6" s="243"/>
       <c r="AB6" s="57" t="s">
         <v>184</v>
       </c>
@@ -9332,53 +9447,53 @@
       <c r="A1" s="125" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="250" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234" t="s">
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234" t="s">
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250" t="s">
         <v>304</v>
       </c>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="250" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234" t="s">
+      <c r="C2" s="250"/>
+      <c r="D2" s="250" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234" t="s">
+      <c r="E2" s="250"/>
+      <c r="F2" s="250" t="s">
         <v>264</v>
       </c>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234" t="s">
+      <c r="G2" s="250"/>
+      <c r="H2" s="250" t="s">
         <v>265</v>
       </c>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234" t="s">
+      <c r="I2" s="250"/>
+      <c r="J2" s="250" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234" t="s">
+      <c r="K2" s="250"/>
+      <c r="L2" s="250" t="s">
         <v>305</v>
       </c>
-      <c r="M2" s="234"/>
+      <c r="M2" s="250"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="127" t="s">
@@ -9563,18 +9678,18 @@
       <c r="E7" s="120" t="s">
         <v>284</v>
       </c>
-      <c r="F7" s="230" t="s">
+      <c r="F7" s="252" t="s">
         <v>291</v>
       </c>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="230" t="s">
+      <c r="G7" s="252"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="252" t="s">
         <v>291</v>
       </c>
-      <c r="K7" s="230"/>
-      <c r="L7" s="230"/>
-      <c r="M7" s="231"/>
+      <c r="K7" s="252"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="253"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="130" t="s">
@@ -9592,44 +9707,44 @@
       <c r="E8" s="132" t="s">
         <v>286</v>
       </c>
-      <c r="F8" s="232" t="s">
+      <c r="F8" s="254" t="s">
         <v>292</v>
       </c>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="233"/>
-      <c r="J8" s="232" t="s">
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="255"/>
+      <c r="J8" s="254" t="s">
         <v>292</v>
       </c>
-      <c r="K8" s="232"/>
-      <c r="L8" s="232"/>
-      <c r="M8" s="233"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="255"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="229">
+      <c r="B9" s="251">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="229">
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="G9" s="229"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="229"/>
-      <c r="J9" s="229">
+      <c r="G9" s="251"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="251">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="K9" s="229"/>
-      <c r="L9" s="229"/>
-      <c r="M9" s="229"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="251"/>
+      <c r="M9" s="251"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="127" t="s">
@@ -10164,12 +10279,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
@@ -10180,6 +10289,12 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10210,15 +10325,15 @@
       <c r="A1" s="126" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="235" t="s">
+      <c r="B1" s="256" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -11058,15 +11173,15 @@
       <c r="A1" s="126" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="235" t="s">
+      <c r="B1" s="256" t="s">
         <v>475</v>
       </c>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
@@ -12208,7 +12323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BFE413-6567-4A3B-BA4C-0009554AB6BA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
@@ -12235,36 +12350,36 @@
       <c r="A1" s="103" t="s">
         <v>579</v>
       </c>
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="246" t="s">
         <v>568</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="238" t="s">
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="214" t="s">
         <v>569</v>
       </c>
-      <c r="F1" s="225" t="s">
+      <c r="F1" s="246" t="s">
         <v>570</v>
       </c>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
       <c r="J1" s="104" t="s">
         <v>577</v>
       </c>
       <c r="L1" s="103" t="s">
         <v>588</v>
       </c>
-      <c r="M1" s="238" t="s">
+      <c r="M1" s="214" t="s">
         <v>592</v>
       </c>
-      <c r="N1" s="238" t="s">
+      <c r="N1" s="214" t="s">
         <v>593</v>
       </c>
-      <c r="O1" s="238" t="s">
+      <c r="O1" s="214" t="s">
         <v>594</v>
       </c>
-      <c r="P1" s="238" t="s">
+      <c r="P1" s="214" t="s">
         <v>595</v>
       </c>
       <c r="Q1" s="104" t="s">
@@ -12275,46 +12390,46 @@
       <c r="A2" s="36" t="s">
         <v>584</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="226" t="s">
         <v>571</v>
       </c>
-      <c r="C2" s="251" t="s">
+      <c r="C2" s="226" t="s">
         <v>572</v>
       </c>
-      <c r="D2" s="251" t="s">
+      <c r="D2" s="226" t="s">
         <v>573</v>
       </c>
-      <c r="E2" s="253" t="s">
+      <c r="E2" s="228" t="s">
         <v>574</v>
       </c>
-      <c r="F2" s="255" t="s">
+      <c r="F2" s="230" t="s">
         <v>575</v>
       </c>
-      <c r="G2" s="255" t="s">
+      <c r="G2" s="230" t="s">
         <v>575</v>
       </c>
-      <c r="H2" s="255" t="s">
+      <c r="H2" s="230" t="s">
         <v>575</v>
       </c>
-      <c r="I2" s="255" t="s">
+      <c r="I2" s="230" t="s">
         <v>576</v>
       </c>
-      <c r="J2" s="239" t="s">
+      <c r="J2" s="215" t="s">
         <v>578</v>
       </c>
-      <c r="L2" s="246" t="s">
+      <c r="L2" s="221" t="s">
         <v>589</v>
       </c>
       <c r="M2" s="85">
         <v>2000</v>
       </c>
-      <c r="N2" s="242" t="s">
+      <c r="N2" s="218" t="s">
         <v>597</v>
       </c>
-      <c r="O2" s="247">
+      <c r="O2" s="222">
         <v>3</v>
       </c>
-      <c r="P2" s="247" t="s">
+      <c r="P2" s="222" t="s">
         <v>598</v>
       </c>
       <c r="Q2" s="37" t="s">
@@ -12322,34 +12437,34 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="216" t="s">
         <v>580</v>
       </c>
-      <c r="B3" s="250" t="s">
+      <c r="B3" s="225" t="s">
         <v>571</v>
       </c>
-      <c r="C3" s="250" t="s">
+      <c r="C3" s="225" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="250" t="s">
+      <c r="D3" s="225" t="s">
         <v>573</v>
       </c>
-      <c r="E3" s="252" t="s">
+      <c r="E3" s="227" t="s">
         <v>582</v>
       </c>
-      <c r="F3" s="254" t="s">
+      <c r="F3" s="229" t="s">
         <v>583</v>
       </c>
-      <c r="G3" s="254" t="s">
+      <c r="G3" s="229" t="s">
         <v>583</v>
       </c>
-      <c r="H3" s="254" t="s">
+      <c r="H3" s="229" t="s">
         <v>583</v>
       </c>
-      <c r="I3" s="254">
+      <c r="I3" s="229">
         <v>1</v>
       </c>
-      <c r="J3" s="241" t="s">
+      <c r="J3" s="217" t="s">
         <v>578</v>
       </c>
       <c r="L3" s="38" t="s">
@@ -12361,10 +12476,10 @@
       <c r="N3" s="88" t="s">
         <v>601</v>
       </c>
-      <c r="O3" s="248">
+      <c r="O3" s="223">
         <v>10</v>
       </c>
-      <c r="P3" s="248" t="s">
+      <c r="P3" s="223" t="s">
         <v>602</v>
       </c>
       <c r="Q3" s="39" t="s">
@@ -12375,27 +12490,27 @@
       <c r="A4" s="36" t="s">
         <v>585</v>
       </c>
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="226" t="s">
         <v>571</v>
       </c>
-      <c r="C4" s="251" t="s">
+      <c r="C4" s="226" t="s">
         <v>581</v>
       </c>
-      <c r="D4" s="251" t="s">
+      <c r="D4" s="226" t="s">
         <v>573</v>
       </c>
-      <c r="E4" s="253" t="s">
+      <c r="E4" s="228" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="255" t="s">
+      <c r="F4" s="230" t="s">
         <v>586</v>
       </c>
-      <c r="G4" s="255"/>
-      <c r="H4" s="255"/>
-      <c r="I4" s="255">
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="230">
         <v>1</v>
       </c>
-      <c r="J4" s="239" t="s">
+      <c r="J4" s="215" t="s">
         <v>578</v>
       </c>
       <c r="L4" s="36" t="s">
@@ -12407,10 +12522,10 @@
       <c r="N4" s="85" t="s">
         <v>605</v>
       </c>
-      <c r="O4" s="247">
+      <c r="O4" s="222">
         <v>7</v>
       </c>
-      <c r="P4" s="247" t="s">
+      <c r="P4" s="222" t="s">
         <v>606</v>
       </c>
       <c r="Q4" s="37" t="s">
@@ -12421,32 +12536,32 @@
       <c r="A5" s="34" t="s">
         <v>587</v>
       </c>
-      <c r="B5" s="244" t="s">
+      <c r="B5" s="259" t="s">
         <v>612</v>
       </c>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="243" t="s">
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="219" t="s">
         <v>578</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="M5" s="249" t="s">
+      <c r="M5" s="224" t="s">
         <v>608</v>
       </c>
-      <c r="N5" s="249" t="s">
+      <c r="N5" s="224" t="s">
         <v>609</v>
       </c>
-      <c r="O5" s="245">
+      <c r="O5" s="220">
         <v>8</v>
       </c>
-      <c r="P5" s="245" t="s">
+      <c r="P5" s="220" t="s">
         <v>611</v>
       </c>
       <c r="Q5" s="35" t="s">
@@ -12454,17 +12569,17 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="236">
+      <c r="B6" s="258">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
-      <c r="I6" s="236"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="258"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="258"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="258"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F7" s="202"/>
@@ -12473,13 +12588,13 @@
       <c r="A8" s="202" t="s">
         <v>613</v>
       </c>
-      <c r="B8" s="222" t="s">
+      <c r="B8" s="243" t="s">
         <v>614</v>
       </c>
-      <c r="C8" s="222"/>
-      <c r="D8" s="222"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="222"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -12491,13 +12606,13 @@
       <c r="B9" s="32" t="s">
         <v>617</v>
       </c>
-      <c r="C9" s="256" t="s">
+      <c r="C9" s="231" t="s">
         <v>618</v>
       </c>
-      <c r="D9" s="256" t="s">
+      <c r="D9" s="231" t="s">
         <v>616</v>
       </c>
-      <c r="E9" s="256" t="s">
+      <c r="E9" s="231" t="s">
         <v>619</v>
       </c>
       <c r="F9" s="202" t="s">
@@ -12508,7 +12623,7 @@
       <c r="A10" s="202" t="s">
         <v>620</v>
       </c>
-      <c r="B10" s="256" t="s">
+      <c r="B10" s="231" t="s">
         <v>617</v>
       </c>
       <c r="C10" s="210" t="s">
@@ -12517,7 +12632,7 @@
       <c r="D10" s="210" t="s">
         <v>623</v>
       </c>
-      <c r="E10" s="256" t="s">
+      <c r="E10" s="231" t="s">
         <v>619</v>
       </c>
       <c r="F10" s="202" t="s">
@@ -12531,13 +12646,13 @@
       <c r="B11" s="32" t="s">
         <v>626</v>
       </c>
-      <c r="C11" s="256" t="s">
+      <c r="C11" s="231" t="s">
         <v>622</v>
       </c>
-      <c r="D11" s="256" t="s">
+      <c r="D11" s="231" t="s">
         <v>623</v>
       </c>
-      <c r="E11" s="256" t="s">
+      <c r="E11" s="231" t="s">
         <v>619</v>
       </c>
       <c r="F11" s="202" t="s">
@@ -12548,18 +12663,18 @@
       <c r="A12" s="202" t="s">
         <v>627</v>
       </c>
-      <c r="B12" s="237" t="s">
+      <c r="B12" s="257" t="s">
         <v>628</v>
       </c>
-      <c r="C12" s="237"/>
-      <c r="D12" s="237"/>
-      <c r="E12" s="237"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="257"/>
+      <c r="E12" s="257"/>
       <c r="F12" s="202" t="s">
         <v>578</v>
       </c>
-      <c r="G12" s="256"/>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="231"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="202"/>
@@ -12639,12 +12754,12 @@
       <c r="A17" s="210" t="s">
         <v>642</v>
       </c>
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="243" t="s">
         <v>644</v>
       </c>
-      <c r="C17" s="222"/>
-      <c r="D17" s="222"/>
-      <c r="E17" s="222"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
       <c r="F17" s="210" t="s">
         <v>578</v>
       </c>
@@ -12713,12 +12828,12 @@
       <c r="A22" s="210" t="s">
         <v>642</v>
       </c>
-      <c r="B22" s="237" t="s">
+      <c r="B22" s="257" t="s">
         <v>649</v>
       </c>
-      <c r="C22" s="237"/>
-      <c r="D22" s="237"/>
-      <c r="E22" s="237"/>
+      <c r="C22" s="257"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="257"/>
       <c r="F22" s="210" t="s">
         <v>643</v>
       </c>
@@ -12738,4 +12853,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F04BEE-0B0C-4839-8E89-B927729AD621}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1" s="211" t="s">
+        <v>651</v>
+      </c>
+      <c r="C1" s="211" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B2" s="261" t="s">
+        <v>654</v>
+      </c>
+      <c r="C2" s="261" t="s">
+        <v>655</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1023</v>
+      </c>
+      <c r="G2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B3" s="261" t="s">
+        <v>657</v>
+      </c>
+      <c r="C3" s="261" t="s">
+        <v>658</v>
+      </c>
+      <c r="E3">
+        <v>1024</v>
+      </c>
+      <c r="F3">
+        <v>49151</v>
+      </c>
+      <c r="G3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="261" t="s">
+        <v>660</v>
+      </c>
+      <c r="C4" s="261" t="s">
+        <v>661</v>
+      </c>
+      <c r="E4">
+        <v>49152</v>
+      </c>
+      <c r="F4">
+        <v>65535</v>
+      </c>
+      <c r="G4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B5" s="261" t="s">
+        <v>662</v>
+      </c>
+      <c r="C5" s="261" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B6" s="261" t="s">
+        <v>664</v>
+      </c>
+      <c r="C6" s="261" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B7" s="261" t="s">
+        <v>673</v>
+      </c>
+      <c r="C7" s="261" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="213" t="s">
+        <v>671</v>
+      </c>
+      <c r="C8" s="260" t="s">
+        <v>670</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>